--- a/databases/cases.xlsx
+++ b/databases/cases.xlsx
@@ -18,28 +18,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Confirmados</t>
-  </si>
-  <si>
     <t>Provicia \ día</t>
   </si>
   <si>
-    <t>Teóricos Tasa 1.236</t>
+    <t xml:space="preserve">CABA Casos Confirmados </t>
   </si>
   <si>
-    <t>MSE</t>
+    <t xml:space="preserve">CABA Casos Recuperados </t>
   </si>
   <si>
-    <t>total MSE</t>
+    <t xml:space="preserve">CABA Casos Muertos </t>
   </si>
   <si>
-    <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
+    <t>CABA Casos Activos</t>
   </si>
   <si>
     <t>03/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As Casos Confirmados </t>
   </si>
   <si>
     <t>03/16</t>
@@ -72,9 +69,6 @@
     <t>03/25</t>
   </si>
   <si>
-    <t xml:space="preserve">CABA Casos Confirmados </t>
-  </si>
-  <si>
     <t>03/26</t>
   </si>
   <si>
@@ -96,34 +90,40 @@
     <t>Tests acumulativos</t>
   </si>
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Confirmados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As  Casos Recuperados </t>
+  </si>
+  <si>
+    <t>Teóricos Tasa 1.236</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As  Casos Muertos </t>
+  </si>
+  <si>
+    <t>total MSE</t>
+  </si>
+  <si>
+    <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
+  </si>
+  <si>
     <t>20202281585415264161</t>
   </si>
   <si>
     <t>ZaBlfONzILttXxum</t>
   </si>
   <si>
-    <t xml:space="preserve">CABA Casos Recuperados </t>
-  </si>
-  <si>
     <t>HTMF</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">CABA Casos Muertos </t>
-  </si>
-  <si>
-    <t>CABA Casos Activos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As Casos Confirmados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As  Casos Recuperados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As  Casos Muertos </t>
   </si>
   <si>
     <t>Bs As  Casos Activos</t>
@@ -479,10 +479,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
+    <numFmt numFmtId="165" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
@@ -554,10 +554,21 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -566,12 +577,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -579,15 +586,8 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -644,11 +644,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1259665504"/>
-        <c:axId val="677808226"/>
+        <c:axId val="1737280420"/>
+        <c:axId val="1378409722"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1259665504"/>
+        <c:axId val="1737280420"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,10 +690,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677808226"/>
+        <c:crossAx val="1378409722"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="677808226"/>
+        <c:axId val="1378409722"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +762,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1259665504"/>
+        <c:crossAx val="1737280420"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1084,157 +1084,160 @@
     <col customWidth="1" min="29" max="30" width="6.29"/>
     <col customWidth="1" min="31" max="31" width="7.29"/>
     <col customWidth="1" min="32" max="36" width="6.0"/>
-    <col customWidth="1" min="37" max="39" width="5.86"/>
+    <col customWidth="1" min="37" max="40" width="5.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>43893.0</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="3">
         <f t="shared" ref="C1:U1" si="1">B1+1</f>
         <v>43894</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="2">
         <f t="shared" si="1"/>
         <v>43895</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="2">
         <f t="shared" si="1"/>
         <v>43896</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="2">
         <f t="shared" si="1"/>
         <v>43897</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="2">
         <f t="shared" si="1"/>
         <v>43898</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="2">
         <f t="shared" si="1"/>
         <v>43899</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="2">
         <f t="shared" si="1"/>
         <v>43900</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="2">
         <f t="shared" si="1"/>
         <v>43901</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="2">
         <f t="shared" si="1"/>
         <v>43902</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="2">
         <f t="shared" si="1"/>
         <v>43903</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="2">
         <f t="shared" si="1"/>
         <v>43904</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="2">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="2">
         <f t="shared" si="1"/>
         <v>43906</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="2">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="2">
         <f t="shared" si="1"/>
         <v>43908</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="2">
         <f t="shared" si="1"/>
         <v>43909</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="2">
         <f t="shared" si="1"/>
         <v>43910</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="2">
         <f t="shared" si="1"/>
         <v>43911</v>
       </c>
-      <c r="U1" s="8">
+      <c r="U1" s="2">
         <f t="shared" si="1"/>
         <v>43912</v>
       </c>
-      <c r="V1" s="8">
+      <c r="V1" s="2">
         <v>43913.0</v>
       </c>
-      <c r="W1" s="8">
+      <c r="W1" s="2">
         <f>V1+1</f>
         <v>43914</v>
       </c>
-      <c r="X1" s="8">
+      <c r="X1" s="2">
         <v>43915.0</v>
       </c>
-      <c r="Y1" s="8">
+      <c r="Y1" s="2">
         <v>43916.0</v>
       </c>
-      <c r="Z1" s="8">
+      <c r="Z1" s="2">
         <f t="shared" ref="Z1:AE1" si="2">Y1+1</f>
         <v>43917</v>
       </c>
-      <c r="AA1" s="8">
+      <c r="AA1" s="2">
         <f t="shared" si="2"/>
         <v>43918</v>
       </c>
-      <c r="AB1" s="8">
+      <c r="AB1" s="2">
         <f t="shared" si="2"/>
         <v>43919</v>
       </c>
-      <c r="AC1" s="8">
+      <c r="AC1" s="2">
         <f t="shared" si="2"/>
         <v>43920</v>
       </c>
-      <c r="AD1" s="8">
+      <c r="AD1" s="2">
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="AE1" s="8">
+      <c r="AE1" s="2">
         <f t="shared" si="2"/>
         <v>43922</v>
       </c>
-      <c r="AF1" s="8">
+      <c r="AF1" s="2">
         <v>43923.0</v>
       </c>
-      <c r="AG1" s="8">
+      <c r="AG1" s="2">
         <v>43924.0</v>
       </c>
-      <c r="AH1" s="8">
+      <c r="AH1" s="2">
         <v>43925.0</v>
       </c>
-      <c r="AI1" s="8">
+      <c r="AI1" s="2">
         <v>43926.0</v>
       </c>
-      <c r="AJ1" s="8">
+      <c r="AJ1" s="2">
         <v>43927.0</v>
       </c>
-      <c r="AK1" s="8">
+      <c r="AK1" s="2">
         <v>43928.0</v>
       </c>
-      <c r="AL1" s="8">
+      <c r="AL1" s="2">
         <v>43929.0</v>
       </c>
-      <c r="AM1" s="8">
+      <c r="AM1" s="2">
         <v>43930.0</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>43931.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -1321,30 +1324,30 @@
         <f>AA2+13</f>
         <v>258</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="AC2" s="4">
         <f>AB2+34</f>
         <v>292</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="4">
         <f>19+AC2</f>
         <v>311</v>
       </c>
       <c r="AE2" s="1">
         <v>321.0</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="4">
         <f>AE2+24</f>
         <v>345</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AG2" s="4">
         <f>AF2+28</f>
         <v>373</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AH2" s="4">
         <f>34+AG2</f>
         <v>407</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AI2" s="4">
         <f>32+AH2</f>
         <v>439</v>
       </c>
@@ -1364,10 +1367,14 @@
         <f>AL2+23</f>
         <v>521</v>
       </c>
+      <c r="AN2" s="1">
+        <f>11+AM2</f>
+        <v>532</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
@@ -1450,25 +1457,25 @@
       <c r="AB3" s="1">
         <v>53.0</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="4">
         <v>53.0</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="4">
         <v>53.0</v>
       </c>
       <c r="AE3" s="1">
         <v>53.0</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="4">
         <v>53.0</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="4">
         <v>53.0</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="4">
         <v>53.0</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="4">
         <v>53.0</v>
       </c>
       <c r="AJ3" s="1">
@@ -1483,10 +1490,13 @@
       <c r="AM3" s="1">
         <v>53.0</v>
       </c>
+      <c r="AN3" s="1">
+        <v>53.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -1569,25 +1579,25 @@
       <c r="AB4" s="1">
         <v>8.0</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="4">
         <v>8.0</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="4">
         <v>8.0</v>
       </c>
       <c r="AE4" s="1">
         <v>9.0</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="4">
         <v>9.0</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AG4" s="4">
         <v>9.0</v>
       </c>
-      <c r="AH4" s="6">
+      <c r="AH4" s="4">
         <v>9.0</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AI4" s="4">
         <v>10.0</v>
       </c>
       <c r="AJ4" s="1">
@@ -1602,10 +1612,13 @@
       <c r="AM4" s="1">
         <v>23.0</v>
       </c>
+      <c r="AN4" s="1">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -1671,7 +1684,7 @@
         <v>77.0</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5:AM5" si="3">W2-W3-W4</f>
+        <f t="shared" ref="W5:AN5" si="3">W2-W3-W4</f>
         <v>107</v>
       </c>
       <c r="X5" s="1">
@@ -1694,11 +1707,11 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="4">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="4">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
@@ -1706,19 +1719,19 @@
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="4">
         <f t="shared" si="3"/>
         <v>283</v>
       </c>
-      <c r="AG5" s="6">
+      <c r="AG5" s="4">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="AH5" s="6">
+      <c r="AH5" s="4">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="4">
         <f t="shared" si="3"/>
         <v>376</v>
       </c>
@@ -1738,10 +1751,14 @@
         <f t="shared" si="3"/>
         <v>445</v>
       </c>
+      <c r="AN5" s="1">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1824,30 +1841,30 @@
         <f>AA6+16</f>
         <v>217</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="4">
         <f>AB6+36</f>
         <v>253</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="4">
         <f>17+AC6</f>
         <v>270</v>
       </c>
       <c r="AE6" s="1">
         <v>280.0</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="4">
         <f>AE6+36</f>
         <v>316</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="4">
         <f>AF6+22</f>
         <v>338</v>
       </c>
-      <c r="AH6" s="6">
+      <c r="AH6" s="4">
         <f>AG6+26</f>
         <v>364</v>
       </c>
-      <c r="AI6" s="6">
+      <c r="AI6" s="4">
         <f>33+AH6</f>
         <v>397</v>
       </c>
@@ -1867,10 +1884,14 @@
         <f>AL6+28</f>
         <v>488</v>
       </c>
+      <c r="AN6" s="1">
+        <f>19+AM6</f>
+        <v>507</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1982,10 +2003,13 @@
       <c r="AM7" s="1">
         <v>15.0</v>
       </c>
+      <c r="AN7" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2097,6 +2121,9 @@
       <c r="AM8" s="1">
         <v>31.0</v>
       </c>
+      <c r="AN8" s="1">
+        <v>32.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -2168,7 +2195,7 @@
         <v>129.0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:AM9" si="5">Y6-Y7-Y8</f>
+        <f t="shared" ref="Y9:AN9" si="5">Y6-Y7-Y8</f>
         <v>139</v>
       </c>
       <c r="Z9" s="1">
@@ -2211,11 +2238,11 @@
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
-      <c r="AJ9" s="6">
+      <c r="AJ9" s="4">
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AK9" s="4">
         <f t="shared" si="5"/>
         <v>405</v>
       </c>
@@ -2226,6 +2253,10 @@
       <c r="AM9" s="1">
         <f t="shared" si="5"/>
         <v>442</v>
+      </c>
+      <c r="AN9" s="1">
+        <f t="shared" si="5"/>
+        <v>460</v>
       </c>
     </row>
     <row r="10">
@@ -2312,22 +2343,22 @@
         <f>AA10+18</f>
         <v>73</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="4">
         <f>AB10+8</f>
         <v>81</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="4">
         <f>AC10+14</f>
         <v>95</v>
       </c>
       <c r="AE10" s="1">
         <v>101.0</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="4">
         <f>AE10+16</f>
         <v>117</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="4">
         <f>AF10+14</f>
         <v>131</v>
       </c>
@@ -2350,6 +2381,10 @@
       <c r="AM10" s="1">
         <f>5+AL10</f>
         <v>156</v>
+      </c>
+      <c r="AN10" s="1">
+        <f>13+AM10</f>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -2464,6 +2499,9 @@
       <c r="AM11" s="1">
         <v>1.0</v>
       </c>
+      <c r="AN11" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -2577,6 +2615,9 @@
       <c r="AM12" s="1">
         <v>2.0</v>
       </c>
+      <c r="AN12" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -2687,11 +2728,11 @@
         <f t="shared" si="7"/>
         <v>136</v>
       </c>
-      <c r="AJ13" s="6">
+      <c r="AJ13" s="4">
         <f t="shared" si="7"/>
         <v>143</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AK13" s="4">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
@@ -2701,6 +2742,10 @@
       </c>
       <c r="AM13" s="1">
         <v>153.0</v>
+      </c>
+      <c r="AN13" s="1">
+        <f>AN10-AN11-AN12</f>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
@@ -2811,6 +2856,9 @@
       <c r="AM14" s="1">
         <v>11.0</v>
       </c>
+      <c r="AN14" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -2918,6 +2966,9 @@
       <c r="AM15" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN15" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -3025,6 +3076,9 @@
       <c r="AM16" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN16" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -3137,6 +3191,10 @@
       </c>
       <c r="AM17" s="1">
         <v>11.0</v>
+      </c>
+      <c r="AN17" s="1">
+        <f>AN14-AN15-AN16</f>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -3258,6 +3316,10 @@
       <c r="AM18" s="1">
         <v>144.0</v>
       </c>
+      <c r="AN18" s="1">
+        <f>5+AM18</f>
+        <v>149</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -3365,6 +3427,9 @@
       <c r="AM19" s="1">
         <v>4.0</v>
       </c>
+      <c r="AN19" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -3470,6 +3535,9 @@
         <v>7.0</v>
       </c>
       <c r="AM20" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="AN20" s="1">
         <v>8.0</v>
       </c>
     </row>
@@ -3578,7 +3646,7 @@
         <v>104.0</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" ref="AJ21:AM21" si="11">AJ18-AJ19-AJ20</f>
+        <f t="shared" ref="AJ21:AN21" si="11">AJ18-AJ19-AJ20</f>
         <v>108</v>
       </c>
       <c r="AK21" s="1">
@@ -3592,6 +3660,10 @@
       <c r="AM21" s="1">
         <f t="shared" si="11"/>
         <v>132</v>
+      </c>
+      <c r="AN21" s="1">
+        <f t="shared" si="11"/>
+        <v>137</v>
       </c>
     </row>
     <row r="22">
@@ -3701,6 +3773,10 @@
         <f>13+AL22</f>
         <v>35</v>
       </c>
+      <c r="AN22" s="1">
+        <f>7+AM22</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -3808,6 +3884,9 @@
       <c r="AM23" s="1">
         <v>1.0</v>
       </c>
+      <c r="AN23" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -3915,6 +3994,9 @@
       <c r="AM24" s="1">
         <v>1.0</v>
       </c>
+      <c r="AN24" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -4026,6 +4108,10 @@
       </c>
       <c r="AM25" s="1">
         <v>33.0</v>
+      </c>
+      <c r="AN25" s="1">
+        <f>AN22-AN23-AN24</f>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
@@ -4096,18 +4182,18 @@
         <f>AA26+13</f>
         <v>90</v>
       </c>
-      <c r="AC26" s="6">
+      <c r="AC26" s="4">
         <f>AB26+21</f>
         <v>111</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AD26" s="4">
         <f>AC26+22</f>
         <v>133</v>
       </c>
       <c r="AE26" s="1">
         <v>144.0</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AF26" s="4">
         <f>8+AE26</f>
         <v>152</v>
       </c>
@@ -4134,6 +4220,9 @@
       <c r="AM26" s="1">
         <f>7+AL26</f>
         <v>196</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>197.0</v>
       </c>
     </row>
     <row r="27">
@@ -4232,6 +4321,9 @@
       <c r="AM27" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN27" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -4329,6 +4421,9 @@
       <c r="AM28" s="1">
         <v>2.0</v>
       </c>
+      <c r="AN28" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -4425,12 +4520,16 @@
         <v>186.0</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" ref="AL29:AM29" si="14">AL26-AL27-AL28</f>
+        <f t="shared" ref="AL29:AN29" si="14">AL26-AL27-AL28</f>
         <v>188</v>
       </c>
       <c r="AM29" s="1">
         <f t="shared" si="14"/>
         <v>194</v>
+      </c>
+      <c r="AN29" s="1">
+        <f t="shared" si="14"/>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
@@ -4498,7 +4597,7 @@
         <f>AA30+4</f>
         <v>21</v>
       </c>
-      <c r="AC30" s="6">
+      <c r="AC30" s="4">
         <f>AB30+11</f>
         <v>32</v>
       </c>
@@ -4508,7 +4607,7 @@
       <c r="AE30" s="1">
         <v>39.0</v>
       </c>
-      <c r="AF30" s="6">
+      <c r="AF30" s="4">
         <f>24+AE30</f>
         <v>63</v>
       </c>
@@ -4533,6 +4632,9 @@
       </c>
       <c r="AM30" s="1">
         <v>81.0</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>83.0</v>
       </c>
     </row>
     <row r="31">
@@ -4629,6 +4731,9 @@
       <c r="AM31" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN31" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -4722,6 +4827,9 @@
         <v>0.0</v>
       </c>
       <c r="AM32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN32" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -4823,6 +4931,10 @@
       </c>
       <c r="AM33" s="1">
         <v>81.0</v>
+      </c>
+      <c r="AN33" s="1">
+        <f>AN30-AN31-AN32</f>
+        <v>83</v>
       </c>
     </row>
     <row r="34">
@@ -4892,7 +5004,7 @@
       <c r="AE34" s="1">
         <v>3.0</v>
       </c>
-      <c r="AF34" s="6">
+      <c r="AF34" s="4">
         <f>2+AE34</f>
         <v>5</v>
       </c>
@@ -4915,6 +5027,9 @@
         <v>5.0</v>
       </c>
       <c r="AM34" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AN34" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -5008,6 +5123,9 @@
       <c r="AM35" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN35" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
@@ -5099,6 +5217,9 @@
       <c r="AM36" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN36" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -5195,6 +5316,10 @@
       <c r="AM37" s="1">
         <v>5.0</v>
       </c>
+      <c r="AN37" s="1">
+        <f>AN34-AN35-AN36</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
@@ -5286,6 +5411,9 @@
       <c r="AM38" s="1">
         <v>3.0</v>
       </c>
+      <c r="AN38" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
@@ -5377,6 +5505,9 @@
       <c r="AM39" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN39" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -5468,6 +5599,9 @@
       <c r="AM40" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN40" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -5564,6 +5698,10 @@
       <c r="AM41" s="1">
         <v>3.0</v>
       </c>
+      <c r="AN41" s="1">
+        <f>AN38-AN39-AN40</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
@@ -5655,6 +5793,9 @@
       <c r="AM42" s="1">
         <v>22.0</v>
       </c>
+      <c r="AN42" s="1">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -5746,6 +5887,9 @@
       <c r="AM43" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN43" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -5837,6 +5981,9 @@
       <c r="AM44" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN44" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -5932,6 +6079,10 @@
       </c>
       <c r="AM45" s="1">
         <v>22.0</v>
+      </c>
+      <c r="AN45" s="1">
+        <f>AN42-AN43-AN44</f>
+        <v>22</v>
       </c>
     </row>
     <row r="46">
@@ -5994,7 +6145,7 @@
       <c r="AE46" s="1">
         <v>21.0</v>
       </c>
-      <c r="AF46" s="6">
+      <c r="AF46" s="4">
         <f>AE46+1</f>
         <v>22</v>
       </c>
@@ -6017,6 +6168,9 @@
         <v>24.0</v>
       </c>
       <c r="AM46" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AN46" s="1">
         <v>24.0</v>
       </c>
     </row>
@@ -6104,6 +6258,9 @@
       <c r="AM47" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN47" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -6189,6 +6346,9 @@
       <c r="AM48" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN48" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -6279,6 +6439,10 @@
       <c r="AM49" s="1">
         <v>24.0</v>
       </c>
+      <c r="AN49" s="1">
+        <f>AN46-AN47-AN48</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
@@ -6364,6 +6528,9 @@
       <c r="AM50" s="1">
         <v>9.0</v>
       </c>
+      <c r="AN50" s="1">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -6449,6 +6616,9 @@
       <c r="AM51" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN51" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -6534,6 +6704,9 @@
       <c r="AM52" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN52" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -6624,6 +6797,10 @@
       </c>
       <c r="AM53" s="1">
         <v>9.0</v>
+      </c>
+      <c r="AN53" s="1">
+        <f>AN50-AN51-AN52</f>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -6710,6 +6887,9 @@
       <c r="AM54" s="1">
         <v>77.0</v>
       </c>
+      <c r="AN54" s="1">
+        <v>84.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -6795,6 +6975,9 @@
       <c r="AM55" s="1">
         <v>1.0</v>
       </c>
+      <c r="AN55" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -6878,6 +7061,9 @@
         <v>3.0</v>
       </c>
       <c r="AM56" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AN56" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -6971,6 +7157,10 @@
       </c>
       <c r="AM57" s="1">
         <v>73.0</v>
+      </c>
+      <c r="AN57" s="1">
+        <f>AN54-AN55-AN56</f>
+        <v>80</v>
       </c>
     </row>
     <row r="58">
@@ -7056,6 +7246,9 @@
       <c r="AM58" s="1">
         <v>40.0</v>
       </c>
+      <c r="AN58" s="1">
+        <v>49.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -7139,6 +7332,9 @@
       <c r="AM59" s="1">
         <v>1.0</v>
       </c>
+      <c r="AN59" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
@@ -7220,6 +7416,9 @@
         <v>5.0</v>
       </c>
       <c r="AM60" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AN60" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -7311,6 +7510,10 @@
       <c r="AM61" s="1">
         <v>34.0</v>
       </c>
+      <c r="AN61" s="1">
+        <f>AN58-AN59-AN60</f>
+        <v>43</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
@@ -7398,6 +7601,9 @@
       <c r="AM62" s="1">
         <v>29.0</v>
       </c>
+      <c r="AN62" s="1">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
@@ -7485,6 +7691,9 @@
       <c r="AM63" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN63" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -7572,6 +7781,9 @@
       <c r="AM64" s="1">
         <v>3.0</v>
       </c>
+      <c r="AN64" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -7659,10 +7871,14 @@
         <v>26.0</v>
       </c>
       <c r="AL65" s="1">
-        <f t="shared" ref="AL65:AM65" si="27">AL62-AL63-AL64</f>
+        <f t="shared" ref="AL65:AN65" si="27">AL62-AL63-AL64</f>
         <v>25</v>
       </c>
       <c r="AM65" s="1">
+        <f t="shared" si="27"/>
+        <v>26</v>
+      </c>
+      <c r="AN65" s="1">
         <f t="shared" si="27"/>
         <v>26</v>
       </c>
@@ -7758,6 +7974,9 @@
       <c r="AM66" s="1">
         <v>31.0</v>
       </c>
+      <c r="AN66" s="1">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -7849,6 +8068,9 @@
       <c r="AM67" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN67" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -7940,6 +8162,9 @@
       <c r="AM68" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN68" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
@@ -8034,6 +8259,10 @@
       </c>
       <c r="AM69" s="1">
         <v>31.0</v>
+      </c>
+      <c r="AN69" s="1">
+        <f>AN66-AN67-AN68</f>
+        <v>37</v>
       </c>
     </row>
     <row r="70">
@@ -8244,6 +8473,9 @@
       <c r="AM74" s="1">
         <v>3.0</v>
       </c>
+      <c r="AN74" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
@@ -8325,6 +8557,9 @@
       <c r="AM75" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN75" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
@@ -8406,6 +8641,9 @@
       <c r="AM76" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN76" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
@@ -8490,6 +8728,10 @@
       </c>
       <c r="AM77" s="1">
         <v>3.0</v>
+      </c>
+      <c r="AN77" s="1">
+        <f>AN74-AN75-AN76</f>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
@@ -8814,6 +9056,9 @@
       <c r="AM86" s="1">
         <v>14.0</v>
       </c>
+      <c r="AN86" s="1">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
@@ -8881,6 +9126,9 @@
       <c r="AM87" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN87" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
@@ -8946,6 +9194,9 @@
         <v>1.0</v>
       </c>
       <c r="AM88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AN88" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -9018,6 +9269,10 @@
       <c r="AM89" s="1">
         <v>13.0</v>
       </c>
+      <c r="AN89" s="1">
+        <f>AN86-AN87-AN88</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
@@ -9085,6 +9340,9 @@
       <c r="AM90" s="1">
         <v>1.0</v>
       </c>
+      <c r="AN90" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
@@ -9152,6 +9410,9 @@
       <c r="AM91" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN91" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
@@ -9217,6 +9478,9 @@
         <v>0.0</v>
       </c>
       <c r="AM92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AN92" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9288,6 +9552,10 @@
       <c r="AM93" s="1">
         <v>1.0</v>
       </c>
+      <c r="AN93" s="1">
+        <f>AN90-AN91-AN92</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
@@ -9365,6 +9633,9 @@
       <c r="AM94" s="1">
         <v>4.0</v>
       </c>
+      <c r="AN94" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
@@ -9442,6 +9713,9 @@
       <c r="AM95" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN95" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
@@ -9519,6 +9793,9 @@
       <c r="AM96" s="1">
         <v>0.0</v>
       </c>
+      <c r="AN96" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
@@ -9600,283 +9877,294 @@
       <c r="AM97" s="1">
         <v>4.0</v>
       </c>
+      <c r="AN97" s="1">
+        <f>AN94-AN95-AN96</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="2">
-        <f t="shared" ref="B98:AM98" si="31">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
+      <c r="B98" s="7">
+        <f t="shared" ref="B98:AN98" si="31">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
         <v>1</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="7">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="7">
         <f t="shared" si="31"/>
         <v>2</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="7">
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="7">
         <f t="shared" si="31"/>
         <v>9</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="7">
         <f t="shared" si="31"/>
         <v>12</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="7">
         <f t="shared" si="31"/>
         <v>17</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="7">
         <f t="shared" si="31"/>
         <v>19</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="7">
         <f t="shared" si="31"/>
         <v>21</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="7">
         <f t="shared" si="31"/>
         <v>31</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L98" s="7">
         <f t="shared" si="31"/>
         <v>34</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98" s="7">
         <f t="shared" si="31"/>
         <v>45</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N98" s="7">
         <f t="shared" si="31"/>
         <v>56</v>
       </c>
-      <c r="O98" s="2">
+      <c r="O98" s="7">
         <f t="shared" si="31"/>
         <v>65</v>
       </c>
-      <c r="P98" s="2">
+      <c r="P98" s="7">
         <f t="shared" si="31"/>
         <v>79</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q98" s="7">
         <f t="shared" si="31"/>
         <v>97</v>
       </c>
-      <c r="R98" s="2">
+      <c r="R98" s="7">
         <f t="shared" si="31"/>
         <v>128</v>
       </c>
-      <c r="S98" s="2">
+      <c r="S98" s="7">
         <f t="shared" si="31"/>
         <v>158</v>
       </c>
-      <c r="T98" s="2">
+      <c r="T98" s="7">
         <f t="shared" si="31"/>
         <v>225</v>
       </c>
-      <c r="U98" s="2">
+      <c r="U98" s="7">
         <f t="shared" si="31"/>
         <v>266</v>
       </c>
-      <c r="V98" s="2">
+      <c r="V98" s="7">
         <f t="shared" si="31"/>
         <v>301</v>
       </c>
-      <c r="W98" s="2">
+      <c r="W98" s="7">
         <f t="shared" si="31"/>
         <v>387</v>
       </c>
-      <c r="X98" s="2">
+      <c r="X98" s="7">
         <f t="shared" si="31"/>
         <v>502</v>
       </c>
-      <c r="Y98" s="2">
+      <c r="Y98" s="7">
         <f t="shared" si="31"/>
         <v>589</v>
       </c>
-      <c r="Z98" s="2">
+      <c r="Z98" s="7">
         <f t="shared" si="31"/>
         <v>690</v>
       </c>
-      <c r="AA98" s="2">
+      <c r="AA98" s="7">
         <f t="shared" si="31"/>
         <v>745</v>
       </c>
-      <c r="AB98" s="2">
+      <c r="AB98" s="7">
         <f t="shared" si="31"/>
         <v>820</v>
       </c>
-      <c r="AC98" s="2">
+      <c r="AC98" s="7">
         <f t="shared" si="31"/>
         <v>966</v>
       </c>
-      <c r="AD98" s="2">
+      <c r="AD98" s="7">
         <f t="shared" si="31"/>
         <v>1054</v>
       </c>
-      <c r="AE98" s="2">
+      <c r="AE98" s="7">
         <f t="shared" si="31"/>
         <v>1133</v>
       </c>
-      <c r="AF98" s="2">
+      <c r="AF98" s="7">
         <f t="shared" si="31"/>
         <v>1265</v>
       </c>
-      <c r="AG98" s="2">
+      <c r="AG98" s="7">
         <f t="shared" si="31"/>
         <v>1353</v>
       </c>
-      <c r="AH98" s="2">
+      <c r="AH98" s="7">
         <f t="shared" si="31"/>
         <v>1451</v>
       </c>
-      <c r="AI98" s="2">
+      <c r="AI98" s="7">
         <f t="shared" si="31"/>
         <v>1554</v>
       </c>
-      <c r="AJ98" s="2">
+      <c r="AJ98" s="7">
         <f t="shared" si="31"/>
         <v>1628</v>
       </c>
-      <c r="AK98" s="2">
+      <c r="AK98" s="7">
         <f t="shared" si="31"/>
         <v>1715</v>
       </c>
-      <c r="AL98" s="2">
+      <c r="AL98" s="7">
         <f t="shared" si="31"/>
         <v>1795</v>
       </c>
-      <c r="AM98" s="2">
+      <c r="AM98" s="7">
         <f t="shared" si="31"/>
         <v>1894</v>
       </c>
+      <c r="AN98" s="7">
+        <f t="shared" si="31"/>
+        <v>1975</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="2">
+      <c r="B99" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="D99" s="7">
         <v>2.0</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="7">
         <v>8.0</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="7">
         <v>9.0</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="7">
         <v>12.0</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="7">
         <v>17.0</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="7">
         <v>19.0</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="7">
         <v>21.0</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="7">
         <v>31.0</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="7">
         <v>34.0</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M99" s="7">
         <v>45.0</v>
       </c>
-      <c r="N99" s="2">
+      <c r="N99" s="7">
         <v>56.0</v>
       </c>
-      <c r="O99" s="2">
+      <c r="O99" s="7">
         <v>65.0</v>
       </c>
-      <c r="P99" s="2">
+      <c r="P99" s="7">
         <v>79.0</v>
       </c>
-      <c r="Q99" s="2">
+      <c r="Q99" s="7">
         <v>97.0</v>
       </c>
-      <c r="R99" s="2">
+      <c r="R99" s="7">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="S99" s="2">
+      <c r="S99" s="7">
         <v>158.0</v>
       </c>
-      <c r="T99" s="2">
+      <c r="T99" s="7">
         <v>225.0</v>
       </c>
-      <c r="U99" s="2">
+      <c r="U99" s="7">
         <v>266.0</v>
       </c>
-      <c r="V99" s="2">
+      <c r="V99" s="7">
         <v>301.0</v>
       </c>
-      <c r="W99" s="2">
+      <c r="W99" s="7">
         <v>387.0</v>
       </c>
-      <c r="X99" s="2">
+      <c r="X99" s="7">
         <v>502.0</v>
       </c>
-      <c r="Y99" s="2">
+      <c r="Y99" s="7">
         <v>589.0</v>
       </c>
-      <c r="Z99" s="2">
+      <c r="Z99" s="7">
         <v>690.0</v>
       </c>
-      <c r="AA99" s="2">
+      <c r="AA99" s="7">
         <v>745.0</v>
       </c>
-      <c r="AB99" s="2">
+      <c r="AB99" s="7">
         <v>820.0</v>
       </c>
-      <c r="AC99" s="2">
+      <c r="AC99" s="7">
         <v>966.0</v>
       </c>
-      <c r="AD99" s="2">
+      <c r="AD99" s="7">
         <v>1054.0</v>
       </c>
-      <c r="AE99" s="2">
+      <c r="AE99" s="7">
         <v>1133.0</v>
       </c>
-      <c r="AF99" s="2">
+      <c r="AF99" s="7">
         <v>1265.0</v>
       </c>
-      <c r="AG99" s="2">
+      <c r="AG99" s="7">
         <v>1353.0</v>
       </c>
-      <c r="AH99" s="2">
+      <c r="AH99" s="7">
         <v>1451.0</v>
       </c>
-      <c r="AI99" s="2">
+      <c r="AI99" s="7">
         <f>103+AH99</f>
         <v>1554</v>
       </c>
-      <c r="AJ99" s="2">
+      <c r="AJ99" s="7">
         <v>1628.0</v>
       </c>
-      <c r="AK99" s="2">
+      <c r="AK99" s="7">
         <v>1715.0</v>
       </c>
-      <c r="AL99" s="2">
+      <c r="AL99" s="7">
         <v>1795.0</v>
       </c>
-      <c r="AM99" s="2">
+      <c r="AM99" s="7">
         <v>1894.0</v>
+      </c>
+      <c r="AN99" s="7">
+        <v>1975.0</v>
       </c>
     </row>
     <row r="100">
@@ -9885,7 +10173,7 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:AM100" si="32">C99/B99-1</f>
+        <f t="shared" ref="C100:AN100" si="32">C99/B99-1</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
@@ -10031,6 +10319,10 @@
       <c r="AM100" s="1">
         <f t="shared" si="32"/>
         <v>0.05515320334</v>
+      </c>
+      <c r="AN100" s="1">
+        <f t="shared" si="32"/>
+        <v>0.04276663147</v>
       </c>
     </row>
     <row r="101">
@@ -10100,6 +10392,7 @@
       <c r="AK101" s="21"/>
       <c r="AL101" s="21"/>
       <c r="AM101" s="21"/>
+      <c r="AN101" s="21"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
@@ -10142,7 +10435,7 @@
       <c r="A105" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="4">
         <f>U99/B99-1</f>
         <v>265</v>
       </c>
@@ -15015,188 +15308,188 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2">
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>0.21176470588235294</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>0.1781609195402299</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>0.15228426395939088</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>0.3004484304932735</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>0.1443661971830986</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>0.16129032258064516</v>
       </c>
-      <c r="K2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="K2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="4">
         <v>0.18914473684210525</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="4">
         <v>0.21804511278195488</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="4">
         <f t="shared" ref="N2:P2" si="1">N6/N3</f>
         <v>0.153030303</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="4">
         <f t="shared" si="1"/>
         <v>0.1214128035</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="4">
         <f t="shared" si="1"/>
         <v>0.1704545455</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4">
         <v>59.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>45.0</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>85.0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>174.0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>197.0</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>223.0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>284.0</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>217.0</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>86.0</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>608.0</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>399.0</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="4">
         <v>660.0</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <f t="shared" ref="O3:P3" si="2">O4-N4</f>
         <v>453</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6">
         <v>470.0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="6">
         <v>529.0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="6">
         <v>574.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="6">
         <v>659.0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="6">
         <v>833.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="6">
         <v>1030.0</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="6">
         <v>1253.0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="6">
         <v>1537.0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="6">
         <v>1754.0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="6">
         <v>1840.0</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="6">
         <v>2448.0</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="6">
         <v>2847.0</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="6">
         <v>3507.0</v>
       </c>
       <c r="O4" s="1">
@@ -15207,37 +15500,37 @@
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>18.0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>31.0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>30.0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>67.0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>41.0</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>35.0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>86.0</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>115.0</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="4">
         <v>87.0</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="4">
         <v>101.0</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="4">
         <v>55.0</v>
       </c>
       <c r="P6" s="1">
@@ -15249,244 +15542,244 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>470.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15">
-        <v>470.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="C11" s="4">
+        <v>59.0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>529.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
-        <v>59.0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>529.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="C12" s="4">
+        <v>45.0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>574.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
-        <v>45.0</v>
-      </c>
-      <c r="D12" s="15">
-        <v>574.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="4">
+        <v>0.21176470588235294</v>
+      </c>
+      <c r="C13" s="4">
+        <v>85.0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>659.0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.21176470588235294</v>
-      </c>
-      <c r="C13" s="6">
-        <v>85.0</v>
-      </c>
-      <c r="D13" s="15">
-        <v>659.0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="B14" s="4">
+        <v>0.1781609195402299</v>
+      </c>
+      <c r="C14" s="4">
+        <v>174.0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>833.0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.1781609195402299</v>
-      </c>
-      <c r="C14" s="6">
-        <v>174.0</v>
-      </c>
-      <c r="D14" s="15">
-        <v>833.0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>31.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="B15" s="4">
+        <v>0.15228426395939088</v>
+      </c>
+      <c r="C15" s="4">
+        <v>197.0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1030.0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.15228426395939088</v>
-      </c>
-      <c r="C15" s="6">
-        <v>197.0</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1030.0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="4">
+        <v>0.3004484304932735</v>
+      </c>
+      <c r="C16" s="4">
+        <v>223.0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1253.0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.3004484304932735</v>
-      </c>
-      <c r="C16" s="6">
-        <v>223.0</v>
-      </c>
-      <c r="D16" s="15">
-        <v>1253.0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="4">
+        <v>0.1443661971830986</v>
+      </c>
+      <c r="C17" s="4">
+        <v>284.0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1537.0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.1443661971830986</v>
-      </c>
-      <c r="C17" s="6">
-        <v>284.0</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1537.0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="4">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="C18" s="4">
+        <v>217.0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1754.0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="C18" s="6">
-        <v>217.0</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1754.0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>86.0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1840.0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="6">
-        <v>86.0</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1840.0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>86.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="4">
+        <v>0.18914473684210525</v>
+      </c>
+      <c r="C20" s="4">
+        <v>608.0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2448.0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
-        <v>0.18914473684210525</v>
-      </c>
-      <c r="C20" s="6">
-        <v>608.0</v>
-      </c>
-      <c r="D20" s="15">
-        <v>2448.0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>0.21804511278195488</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>399.0</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="6">
         <v>2847.0</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>87.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4">
         <f t="shared" ref="B22:B24" si="3">F22/C22</f>
         <v>0.153030303</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>660.0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="6">
         <v>3507.0</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>101.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
         <f t="shared" si="3"/>
         <v>0.1214128035</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <f t="shared" ref="C23:C24" si="4">D23-D22</f>
         <v>453</v>
       </c>
       <c r="D23" s="1">
         <v>3960.0</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>55.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4">
         <f t="shared" si="3"/>
         <v>0.1704545455</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
@@ -15498,8 +15791,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>23</v>
+      <c r="A25" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="1">
         <v>175.0</v>
@@ -15525,270 +15818,270 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="8">
         <v>43903.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="9">
         <v>34.0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <f>31*C$19</f>
         <v>38.316</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <f t="shared" ref="D2:D14" si="1">(C2-B2)*(C2-B2)</f>
         <v>18.627856</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>43904.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <v>45.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C16" si="2">C2*C$19</f>
         <v>47.358576</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <f t="shared" si="1"/>
         <v>5.562880748</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>43905.0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <v>56.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="10">
         <f t="shared" si="2"/>
         <v>58.53519994</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <f t="shared" si="1"/>
         <v>6.427238715</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>43906.0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>65.0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="10">
         <f t="shared" si="2"/>
         <v>72.34950712</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <f t="shared" si="1"/>
         <v>54.01525492</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>43907.0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <v>79.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="10">
         <f t="shared" si="2"/>
         <v>89.4239908</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>108.6595842</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>43908.0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="9">
         <v>97.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <f t="shared" si="2"/>
         <v>110.5280526</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <f t="shared" si="1"/>
         <v>183.008208</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>43909.0</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="11">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="10">
         <f t="shared" si="2"/>
         <v>136.6126731</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>74.17813709</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="8">
         <v>43910.0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>158.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="10">
         <f t="shared" si="2"/>
         <v>168.8532639</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <f t="shared" si="1"/>
         <v>117.7933371</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>43911.0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>225.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="10">
         <f t="shared" si="2"/>
         <v>208.7026342</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <f t="shared" si="1"/>
         <v>265.604133</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>43912.0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="9">
         <v>266.0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="10">
         <f t="shared" si="2"/>
         <v>257.9564558</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <f t="shared" si="1"/>
         <v>64.69860275</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="8">
         <v>43913.0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="9">
         <v>301.0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="10">
         <f t="shared" si="2"/>
         <v>318.8341794</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <f t="shared" si="1"/>
         <v>318.0579553</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="8">
         <v>43914.0</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="9">
         <v>387.0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="10">
         <f t="shared" si="2"/>
         <v>394.0790458</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <f t="shared" si="1"/>
         <v>50.11288876</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="8">
         <v>43915.0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>502.0</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10">
         <f t="shared" si="2"/>
         <v>487.0817005</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <f t="shared" si="1"/>
         <v>222.5556585</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="8">
         <v>43916.0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>589.0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="10">
         <f t="shared" si="2"/>
         <v>602.0329819</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="8">
         <v>43917.0</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="11">
         <v>690.0</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="10">
         <f t="shared" si="2"/>
         <v>744.1127656</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>6</v>
+      <c r="B18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="12">
+      <c r="B19" s="14">
         <f>SUM(D2:D14)</f>
         <v>1489.301735</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="15">
         <v>1.236</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="2"/>
+      <c r="C26" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -15807,17 +16100,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="15">
+        <v>33</v>
+      </c>
+      <c r="J1" s="6">
         <v>1.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="str">
+      <c r="A2" s="4" t="str">
         <f>Min(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -15830,12 +16123,12 @@
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/databases/cases.xlsx
+++ b/databases/cases.xlsx
@@ -18,7 +18,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
   <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Confirmados</t>
+  </si>
+  <si>
     <t>Provicia \ día</t>
+  </si>
+  <si>
+    <t>Teóricos Tasa 1.236</t>
+  </si>
+  <si>
+    <t>MSE</t>
   </si>
   <si>
     <t xml:space="preserve">CABA Casos Confirmados </t>
@@ -30,13 +42,43 @@
     <t xml:space="preserve">CABA Casos Muertos </t>
   </si>
   <si>
+    <t>total MSE</t>
+  </si>
+  <si>
     <t>CABA Casos Activos</t>
   </si>
   <si>
-    <t>03/15</t>
+    <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
   </si>
   <si>
     <t xml:space="preserve">Bs As Casos Confirmados </t>
+  </si>
+  <si>
+    <t>20202281585415264161</t>
+  </si>
+  <si>
+    <t>ZaBlfONzILttXxum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As  Casos Recuperados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As  Casos Muertos </t>
+  </si>
+  <si>
+    <t>Bs As  Casos Activos</t>
+  </si>
+  <si>
+    <t>HTMF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba Casos Confirmados </t>
+  </si>
+  <si>
+    <t>03/15</t>
   </si>
   <si>
     <t>03/16</t>
@@ -75,6 +117,9 @@
     <t>03/27</t>
   </si>
   <si>
+    <t xml:space="preserve">Córdoba Casos Recuperados </t>
+  </si>
+  <si>
     <t>03/28</t>
   </si>
   <si>
@@ -84,61 +129,16 @@
     <t>03/30</t>
   </si>
   <si>
+    <t xml:space="preserve">Córdoba Casos Muertos </t>
+  </si>
+  <si>
     <t>Tests realizados</t>
   </si>
   <si>
-    <t>Tests acumulativos</t>
+    <t>Córdoba Casos Activos</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Confirmados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As  Casos Recuperados </t>
-  </si>
-  <si>
-    <t>Teóricos Tasa 1.236</t>
-  </si>
-  <si>
-    <t>MSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As  Casos Muertos </t>
-  </si>
-  <si>
-    <t>total MSE</t>
-  </si>
-  <si>
-    <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
-  </si>
-  <si>
-    <t>20202281585415264161</t>
-  </si>
-  <si>
-    <t>ZaBlfONzILttXxum</t>
-  </si>
-  <si>
-    <t>HTMF</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Bs As  Casos Activos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba Casos Confirmados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba Casos Recuperados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Córdoba Casos Muertos </t>
-  </si>
-  <si>
-    <t>Córdoba Casos Activos</t>
+    <t>Tests acumulativos</t>
   </si>
   <si>
     <t xml:space="preserve">San Luis Casos Confirmados </t>
@@ -480,9 +480,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
-    <numFmt numFmtId="165" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
@@ -554,29 +554,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -587,13 +581,19 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -644,11 +644,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1737280420"/>
-        <c:axId val="1378409722"/>
+        <c:axId val="945494925"/>
+        <c:axId val="1006861951"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1737280420"/>
+        <c:axId val="945494925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,10 +690,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1378409722"/>
+        <c:crossAx val="1006861951"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1378409722"/>
+        <c:axId val="1006861951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +762,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1737280420"/>
+        <c:crossAx val="945494925"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1084,160 +1084,163 @@
     <col customWidth="1" min="29" max="30" width="6.29"/>
     <col customWidth="1" min="31" max="31" width="7.29"/>
     <col customWidth="1" min="32" max="36" width="6.0"/>
-    <col customWidth="1" min="37" max="40" width="5.86"/>
+    <col customWidth="1" min="37" max="41" width="5.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3">
         <v>43893.0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="6">
         <f t="shared" ref="C1:U1" si="1">B1+1</f>
         <v>43894</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <f t="shared" si="1"/>
         <v>43895</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <f t="shared" si="1"/>
         <v>43896</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="3">
         <f t="shared" si="1"/>
         <v>43897</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <f t="shared" si="1"/>
         <v>43898</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <f t="shared" si="1"/>
         <v>43899</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <f t="shared" si="1"/>
         <v>43900</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="3">
         <f t="shared" si="1"/>
         <v>43901</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="3">
         <f t="shared" si="1"/>
         <v>43902</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="3">
         <f t="shared" si="1"/>
         <v>43903</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="3">
         <f t="shared" si="1"/>
         <v>43904</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="3">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="3">
         <f t="shared" si="1"/>
         <v>43906</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="3">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="3">
         <f t="shared" si="1"/>
         <v>43908</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="3">
         <f t="shared" si="1"/>
         <v>43909</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="3">
         <f t="shared" si="1"/>
         <v>43910</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="3">
         <f t="shared" si="1"/>
         <v>43911</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="3">
         <f t="shared" si="1"/>
         <v>43912</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="3">
         <v>43913.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="3">
         <f>V1+1</f>
         <v>43914</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="3">
         <v>43915.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="3">
         <v>43916.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="3">
         <f t="shared" ref="Z1:AE1" si="2">Y1+1</f>
         <v>43917</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="3">
         <f t="shared" si="2"/>
         <v>43918</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="3">
         <f t="shared" si="2"/>
         <v>43919</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="3">
         <f t="shared" si="2"/>
         <v>43920</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="3">
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="3">
         <f t="shared" si="2"/>
         <v>43922</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="3">
         <v>43923.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="3">
         <v>43924.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="3">
         <v>43925.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="3">
         <v>43926.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="3">
         <v>43927.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="3">
         <v>43928.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="3">
         <v>43929.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="3">
         <v>43930.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="3">
         <v>43931.0</v>
+      </c>
+      <c r="AO1" s="3">
+        <v>43932.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -1324,30 +1327,30 @@
         <f>AA2+13</f>
         <v>258</v>
       </c>
-      <c r="AC2" s="4">
+      <c r="AC2" s="8">
         <f>AB2+34</f>
         <v>292</v>
       </c>
-      <c r="AD2" s="4">
+      <c r="AD2" s="8">
         <f>19+AC2</f>
         <v>311</v>
       </c>
       <c r="AE2" s="1">
         <v>321.0</v>
       </c>
-      <c r="AF2" s="4">
+      <c r="AF2" s="8">
         <f>AE2+24</f>
         <v>345</v>
       </c>
-      <c r="AG2" s="4">
+      <c r="AG2" s="8">
         <f>AF2+28</f>
         <v>373</v>
       </c>
-      <c r="AH2" s="4">
+      <c r="AH2" s="8">
         <f>34+AG2</f>
         <v>407</v>
       </c>
-      <c r="AI2" s="4">
+      <c r="AI2" s="8">
         <f>32+AH2</f>
         <v>439</v>
       </c>
@@ -1371,10 +1374,14 @@
         <f>11+AM2</f>
         <v>532</v>
       </c>
+      <c r="AO2" s="1">
+        <f>46+AN2</f>
+        <v>578</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
@@ -1457,25 +1464,25 @@
       <c r="AB3" s="1">
         <v>53.0</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="8">
         <v>53.0</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="8">
         <v>53.0</v>
       </c>
       <c r="AE3" s="1">
         <v>53.0</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="8">
         <v>53.0</v>
       </c>
-      <c r="AG3" s="4">
+      <c r="AG3" s="8">
         <v>53.0</v>
       </c>
-      <c r="AH3" s="4">
+      <c r="AH3" s="8">
         <v>53.0</v>
       </c>
-      <c r="AI3" s="4">
+      <c r="AI3" s="8">
         <v>53.0</v>
       </c>
       <c r="AJ3" s="1">
@@ -1493,10 +1500,13 @@
       <c r="AN3" s="1">
         <v>53.0</v>
       </c>
+      <c r="AO3" s="1">
+        <v>53.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -1579,25 +1589,25 @@
       <c r="AB4" s="1">
         <v>8.0</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="8">
         <v>8.0</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="8">
         <v>8.0</v>
       </c>
       <c r="AE4" s="1">
         <v>9.0</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="8">
         <v>9.0</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="8">
         <v>9.0</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="8">
         <v>9.0</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="8">
         <v>10.0</v>
       </c>
       <c r="AJ4" s="1">
@@ -1615,10 +1625,13 @@
       <c r="AN4" s="1">
         <v>24.0</v>
       </c>
+      <c r="AO4" s="1">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -1684,7 +1697,7 @@
         <v>77.0</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5:AN5" si="3">W2-W3-W4</f>
+        <f t="shared" ref="W5:AO5" si="3">W2-W3-W4</f>
         <v>107</v>
       </c>
       <c r="X5" s="1">
@@ -1707,11 +1720,11 @@
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AC5" s="8">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AD5" s="8">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
@@ -1719,19 +1732,19 @@
         <f t="shared" si="3"/>
         <v>259</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AF5" s="8">
         <f t="shared" si="3"/>
         <v>283</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AG5" s="8">
         <f t="shared" si="3"/>
         <v>311</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AH5" s="8">
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AI5" s="8">
         <f t="shared" si="3"/>
         <v>376</v>
       </c>
@@ -1755,10 +1768,14 @@
         <f t="shared" si="3"/>
         <v>455</v>
       </c>
+      <c r="AO5" s="1">
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1841,30 +1858,30 @@
         <f>AA6+16</f>
         <v>217</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="8">
         <f>AB6+36</f>
         <v>253</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="8">
         <f>17+AC6</f>
         <v>270</v>
       </c>
       <c r="AE6" s="1">
         <v>280.0</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF6" s="8">
         <f>AE6+36</f>
         <v>316</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG6" s="8">
         <f>AF6+22</f>
         <v>338</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH6" s="8">
         <f>AG6+26</f>
         <v>364</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI6" s="8">
         <f>33+AH6</f>
         <v>397</v>
       </c>
@@ -1888,10 +1905,14 @@
         <f>19+AM6</f>
         <v>507</v>
       </c>
+      <c r="AO6" s="1">
+        <f>37+AN6</f>
+        <v>544</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2006,10 +2027,13 @@
       <c r="AN7" s="1">
         <v>15.0</v>
       </c>
+      <c r="AO7" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2124,10 +2148,13 @@
       <c r="AN8" s="1">
         <v>32.0</v>
       </c>
+      <c r="AO8" s="1">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2195,7 +2222,7 @@
         <v>129.0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:AN9" si="5">Y6-Y7-Y8</f>
+        <f t="shared" ref="Y9:AO9" si="5">Y6-Y7-Y8</f>
         <v>139</v>
       </c>
       <c r="Z9" s="1">
@@ -2238,11 +2265,11 @@
         <f t="shared" si="5"/>
         <v>365</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AJ9" s="8">
         <f t="shared" si="5"/>
         <v>375</v>
       </c>
-      <c r="AK9" s="4">
+      <c r="AK9" s="8">
         <f t="shared" si="5"/>
         <v>405</v>
       </c>
@@ -2258,10 +2285,14 @@
         <f t="shared" si="5"/>
         <v>460</v>
       </c>
+      <c r="AO9" s="1">
+        <f t="shared" si="5"/>
+        <v>493</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2343,22 +2374,22 @@
         <f>AA10+18</f>
         <v>73</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC10" s="8">
         <f>AB10+8</f>
         <v>81</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD10" s="8">
         <f>AC10+14</f>
         <v>95</v>
       </c>
       <c r="AE10" s="1">
         <v>101.0</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AF10" s="8">
         <f>AE10+16</f>
         <v>117</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG10" s="8">
         <f>AF10+14</f>
         <v>131</v>
       </c>
@@ -2386,10 +2417,14 @@
         <f>13+AM10</f>
         <v>169</v>
       </c>
+      <c r="AO10" s="1">
+        <f>32+AN10</f>
+        <v>201</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2502,10 +2537,13 @@
       <c r="AN11" s="1">
         <v>1.0</v>
       </c>
+      <c r="AO11" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2618,10 +2656,13 @@
       <c r="AN12" s="1">
         <v>2.0</v>
       </c>
+      <c r="AO12" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2728,11 +2769,11 @@
         <f t="shared" si="7"/>
         <v>136</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ13" s="8">
         <f t="shared" si="7"/>
         <v>143</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK13" s="8">
         <f t="shared" si="7"/>
         <v>147</v>
       </c>
@@ -2744,8 +2785,12 @@
         <v>153.0</v>
       </c>
       <c r="AN13" s="1">
-        <f>AN10-AN11-AN12</f>
+        <f t="shared" ref="AN13:AO13" si="8">AN10-AN11-AN12</f>
         <v>166</v>
+      </c>
+      <c r="AO13" s="1">
+        <f t="shared" si="8"/>
+        <v>198</v>
       </c>
     </row>
     <row r="14">
@@ -2859,6 +2904,9 @@
       <c r="AN14" s="1">
         <v>11.0</v>
       </c>
+      <c r="AO14" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -2969,6 +3017,9 @@
       <c r="AN15" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO15" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -3079,6 +3130,9 @@
       <c r="AN16" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO16" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -3145,15 +3199,15 @@
         <v>6.0</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" ref="Z17:AB17" si="8">Z14-Z15-Z16</f>
+        <f t="shared" ref="Z17:AB17" si="9">Z14-Z15-Z16</f>
         <v>7</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AC17" s="1">
@@ -3193,7 +3247,11 @@
         <v>11.0</v>
       </c>
       <c r="AN17" s="1">
-        <f>AN14-AN15-AN16</f>
+        <f t="shared" ref="AN17:AO17" si="10">AN14-AN15-AN16</f>
+        <v>11</v>
+      </c>
+      <c r="AO17" s="1">
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
@@ -3293,11 +3351,11 @@
         <v>99</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" ref="AG18:AH18" si="9">AF18+8</f>
+        <f t="shared" ref="AG18:AH18" si="11">AF18+8</f>
         <v>107</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
       <c r="AI18" s="1">
@@ -3319,6 +3377,9 @@
       <c r="AN18" s="1">
         <f>5+AM18</f>
         <v>149</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>149.0</v>
       </c>
     </row>
     <row r="19">
@@ -3430,6 +3491,9 @@
       <c r="AN19" s="1">
         <v>4.0</v>
       </c>
+      <c r="AO19" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -3538,6 +3602,9 @@
         <v>8.0</v>
       </c>
       <c r="AN20" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="AO20" s="1">
         <v>8.0</v>
       </c>
     </row>
@@ -3607,62 +3674,66 @@
         <v>51</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" ref="Z21:AH21" si="10">Z18-Z19-Z20</f>
+        <f t="shared" ref="Z21:AH21" si="12">Z18-Z19-Z20</f>
         <v>52</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>89</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="AI21" s="1">
         <v>104.0</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" ref="AJ21:AN21" si="11">AJ18-AJ19-AJ20</f>
+        <f t="shared" ref="AJ21:AO21" si="13">AJ18-AJ19-AJ20</f>
         <v>108</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>127</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>132</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
+        <v>137</v>
+      </c>
+      <c r="AO21" s="1">
+        <f t="shared" si="13"/>
         <v>137</v>
       </c>
     </row>
@@ -3777,6 +3848,10 @@
         <f>7+AM22</f>
         <v>42</v>
       </c>
+      <c r="AO22" s="1">
+        <f>23+AN22</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -3887,6 +3962,9 @@
       <c r="AN23" s="1">
         <v>1.0</v>
       </c>
+      <c r="AO23" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -3997,6 +4075,9 @@
       <c r="AN24" s="1">
         <v>2.0</v>
       </c>
+      <c r="AO24" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -4063,15 +4144,15 @@
         <v>3.0</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" ref="Z25:AB25" si="12">Z22-Z23-Z24</f>
+        <f t="shared" ref="Z25:AB25" si="14">Z22-Z23-Z24</f>
         <v>6</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AC25" s="1">
@@ -4110,8 +4191,12 @@
         <v>33.0</v>
       </c>
       <c r="AN25" s="1">
-        <f>AN22-AN23-AN24</f>
+        <f t="shared" ref="AN25:AO25" si="15">AN22-AN23-AN24</f>
         <v>39</v>
+      </c>
+      <c r="AO25" s="1">
+        <f t="shared" si="15"/>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -4182,18 +4267,18 @@
         <f>AA26+13</f>
         <v>90</v>
       </c>
-      <c r="AC26" s="4">
+      <c r="AC26" s="8">
         <f>AB26+21</f>
         <v>111</v>
       </c>
-      <c r="AD26" s="4">
+      <c r="AD26" s="8">
         <f>AC26+22</f>
         <v>133</v>
       </c>
       <c r="AE26" s="1">
         <v>144.0</v>
       </c>
-      <c r="AF26" s="4">
+      <c r="AF26" s="8">
         <f>8+AE26</f>
         <v>152</v>
       </c>
@@ -4223,6 +4308,9 @@
       </c>
       <c r="AN26" s="1">
         <v>197.0</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>200.0</v>
       </c>
     </row>
     <row r="27">
@@ -4324,6 +4412,9 @@
       <c r="AN27" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO27" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -4424,6 +4515,9 @@
       <c r="AN28" s="1">
         <v>2.0</v>
       </c>
+      <c r="AO28" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -4480,15 +4574,15 @@
         <v>54.0</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" ref="Z29:AB29" si="13">Z26-Z27-Z28</f>
+        <f t="shared" ref="Z29:AB29" si="16">Z26-Z27-Z28</f>
         <v>64</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>77</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="AC29" s="1">
@@ -4520,16 +4614,20 @@
         <v>186.0</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" ref="AL29:AN29" si="14">AL26-AL27-AL28</f>
+        <f t="shared" ref="AL29:AO29" si="17">AL26-AL27-AL28</f>
         <v>188</v>
       </c>
       <c r="AM29" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>194</v>
       </c>
       <c r="AN29" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>195</v>
+      </c>
+      <c r="AO29" s="1">
+        <f t="shared" si="17"/>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
@@ -4597,7 +4695,7 @@
         <f>AA30+4</f>
         <v>21</v>
       </c>
-      <c r="AC30" s="4">
+      <c r="AC30" s="8">
         <f>AB30+11</f>
         <v>32</v>
       </c>
@@ -4607,7 +4705,7 @@
       <c r="AE30" s="1">
         <v>39.0</v>
       </c>
-      <c r="AF30" s="4">
+      <c r="AF30" s="8">
         <f>24+AE30</f>
         <v>63</v>
       </c>
@@ -4635,6 +4733,9 @@
       </c>
       <c r="AN30" s="1">
         <v>83.0</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>91.0</v>
       </c>
     </row>
     <row r="31">
@@ -4734,6 +4835,9 @@
       <c r="AN31" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO31" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -4830,6 +4934,9 @@
         <v>0.0</v>
       </c>
       <c r="AN32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AO32" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -4886,15 +4993,15 @@
         <v>14.0</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" ref="Z33:AB33" si="15">Z30-Z31-Z32</f>
+        <f t="shared" ref="Z33:AB33" si="18">Z30-Z31-Z32</f>
         <v>13</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="AC33" s="1">
@@ -4935,6 +5042,9 @@
       <c r="AN33" s="1">
         <f>AN30-AN31-AN32</f>
         <v>83</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>91.0</v>
       </c>
     </row>
     <row r="34">
@@ -5004,7 +5114,7 @@
       <c r="AE34" s="1">
         <v>3.0</v>
       </c>
-      <c r="AF34" s="4">
+      <c r="AF34" s="8">
         <f>2+AE34</f>
         <v>5</v>
       </c>
@@ -5030,6 +5140,9 @@
         <v>5.0</v>
       </c>
       <c r="AN34" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AO34" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -5126,6 +5239,9 @@
       <c r="AN35" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO35" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
@@ -5220,6 +5336,9 @@
       <c r="AN36" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO36" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -5270,15 +5389,15 @@
         <v>3.0</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" ref="Z37:AB37" si="16">Z34-Z35-Z36</f>
+        <f t="shared" ref="Z37:AB37" si="19">Z34-Z35-Z36</f>
         <v>3</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="AC37" s="1">
@@ -5319,6 +5438,9 @@
       <c r="AN37" s="1">
         <f>AN34-AN35-AN36</f>
         <v>5</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -5414,6 +5536,9 @@
       <c r="AN38" s="1">
         <v>3.0</v>
       </c>
+      <c r="AO38" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
@@ -5508,6 +5633,9 @@
       <c r="AN39" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO39" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -5602,6 +5730,9 @@
       <c r="AN40" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO40" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -5652,15 +5783,15 @@
         <v>1.0</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" ref="Z41:AB41" si="17">Z38-Z39-Z40</f>
+        <f t="shared" ref="Z41:AB41" si="20">Z38-Z39-Z40</f>
         <v>1</v>
       </c>
       <c r="AA41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AC41" s="1">
@@ -5699,7 +5830,11 @@
         <v>3.0</v>
       </c>
       <c r="AN41" s="1">
-        <f>AN38-AN39-AN40</f>
+        <f t="shared" ref="AN41:AO41" si="21">AN38-AN39-AN40</f>
+        <v>3</v>
+      </c>
+      <c r="AO41" s="1">
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
     </row>
@@ -5796,6 +5931,9 @@
       <c r="AN42" s="1">
         <v>22.0</v>
       </c>
+      <c r="AO42" s="1">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -5890,6 +6028,9 @@
       <c r="AN43" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO43" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -5984,6 +6125,9 @@
       <c r="AN44" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO44" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -6034,15 +6178,15 @@
         <v>6.0</v>
       </c>
       <c r="Z45" s="1">
-        <f t="shared" ref="Z45:AB45" si="18">Z42-Z43-Z44</f>
+        <f t="shared" ref="Z45:AB45" si="22">Z42-Z43-Z44</f>
         <v>10</v>
       </c>
       <c r="AA45" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AB45" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AC45" s="1">
@@ -6081,7 +6225,11 @@
         <v>22.0</v>
       </c>
       <c r="AN45" s="1">
-        <f>AN42-AN43-AN44</f>
+        <f t="shared" ref="AN45:AO45" si="23">AN42-AN43-AN44</f>
+        <v>22</v>
+      </c>
+      <c r="AO45" s="1">
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
     </row>
@@ -6145,7 +6293,7 @@
       <c r="AE46" s="1">
         <v>21.0</v>
       </c>
-      <c r="AF46" s="4">
+      <c r="AF46" s="8">
         <f>AE46+1</f>
         <v>22</v>
       </c>
@@ -6171,6 +6319,9 @@
         <v>24.0</v>
       </c>
       <c r="AN46" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AO46" s="1">
         <v>24.0</v>
       </c>
     </row>
@@ -6261,6 +6412,9 @@
       <c r="AN47" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO47" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -6349,6 +6503,9 @@
       <c r="AN48" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO48" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -6393,15 +6550,15 @@
         <v>3.0</v>
       </c>
       <c r="Z49" s="1">
-        <f t="shared" ref="Z49:AB49" si="19">Z46-Z47-Z48</f>
+        <f t="shared" ref="Z49:AB49" si="24">Z46-Z47-Z48</f>
         <v>4</v>
       </c>
       <c r="AA49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="AB49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="AC49" s="1">
@@ -6440,7 +6597,11 @@
         <v>24.0</v>
       </c>
       <c r="AN49" s="1">
-        <f>AN46-AN47-AN48</f>
+        <f t="shared" ref="AN49:AO49" si="25">AN46-AN47-AN48</f>
+        <v>24</v>
+      </c>
+      <c r="AO49" s="1">
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
     </row>
@@ -6531,6 +6692,9 @@
       <c r="AN50" s="1">
         <v>9.0</v>
       </c>
+      <c r="AO50" s="1">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -6619,6 +6783,9 @@
       <c r="AN51" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO51" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -6707,6 +6874,9 @@
       <c r="AN52" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO52" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -6751,15 +6921,15 @@
         <v>1.0</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" ref="Z53:AB53" si="20">Z50-Z51-Z52</f>
+        <f t="shared" ref="Z53:AB53" si="26">Z50-Z51-Z52</f>
         <v>2</v>
       </c>
       <c r="AA53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AB53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AC53" s="1">
@@ -6801,6 +6971,9 @@
       <c r="AN53" s="1">
         <f>AN50-AN51-AN52</f>
         <v>9</v>
+      </c>
+      <c r="AO53" s="1">
+        <v>12.0</v>
       </c>
     </row>
     <row r="54">
@@ -6890,6 +7063,9 @@
       <c r="AN54" s="1">
         <v>84.0</v>
       </c>
+      <c r="AO54" s="1">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -6978,6 +7154,9 @@
       <c r="AN55" s="1">
         <v>1.0</v>
       </c>
+      <c r="AO55" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -7064,6 +7243,9 @@
         <v>3.0</v>
       </c>
       <c r="AN56" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AO56" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -7110,15 +7292,15 @@
         <v>7.0</v>
       </c>
       <c r="Z57" s="1">
-        <f t="shared" ref="Z57:AB57" si="21">Z54-Z55-Z56</f>
+        <f t="shared" ref="Z57:AB57" si="27">Z54-Z55-Z56</f>
         <v>10</v>
       </c>
       <c r="AA57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="AB57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="AC57" s="1">
@@ -7132,11 +7314,11 @@
         <v>22.0</v>
       </c>
       <c r="AF57" s="1">
-        <f t="shared" ref="AF57:AG57" si="22">AF54-AF55-AF56</f>
+        <f t="shared" ref="AF57:AG57" si="28">AF54-AF55-AF56</f>
         <v>26</v>
       </c>
       <c r="AG57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>27</v>
       </c>
       <c r="AH57" s="1">
@@ -7159,8 +7341,12 @@
         <v>73.0</v>
       </c>
       <c r="AN57" s="1">
-        <f>AN54-AN55-AN56</f>
+        <f t="shared" ref="AN57:AO57" si="29">AN54-AN55-AN56</f>
         <v>80</v>
+      </c>
+      <c r="AO57" s="1">
+        <f t="shared" si="29"/>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -7249,6 +7435,9 @@
       <c r="AN58" s="1">
         <v>49.0</v>
       </c>
+      <c r="AO58" s="1">
+        <v>54.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -7335,6 +7524,9 @@
       <c r="AN59" s="1">
         <v>1.0</v>
       </c>
+      <c r="AO59" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
@@ -7419,6 +7611,9 @@
         <v>5.0</v>
       </c>
       <c r="AN60" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AO60" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -7463,15 +7658,15 @@
         <v>7.0</v>
       </c>
       <c r="Z61" s="1">
-        <f t="shared" ref="Z61:AB61" si="23">Z58-Z59-Z60</f>
+        <f t="shared" ref="Z61:AB61" si="30">Z58-Z59-Z60</f>
         <v>7</v>
       </c>
       <c r="AA61" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="AB61" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="AC61" s="1">
@@ -7484,11 +7679,11 @@
         <v>23.0</v>
       </c>
       <c r="AF61" s="1">
-        <f t="shared" ref="AF61:AG61" si="24">AF58-AF59-AF60</f>
+        <f t="shared" ref="AF61:AG61" si="31">AF58-AF59-AF60</f>
         <v>21</v>
       </c>
       <c r="AG61" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>22</v>
       </c>
       <c r="AH61" s="1">
@@ -7511,8 +7706,12 @@
         <v>34.0</v>
       </c>
       <c r="AN61" s="1">
-        <f>AN58-AN59-AN60</f>
+        <f t="shared" ref="AN61:AO61" si="32">AN58-AN59-AN60</f>
         <v>43</v>
+      </c>
+      <c r="AO61" s="1">
+        <f t="shared" si="32"/>
+        <v>48</v>
       </c>
     </row>
     <row r="62">
@@ -7604,6 +7803,9 @@
       <c r="AN62" s="1">
         <v>29.0</v>
       </c>
+      <c r="AO62" s="1">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
@@ -7694,6 +7896,9 @@
       <c r="AN63" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO63" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -7784,6 +7989,9 @@
       <c r="AN64" s="1">
         <v>3.0</v>
       </c>
+      <c r="AO64" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -7830,15 +8038,15 @@
         <v>9.0</v>
       </c>
       <c r="Z65" s="1">
-        <f t="shared" ref="Z65:AB65" si="25">Z62-Z63-Z64</f>
+        <f t="shared" ref="Z65:AB65" si="33">Z62-Z63-Z64</f>
         <v>15</v>
       </c>
       <c r="AA65" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="AB65" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="AC65" s="1">
@@ -7854,11 +8062,11 @@
         <v>20.0</v>
       </c>
       <c r="AG65" s="1">
-        <f t="shared" ref="AG65:AH65" si="26">AG62-AG63-AG64</f>
+        <f t="shared" ref="AG65:AH65" si="34">AG62-AG63-AG64</f>
         <v>19</v>
       </c>
       <c r="AH65" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="AI65" s="1">
@@ -7871,16 +8079,19 @@
         <v>26.0</v>
       </c>
       <c r="AL65" s="1">
-        <f t="shared" ref="AL65:AN65" si="27">AL62-AL63-AL64</f>
+        <f t="shared" ref="AL65:AN65" si="35">AL62-AL63-AL64</f>
         <v>25</v>
       </c>
       <c r="AM65" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>26</v>
       </c>
       <c r="AN65" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>26</v>
+      </c>
+      <c r="AO65" s="1">
+        <v>27.0</v>
       </c>
     </row>
     <row r="66">
@@ -7977,6 +8188,9 @@
       <c r="AN66" s="1">
         <v>37.0</v>
       </c>
+      <c r="AO66" s="1">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -8071,6 +8285,9 @@
       <c r="AN67" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO67" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -8165,6 +8382,9 @@
       <c r="AN68" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO68" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
@@ -8215,15 +8435,15 @@
         <v>9.0</v>
       </c>
       <c r="Z69" s="1">
-        <f t="shared" ref="Z69:AB69" si="28">Z66-Z67-Z68</f>
+        <f t="shared" ref="Z69:AB69" si="36">Z66-Z67-Z68</f>
         <v>9</v>
       </c>
       <c r="AA69" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AB69" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AC69" s="1">
@@ -8263,6 +8483,9 @@
       <c r="AN69" s="1">
         <f>AN66-AN67-AN68</f>
         <v>37</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>40.0</v>
       </c>
     </row>
     <row r="70">
@@ -8476,6 +8699,9 @@
       <c r="AN74" s="1">
         <v>3.0</v>
       </c>
+      <c r="AO74" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
@@ -8560,6 +8786,9 @@
       <c r="AN75" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO75" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
@@ -8644,6 +8873,9 @@
       <c r="AN76" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO76" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
@@ -8684,15 +8916,15 @@
         <v>1.0</v>
       </c>
       <c r="Z77" s="1">
-        <f t="shared" ref="Z77:AB77" si="29">Z74-Z75-Z76</f>
+        <f t="shared" ref="Z77:AB77" si="37">Z74-Z75-Z76</f>
         <v>1</v>
       </c>
       <c r="AA77" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AB77" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="AC77" s="1">
@@ -8732,6 +8964,9 @@
       <c r="AN77" s="1">
         <f>AN74-AN75-AN76</f>
         <v>3</v>
+      </c>
+      <c r="AO77" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="78">
@@ -9059,6 +9294,9 @@
       <c r="AN86" s="1">
         <v>14.0</v>
       </c>
+      <c r="AO86" s="1">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
@@ -9129,6 +9367,9 @@
       <c r="AN87" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO87" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
@@ -9197,6 +9438,9 @@
         <v>1.0</v>
       </c>
       <c r="AN88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AO88" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -9270,8 +9514,12 @@
         <v>13.0</v>
       </c>
       <c r="AN89" s="1">
-        <f>AN86-AN87-AN88</f>
+        <f t="shared" ref="AN89:AO89" si="38">AN86-AN87-AN88</f>
         <v>13</v>
+      </c>
+      <c r="AO89" s="1">
+        <f t="shared" si="38"/>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -9343,6 +9591,9 @@
       <c r="AN90" s="1">
         <v>1.0</v>
       </c>
+      <c r="AO90" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
@@ -9413,6 +9664,9 @@
       <c r="AN91" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO91" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
@@ -9481,6 +9735,9 @@
         <v>0.0</v>
       </c>
       <c r="AN92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AO92" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -9556,6 +9813,9 @@
         <f>AN90-AN91-AN92</f>
         <v>1</v>
       </c>
+      <c r="AO93" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
@@ -9636,6 +9896,9 @@
       <c r="AN94" s="1">
         <v>5.0</v>
       </c>
+      <c r="AO94" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
@@ -9716,6 +9979,9 @@
       <c r="AN95" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO95" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
@@ -9796,6 +10062,9 @@
       <c r="AN96" s="1">
         <v>0.0</v>
       </c>
+      <c r="AO96" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
@@ -9832,15 +10101,15 @@
         <v>1.0</v>
       </c>
       <c r="Z97" s="1">
-        <f t="shared" ref="Z97:AB97" si="30">Z94-Z95-Z96</f>
+        <f t="shared" ref="Z97:AB97" si="39">Z94-Z95-Z96</f>
         <v>1</v>
       </c>
       <c r="AA97" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AB97" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="AC97" s="1">
@@ -9881,290 +10150,300 @@
         <f>AN94-AN95-AN96</f>
         <v>5</v>
       </c>
+      <c r="AO97" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="7">
-        <f t="shared" ref="B98:AN98" si="31">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
+      <c r="B98" s="2">
+        <f t="shared" ref="B98:AO98" si="40">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
         <v>1</v>
       </c>
-      <c r="C98" s="7">
-        <f t="shared" si="31"/>
+      <c r="C98" s="2">
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="D98" s="7">
-        <f t="shared" si="31"/>
+      <c r="D98" s="2">
+        <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="E98" s="7">
-        <f t="shared" si="31"/>
+      <c r="E98" s="2">
+        <f t="shared" si="40"/>
         <v>8</v>
       </c>
-      <c r="F98" s="7">
-        <f t="shared" si="31"/>
+      <c r="F98" s="2">
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
-      <c r="G98" s="7">
-        <f t="shared" si="31"/>
+      <c r="G98" s="2">
+        <f t="shared" si="40"/>
         <v>12</v>
       </c>
-      <c r="H98" s="7">
-        <f t="shared" si="31"/>
+      <c r="H98" s="2">
+        <f t="shared" si="40"/>
         <v>17</v>
       </c>
-      <c r="I98" s="7">
-        <f t="shared" si="31"/>
+      <c r="I98" s="2">
+        <f t="shared" si="40"/>
         <v>19</v>
       </c>
-      <c r="J98" s="7">
-        <f t="shared" si="31"/>
+      <c r="J98" s="2">
+        <f t="shared" si="40"/>
         <v>21</v>
       </c>
-      <c r="K98" s="7">
-        <f t="shared" si="31"/>
+      <c r="K98" s="2">
+        <f t="shared" si="40"/>
         <v>31</v>
       </c>
-      <c r="L98" s="7">
-        <f t="shared" si="31"/>
+      <c r="L98" s="2">
+        <f t="shared" si="40"/>
         <v>34</v>
       </c>
-      <c r="M98" s="7">
-        <f t="shared" si="31"/>
+      <c r="M98" s="2">
+        <f t="shared" si="40"/>
         <v>45</v>
       </c>
-      <c r="N98" s="7">
-        <f t="shared" si="31"/>
+      <c r="N98" s="2">
+        <f t="shared" si="40"/>
         <v>56</v>
       </c>
-      <c r="O98" s="7">
-        <f t="shared" si="31"/>
+      <c r="O98" s="2">
+        <f t="shared" si="40"/>
         <v>65</v>
       </c>
-      <c r="P98" s="7">
-        <f t="shared" si="31"/>
+      <c r="P98" s="2">
+        <f t="shared" si="40"/>
         <v>79</v>
       </c>
-      <c r="Q98" s="7">
-        <f t="shared" si="31"/>
+      <c r="Q98" s="2">
+        <f t="shared" si="40"/>
         <v>97</v>
       </c>
-      <c r="R98" s="7">
-        <f t="shared" si="31"/>
+      <c r="R98" s="2">
+        <f t="shared" si="40"/>
         <v>128</v>
       </c>
-      <c r="S98" s="7">
-        <f t="shared" si="31"/>
+      <c r="S98" s="2">
+        <f t="shared" si="40"/>
         <v>158</v>
       </c>
-      <c r="T98" s="7">
-        <f t="shared" si="31"/>
+      <c r="T98" s="2">
+        <f t="shared" si="40"/>
         <v>225</v>
       </c>
-      <c r="U98" s="7">
-        <f t="shared" si="31"/>
+      <c r="U98" s="2">
+        <f t="shared" si="40"/>
         <v>266</v>
       </c>
-      <c r="V98" s="7">
-        <f t="shared" si="31"/>
+      <c r="V98" s="2">
+        <f t="shared" si="40"/>
         <v>301</v>
       </c>
-      <c r="W98" s="7">
-        <f t="shared" si="31"/>
+      <c r="W98" s="2">
+        <f t="shared" si="40"/>
         <v>387</v>
       </c>
-      <c r="X98" s="7">
-        <f t="shared" si="31"/>
+      <c r="X98" s="2">
+        <f t="shared" si="40"/>
         <v>502</v>
       </c>
-      <c r="Y98" s="7">
-        <f t="shared" si="31"/>
+      <c r="Y98" s="2">
+        <f t="shared" si="40"/>
         <v>589</v>
       </c>
-      <c r="Z98" s="7">
-        <f t="shared" si="31"/>
+      <c r="Z98" s="2">
+        <f t="shared" si="40"/>
         <v>690</v>
       </c>
-      <c r="AA98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AA98" s="2">
+        <f t="shared" si="40"/>
         <v>745</v>
       </c>
-      <c r="AB98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AB98" s="2">
+        <f t="shared" si="40"/>
         <v>820</v>
       </c>
-      <c r="AC98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AC98" s="2">
+        <f t="shared" si="40"/>
         <v>966</v>
       </c>
-      <c r="AD98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AD98" s="2">
+        <f t="shared" si="40"/>
         <v>1054</v>
       </c>
-      <c r="AE98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AE98" s="2">
+        <f t="shared" si="40"/>
         <v>1133</v>
       </c>
-      <c r="AF98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AF98" s="2">
+        <f t="shared" si="40"/>
         <v>1265</v>
       </c>
-      <c r="AG98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AG98" s="2">
+        <f t="shared" si="40"/>
         <v>1353</v>
       </c>
-      <c r="AH98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AH98" s="2">
+        <f t="shared" si="40"/>
         <v>1451</v>
       </c>
-      <c r="AI98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AI98" s="2">
+        <f t="shared" si="40"/>
         <v>1554</v>
       </c>
-      <c r="AJ98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AJ98" s="2">
+        <f t="shared" si="40"/>
         <v>1628</v>
       </c>
-      <c r="AK98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AK98" s="2">
+        <f t="shared" si="40"/>
         <v>1715</v>
       </c>
-      <c r="AL98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AL98" s="2">
+        <f t="shared" si="40"/>
         <v>1795</v>
       </c>
-      <c r="AM98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AM98" s="2">
+        <f t="shared" si="40"/>
         <v>1894</v>
       </c>
-      <c r="AN98" s="7">
-        <f t="shared" si="31"/>
+      <c r="AN98" s="2">
+        <f t="shared" si="40"/>
         <v>1975</v>
       </c>
+      <c r="AO98" s="2">
+        <f t="shared" si="40"/>
+        <v>2142</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="7">
+      <c r="B99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D99" s="2">
         <v>2.0</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="2">
         <v>8.0</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="2">
         <v>9.0</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="2">
         <v>12.0</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="2">
         <v>17.0</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99" s="2">
         <v>19.0</v>
       </c>
-      <c r="J99" s="7">
+      <c r="J99" s="2">
         <v>21.0</v>
       </c>
-      <c r="K99" s="7">
+      <c r="K99" s="2">
         <v>31.0</v>
       </c>
-      <c r="L99" s="7">
+      <c r="L99" s="2">
         <v>34.0</v>
       </c>
-      <c r="M99" s="7">
+      <c r="M99" s="2">
         <v>45.0</v>
       </c>
-      <c r="N99" s="7">
+      <c r="N99" s="2">
         <v>56.0</v>
       </c>
-      <c r="O99" s="7">
+      <c r="O99" s="2">
         <v>65.0</v>
       </c>
-      <c r="P99" s="7">
+      <c r="P99" s="2">
         <v>79.0</v>
       </c>
-      <c r="Q99" s="7">
+      <c r="Q99" s="2">
         <v>97.0</v>
       </c>
-      <c r="R99" s="7">
+      <c r="R99" s="2">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="S99" s="7">
+      <c r="S99" s="2">
         <v>158.0</v>
       </c>
-      <c r="T99" s="7">
+      <c r="T99" s="2">
         <v>225.0</v>
       </c>
-      <c r="U99" s="7">
+      <c r="U99" s="2">
         <v>266.0</v>
       </c>
-      <c r="V99" s="7">
+      <c r="V99" s="2">
         <v>301.0</v>
       </c>
-      <c r="W99" s="7">
+      <c r="W99" s="2">
         <v>387.0</v>
       </c>
-      <c r="X99" s="7">
+      <c r="X99" s="2">
         <v>502.0</v>
       </c>
-      <c r="Y99" s="7">
+      <c r="Y99" s="2">
         <v>589.0</v>
       </c>
-      <c r="Z99" s="7">
+      <c r="Z99" s="2">
         <v>690.0</v>
       </c>
-      <c r="AA99" s="7">
+      <c r="AA99" s="2">
         <v>745.0</v>
       </c>
-      <c r="AB99" s="7">
+      <c r="AB99" s="2">
         <v>820.0</v>
       </c>
-      <c r="AC99" s="7">
+      <c r="AC99" s="2">
         <v>966.0</v>
       </c>
-      <c r="AD99" s="7">
+      <c r="AD99" s="2">
         <v>1054.0</v>
       </c>
-      <c r="AE99" s="7">
+      <c r="AE99" s="2">
         <v>1133.0</v>
       </c>
-      <c r="AF99" s="7">
+      <c r="AF99" s="2">
         <v>1265.0</v>
       </c>
-      <c r="AG99" s="7">
+      <c r="AG99" s="2">
         <v>1353.0</v>
       </c>
-      <c r="AH99" s="7">
+      <c r="AH99" s="2">
         <v>1451.0</v>
       </c>
-      <c r="AI99" s="7">
+      <c r="AI99" s="2">
         <f>103+AH99</f>
         <v>1554</v>
       </c>
-      <c r="AJ99" s="7">
+      <c r="AJ99" s="2">
         <v>1628.0</v>
       </c>
-      <c r="AK99" s="7">
+      <c r="AK99" s="2">
         <v>1715.0</v>
       </c>
-      <c r="AL99" s="7">
+      <c r="AL99" s="2">
         <v>1795.0</v>
       </c>
-      <c r="AM99" s="7">
+      <c r="AM99" s="2">
         <v>1894.0</v>
       </c>
-      <c r="AN99" s="7">
+      <c r="AN99" s="2">
         <v>1975.0</v>
+      </c>
+      <c r="AO99" s="2">
+        <v>2142.0</v>
       </c>
     </row>
     <row r="100">
@@ -10173,156 +10452,160 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:AN100" si="32">C99/B99-1</f>
+        <f t="shared" ref="C100:AO100" si="41">C99/B99-1</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.125</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.3333333333</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.4166666667</v>
       </c>
       <c r="I100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1176470588</v>
       </c>
       <c r="J100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1052631579</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.4761904762</v>
       </c>
       <c r="L100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.09677419355</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.3235294118</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.2444444444</v>
       </c>
       <c r="O100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1607142857</v>
       </c>
       <c r="P100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.2153846154</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.2278481013</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.3195876289</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.234375</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.4240506329</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1822222222</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1315789474</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.2857142857</v>
       </c>
       <c r="X100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.2971576227</v>
       </c>
       <c r="Y100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1733067729</v>
       </c>
       <c r="Z100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1714770798</v>
       </c>
       <c r="AA100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.07971014493</v>
       </c>
       <c r="AB100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1006711409</v>
       </c>
       <c r="AC100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1780487805</v>
       </c>
       <c r="AD100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.09109730849</v>
       </c>
       <c r="AE100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.07495256167</v>
       </c>
       <c r="AF100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.1165048544</v>
       </c>
       <c r="AG100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.06956521739</v>
       </c>
       <c r="AH100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.07243163341</v>
       </c>
       <c r="AI100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.07098552722</v>
       </c>
       <c r="AJ100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.04761904762</v>
       </c>
       <c r="AK100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.05343980344</v>
       </c>
       <c r="AL100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.04664723032</v>
       </c>
       <c r="AM100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.05515320334</v>
       </c>
       <c r="AN100" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>0.04276663147</v>
+      </c>
+      <c r="AO100" s="1">
+        <f t="shared" si="41"/>
+        <v>0.08455696203</v>
       </c>
     </row>
     <row r="101">
@@ -10393,6 +10676,7 @@
       <c r="AL101" s="21"/>
       <c r="AM101" s="21"/>
       <c r="AN101" s="21"/>
+      <c r="AO101" s="21"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
@@ -10435,7 +10719,7 @@
       <c r="A105" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="8">
         <f>U99/B99-1</f>
         <v>265</v>
       </c>
@@ -15308,188 +15592,188 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="D1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>0.21176470588235294</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="8">
         <v>0.1781609195402299</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="8">
         <v>0.15228426395939088</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="8">
         <v>0.3004484304932735</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="8">
         <v>0.1443661971830986</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="8">
         <v>0.16129032258064516</v>
       </c>
-      <c r="K2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="K2" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="8">
         <v>0.18914473684210525</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="8">
         <v>0.21804511278195488</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="8">
         <f t="shared" ref="N2:P2" si="1">N6/N3</f>
         <v>0.153030303</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="8">
         <f t="shared" si="1"/>
         <v>0.1214128035</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="8">
         <f t="shared" si="1"/>
         <v>0.1704545455</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="A3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="8">
         <v>59.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <v>45.0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>85.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="8">
         <v>174.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="8">
         <v>197.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="8">
         <v>223.0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="8">
         <v>284.0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="8">
         <v>217.0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="8">
         <v>86.0</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="8">
         <v>608.0</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="8">
         <v>399.0</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="8">
         <v>660.0</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="8">
         <f t="shared" ref="O3:P3" si="2">O4-N4</f>
         <v>453</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="8">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="15">
         <v>470.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="15">
         <v>529.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="15">
         <v>574.0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="15">
         <v>659.0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="15">
         <v>833.0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="15">
         <v>1030.0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="15">
         <v>1253.0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="15">
         <v>1537.0</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="15">
         <v>1754.0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="15">
         <v>1840.0</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="15">
         <v>2448.0</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="15">
         <v>2847.0</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="15">
         <v>3507.0</v>
       </c>
       <c r="O4" s="1">
@@ -15500,37 +15784,37 @@
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>18.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
         <v>31.0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="8">
         <v>30.0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="8">
         <v>67.0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="8">
         <v>41.0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="8">
         <v>35.0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="8">
         <v>86.0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="8">
         <v>115.0</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="8">
         <v>87.0</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="8">
         <v>101.0</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="8">
         <v>55.0</v>
       </c>
       <c r="P6" s="1">
@@ -15542,244 +15826,244 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15">
+        <v>470.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>529.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="C12" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>574.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>470.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <v>59.0</v>
-      </c>
-      <c r="D11" s="6">
-        <v>529.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>45.0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>574.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="B13" s="8">
         <v>0.21176470588235294</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <v>85.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="15">
         <v>659.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="8">
         <v>18.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="A14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8">
         <v>0.1781609195402299</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="8">
         <v>174.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="15">
         <v>833.0</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="8">
         <v>31.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="A15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8">
         <v>0.15228426395939088</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="8">
         <v>197.0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="15">
         <v>1030.0</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="8">
         <v>30.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="A16" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="8">
         <v>0.3004484304932735</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="8">
         <v>223.0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="15">
         <v>1253.0</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="8">
         <v>67.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="A17" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8">
         <v>0.1443661971830986</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="8">
         <v>284.0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="15">
         <v>1537.0</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="8">
         <v>41.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8">
         <v>0.16129032258064516</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="8">
         <v>217.0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="15">
         <v>1754.0</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="8">
         <v>35.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="A19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="8">
         <v>86.0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="15">
         <v>1840.0</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="8">
         <v>86.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="8">
         <v>0.18914473684210525</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="8">
         <v>608.0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="15">
         <v>2448.0</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="8">
         <v>115.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8">
         <v>0.21804511278195488</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="8">
         <v>399.0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="15">
         <v>2847.0</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="8">
         <v>87.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="A22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8">
         <f t="shared" ref="B22:B24" si="3">F22/C22</f>
         <v>0.153030303</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="8">
         <v>660.0</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="15">
         <v>3507.0</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="8">
         <v>101.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="8">
         <f t="shared" si="3"/>
         <v>0.1214128035</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="8">
         <f t="shared" ref="C23:C24" si="4">D23-D22</f>
         <v>453</v>
       </c>
       <c r="D23" s="1">
         <v>3960.0</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="8">
         <v>55.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="A24" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="8">
         <f t="shared" si="3"/>
         <v>0.1704545455</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="8">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
@@ -15791,8 +16075,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
-        <v>21</v>
+      <c r="A25" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="F25" s="1">
         <v>175.0</v>
@@ -15818,270 +16102,270 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>43903.0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="5">
         <v>34.0</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <f>31*C$19</f>
         <v>38.316</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <f t="shared" ref="D2:D14" si="1">(C2-B2)*(C2-B2)</f>
         <v>18.627856</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>43904.0</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>45.0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="7">
         <f t="shared" ref="C3:C16" si="2">C2*C$19</f>
         <v>47.358576</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="8">
         <f t="shared" si="1"/>
         <v>5.562880748</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>43905.0</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="5">
         <v>56.0</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="7">
         <f t="shared" si="2"/>
         <v>58.53519994</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="8">
         <f t="shared" si="1"/>
         <v>6.427238715</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>43906.0</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>65.0</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <f t="shared" si="2"/>
         <v>72.34950712</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="8">
         <f t="shared" si="1"/>
         <v>54.01525492</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>43907.0</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>79.0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="7">
         <f t="shared" si="2"/>
         <v>89.4239908</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="8">
         <f t="shared" si="1"/>
         <v>108.6595842</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>43908.0</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>97.0</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <f t="shared" si="2"/>
         <v>110.5280526</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>183.008208</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>43909.0</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <f t="shared" si="2"/>
         <v>136.6126731</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>74.17813709</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>43910.0</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>158.0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <f t="shared" si="2"/>
         <v>168.8532639</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>117.7933371</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>43911.0</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="5">
         <v>225.0</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <f t="shared" si="2"/>
         <v>208.7026342</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>265.604133</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>43912.0</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="5">
         <v>266.0</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <f t="shared" si="2"/>
         <v>257.9564558</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>64.69860275</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>43913.0</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="5">
         <v>301.0</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <f t="shared" si="2"/>
         <v>318.8341794</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>318.0579553</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>43914.0</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="5">
         <v>387.0</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <f t="shared" si="2"/>
         <v>394.0790458</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="8">
         <f t="shared" si="1"/>
         <v>50.11288876</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>43915.0</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="5">
         <v>502.0</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <f t="shared" si="2"/>
         <v>487.0817005</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>222.5556585</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>43916.0</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="5">
         <v>589.0</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <f t="shared" si="2"/>
         <v>602.0329819</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>43917.0</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>690.0</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <f t="shared" si="2"/>
         <v>744.1127656</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>31</v>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="14">
+      <c r="B19" s="12">
         <f>SUM(D2:D14)</f>
         <v>1489.301735</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="13">
         <v>1.236</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="7"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -16099,36 +16383,36 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="6">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="15">
         <v>1.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="str">
+      <c r="A2" s="8" t="str">
         <f>Min(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <f>MSE!B19</f>
         <v>1489.301735</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>34</v>
+      <c r="A4" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>35</v>
+      <c r="A6" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/databases/cases.xlsx
+++ b/databases/cases.xlsx
@@ -42,22 +42,16 @@
     <t xml:space="preserve">CABA Casos Muertos </t>
   </si>
   <si>
-    <t>total MSE</t>
+    <t>CABA Casos Activos</t>
   </si>
   <si>
-    <t>CABA Casos Activos</t>
+    <t>total MSE</t>
   </si>
   <si>
     <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
   </si>
   <si>
     <t xml:space="preserve">Bs As Casos Confirmados </t>
-  </si>
-  <si>
-    <t>20202281585415264161</t>
-  </si>
-  <si>
-    <t>ZaBlfONzILttXxum</t>
   </si>
   <si>
     <t xml:space="preserve">Bs As  Casos Recuperados </t>
@@ -69,76 +63,28 @@
     <t>Bs As  Casos Activos</t>
   </si>
   <si>
-    <t>HTMF</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">Córdoba Casos Confirmados </t>
-  </si>
-  <si>
-    <t>03/15</t>
-  </si>
-  <si>
-    <t>03/16</t>
-  </si>
-  <si>
-    <t>03/17</t>
-  </si>
-  <si>
-    <t>03/18</t>
-  </si>
-  <si>
-    <t>03/19</t>
-  </si>
-  <si>
-    <t>03/20</t>
-  </si>
-  <si>
-    <t>03/21</t>
-  </si>
-  <si>
-    <t>03/22</t>
-  </si>
-  <si>
-    <t>03/23</t>
-  </si>
-  <si>
-    <t>03/24</t>
-  </si>
-  <si>
-    <t>03/25</t>
-  </si>
-  <si>
-    <t>03/26</t>
-  </si>
-  <si>
-    <t>03/27</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba Casos Recuperados </t>
   </si>
   <si>
-    <t>03/28</t>
+    <t>20202281585415264161</t>
   </si>
   <si>
-    <t>03/29</t>
-  </si>
-  <si>
-    <t>03/30</t>
+    <t>ZaBlfONzILttXxum</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba Casos Muertos </t>
   </si>
   <si>
-    <t>Tests realizados</t>
-  </si>
-  <si>
     <t>Córdoba Casos Activos</t>
   </si>
   <si>
-    <t>Tests acumulativos</t>
+    <t>HTMF</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">San Luis Casos Confirmados </t>
@@ -473,6 +419,60 @@
   <si>
     <t>https://gabgoh.github.io/COVID/index.html</t>
   </si>
+  <si>
+    <t>03/15</t>
+  </si>
+  <si>
+    <t>03/16</t>
+  </si>
+  <si>
+    <t>03/17</t>
+  </si>
+  <si>
+    <t>03/18</t>
+  </si>
+  <si>
+    <t>03/19</t>
+  </si>
+  <si>
+    <t>03/20</t>
+  </si>
+  <si>
+    <t>03/21</t>
+  </si>
+  <si>
+    <t>03/22</t>
+  </si>
+  <si>
+    <t>03/23</t>
+  </si>
+  <si>
+    <t>03/24</t>
+  </si>
+  <si>
+    <t>03/25</t>
+  </si>
+  <si>
+    <t>03/26</t>
+  </si>
+  <si>
+    <t>03/27</t>
+  </si>
+  <si>
+    <t>03/28</t>
+  </si>
+  <si>
+    <t>03/29</t>
+  </si>
+  <si>
+    <t>03/30</t>
+  </si>
+  <si>
+    <t>Tests realizados</t>
+  </si>
+  <si>
+    <t>Tests acumulativos</t>
+  </si>
 </sst>
 </file>
 
@@ -482,10 +482,10 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -508,6 +508,10 @@
     <font>
       <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -547,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -584,6 +588,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -591,9 +598,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -606,11 +610,14 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -644,11 +651,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="945494925"/>
-        <c:axId val="1006861951"/>
+        <c:axId val="1126621174"/>
+        <c:axId val="1332408728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="945494925"/>
+        <c:axId val="1126621174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,10 +697,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006861951"/>
+        <c:crossAx val="1332408728"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1006861951"/>
+        <c:axId val="1332408728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,7 +769,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945494925"/>
+        <c:crossAx val="1126621174"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1084,7 +1091,7 @@
     <col customWidth="1" min="29" max="30" width="6.29"/>
     <col customWidth="1" min="31" max="31" width="7.29"/>
     <col customWidth="1" min="32" max="36" width="6.0"/>
-    <col customWidth="1" min="37" max="41" width="5.86"/>
+    <col customWidth="1" min="37" max="43" width="5.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
@@ -1237,6 +1244,12 @@
       <c r="AO1" s="3">
         <v>43932.0</v>
       </c>
+      <c r="AP1" s="3">
+        <v>43933.0</v>
+      </c>
+      <c r="AQ1" s="3">
+        <v>43934.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -1378,6 +1391,13 @@
         <f>46+AN2</f>
         <v>578</v>
       </c>
+      <c r="AP2" s="1">
+        <f>AQ2-10</f>
+        <v>586</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>596.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -1501,7 +1521,13 @@
         <v>53.0</v>
       </c>
       <c r="AO3" s="1">
-        <v>53.0</v>
+        <v>270.0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>270.0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>270.0</v>
       </c>
     </row>
     <row r="4">
@@ -1628,10 +1654,16 @@
       <c r="AO4" s="1">
         <v>27.0</v>
       </c>
+      <c r="AP4" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>29.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -1697,7 +1729,7 @@
         <v>77.0</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5:AO5" si="3">W2-W3-W4</f>
+        <f t="shared" ref="W5:AQ5" si="3">W2-W3-W4</f>
         <v>107</v>
       </c>
       <c r="X5" s="1">
@@ -1770,7 +1802,15 @@
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="3"/>
-        <v>498</v>
+        <v>281</v>
+      </c>
+      <c r="AP5" s="1">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="AQ5" s="1">
+        <f t="shared" si="3"/>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
@@ -1909,10 +1949,17 @@
         <f>37+AN6</f>
         <v>544</v>
       </c>
+      <c r="AP6" s="1">
+        <f>AQ6-29</f>
+        <v>572</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>601.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2030,10 +2077,16 @@
       <c r="AO7" s="1">
         <v>15.0</v>
       </c>
+      <c r="AP7" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2151,10 +2204,16 @@
       <c r="AO8" s="1">
         <v>36.0</v>
       </c>
+      <c r="AP8" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>41.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2222,7 +2281,7 @@
         <v>129.0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:AO9" si="5">Y6-Y7-Y8</f>
+        <f t="shared" ref="Y9:AQ9" si="5">Y6-Y7-Y8</f>
         <v>139</v>
       </c>
       <c r="Z9" s="1">
@@ -2289,10 +2348,18 @@
         <f t="shared" si="5"/>
         <v>493</v>
       </c>
+      <c r="AP9" s="1">
+        <f t="shared" si="5"/>
+        <v>517</v>
+      </c>
+      <c r="AQ9" s="1">
+        <f t="shared" si="5"/>
+        <v>545</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2421,10 +2488,17 @@
         <f>32+AN10</f>
         <v>201</v>
       </c>
+      <c r="AP10" s="1">
+        <f>AQ10-4</f>
+        <v>206</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>210.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2520,30 +2594,36 @@
         <v>1.0</v>
       </c>
       <c r="AI11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AK11" s="1">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="AL11" s="1">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="AM11" s="1">
-        <v>1.0</v>
+        <v>31.0</v>
       </c>
       <c r="AN11" s="1">
-        <v>1.0</v>
+        <v>33.0</v>
       </c>
       <c r="AO11" s="1">
-        <v>1.0</v>
+        <v>37.0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>37.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2659,10 +2739,16 @@
       <c r="AO12" s="1">
         <v>2.0</v>
       </c>
+      <c r="AP12" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2754,7 +2840,7 @@
         <v>99.0</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" ref="AF13:AL13" si="7">AF10-AF11-AF12</f>
+        <f t="shared" ref="AF13:AQ13" si="7">AF10-AF11-AF12</f>
         <v>115</v>
       </c>
       <c r="AG13" s="1">
@@ -2767,35 +2853,44 @@
       </c>
       <c r="AI13" s="1">
         <f t="shared" si="7"/>
-        <v>136</v>
-      </c>
-      <c r="AJ13" s="8">
+        <v>135</v>
+      </c>
+      <c r="AJ13" s="1">
         <f t="shared" si="7"/>
-        <v>143</v>
-      </c>
-      <c r="AK13" s="8">
+        <v>142</v>
+      </c>
+      <c r="AK13" s="1">
         <f t="shared" si="7"/>
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="AL13" s="1">
         <f t="shared" si="7"/>
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AM13" s="1">
-        <v>153.0</v>
+        <f t="shared" si="7"/>
+        <v>123</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" ref="AN13:AO13" si="8">AN10-AN11-AN12</f>
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="AO13" s="1">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="AP13" s="1">
+        <f t="shared" si="7"/>
         <v>166</v>
       </c>
-      <c r="AO13" s="1">
-        <f t="shared" si="8"/>
-        <v>198</v>
+      <c r="AQ13" s="1">
+        <f t="shared" si="7"/>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2907,10 +3002,16 @@
       <c r="AO14" s="1">
         <v>11.0</v>
       </c>
+      <c r="AP14" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3020,10 +3121,16 @@
       <c r="AO15" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3133,10 +3240,16 @@
       <c r="AO16" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3199,15 +3312,15 @@
         <v>6.0</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" ref="Z17:AB17" si="9">Z14-Z15-Z16</f>
+        <f t="shared" ref="Z17:AB17" si="8">Z14-Z15-Z16</f>
         <v>7</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AC17" s="1">
@@ -3247,17 +3360,25 @@
         <v>11.0</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" ref="AN17:AO17" si="10">AN14-AN15-AN16</f>
+        <f t="shared" ref="AN17:AQ17" si="9">AN14-AN15-AN16</f>
         <v>11</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AP17" s="1">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3351,11 +3472,11 @@
         <v>99</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" ref="AG18:AH18" si="11">AF18+8</f>
+        <f t="shared" ref="AG18:AH18" si="10">AF18+8</f>
         <v>107</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>115</v>
       </c>
       <c r="AI18" s="1">
@@ -3381,10 +3502,16 @@
       <c r="AO18" s="1">
         <v>149.0</v>
       </c>
+      <c r="AP18" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>153.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3494,10 +3621,16 @@
       <c r="AO19" s="1">
         <v>4.0</v>
       </c>
+      <c r="AP19" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3607,10 +3740,16 @@
       <c r="AO20" s="1">
         <v>8.0</v>
       </c>
+      <c r="AP20" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3674,72 +3813,80 @@
         <v>51</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" ref="Z21:AH21" si="12">Z18-Z19-Z20</f>
+        <f t="shared" ref="Z21:AH21" si="11">Z18-Z19-Z20</f>
         <v>52</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>57</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="AC21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
       <c r="AI21" s="1">
         <v>104.0</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" ref="AJ21:AO21" si="13">AJ18-AJ19-AJ20</f>
+        <f t="shared" ref="AJ21:AQ21" si="12">AJ18-AJ19-AJ20</f>
         <v>108</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>127</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>137</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>137</v>
+      </c>
+      <c r="AP21" s="1">
+        <f t="shared" si="12"/>
+        <v>138</v>
+      </c>
+      <c r="AQ21" s="1">
+        <f t="shared" si="12"/>
+        <v>141</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3852,10 +3999,17 @@
         <f>23+AN22</f>
         <v>65</v>
       </c>
+      <c r="AP22" s="1">
+        <f>AQ22-3</f>
+        <v>78</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>81.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3965,10 +4119,16 @@
       <c r="AO23" s="1">
         <v>1.0</v>
       </c>
+      <c r="AP23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4078,10 +4238,16 @@
       <c r="AO24" s="1">
         <v>2.0</v>
       </c>
+      <c r="AP24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4144,15 +4310,15 @@
         <v>3.0</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" ref="Z25:AB25" si="14">Z22-Z23-Z24</f>
+        <f t="shared" ref="Z25:AB25" si="13">Z22-Z23-Z24</f>
         <v>6</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AC25" s="1">
@@ -4191,17 +4357,25 @@
         <v>33.0</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" ref="AN25:AO25" si="15">AN22-AN23-AN24</f>
+        <f t="shared" ref="AN25:AQ25" si="14">AN22-AN23-AN24</f>
         <v>39</v>
       </c>
       <c r="AO25" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>62</v>
+      </c>
+      <c r="AP25" s="1">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="AQ25" s="1">
+        <f t="shared" si="14"/>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4312,10 +4486,16 @@
       <c r="AO26" s="1">
         <v>200.0</v>
       </c>
+      <c r="AP26" s="1">
+        <v>203.0</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>205.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -4415,10 +4595,16 @@
       <c r="AO27" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4518,10 +4704,16 @@
       <c r="AO28" s="1">
         <v>2.0</v>
       </c>
+      <c r="AP28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -4574,15 +4766,15 @@
         <v>54.0</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" ref="Z29:AB29" si="16">Z26-Z27-Z28</f>
+        <f t="shared" ref="Z29:AB29" si="15">Z26-Z27-Z28</f>
         <v>64</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>77</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="AC29" s="1">
@@ -4614,25 +4806,33 @@
         <v>186.0</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" ref="AL29:AO29" si="17">AL26-AL27-AL28</f>
+        <f t="shared" ref="AL29:AQ29" si="16">AL26-AL27-AL28</f>
         <v>188</v>
       </c>
       <c r="AM29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>194</v>
       </c>
       <c r="AN29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>195</v>
       </c>
       <c r="AO29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>198</v>
+      </c>
+      <c r="AP29" s="1">
+        <f t="shared" si="16"/>
+        <v>201</v>
+      </c>
+      <c r="AQ29" s="1">
+        <f t="shared" si="16"/>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4737,10 +4937,16 @@
       <c r="AO30" s="1">
         <v>91.0</v>
       </c>
+      <c r="AP30" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>99.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4838,10 +5044,16 @@
       <c r="AO31" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4939,10 +5151,16 @@
       <c r="AO32" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4993,15 +5211,15 @@
         <v>14.0</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" ref="Z33:AB33" si="18">Z30-Z31-Z32</f>
+        <f t="shared" ref="Z33:AB33" si="17">Z30-Z31-Z32</f>
         <v>13</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="AC33" s="1">
@@ -5046,10 +5264,18 @@
       <c r="AO33" s="1">
         <v>91.0</v>
       </c>
+      <c r="AP33" s="1">
+        <f t="shared" ref="AP33:AQ33" si="18">AP30-AP31-AP32</f>
+        <v>95</v>
+      </c>
+      <c r="AQ33" s="1">
+        <f t="shared" si="18"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5145,10 +5371,16 @@
       <c r="AO34" s="1">
         <v>5.0</v>
       </c>
+      <c r="AP34" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5242,10 +5474,16 @@
       <c r="AO35" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5339,10 +5577,16 @@
       <c r="AO36" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5442,10 +5686,16 @@
       <c r="AO37" s="1">
         <v>5.0</v>
       </c>
+      <c r="AP37" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5539,10 +5789,16 @@
       <c r="AO38" s="1">
         <v>3.0</v>
       </c>
+      <c r="AP38" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5636,10 +5892,16 @@
       <c r="AO39" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5733,10 +5995,16 @@
       <c r="AO40" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5830,17 +6098,25 @@
         <v>3.0</v>
       </c>
       <c r="AN41" s="1">
-        <f t="shared" ref="AN41:AO41" si="21">AN38-AN39-AN40</f>
+        <f t="shared" ref="AN41:AQ41" si="21">AN38-AN39-AN40</f>
         <v>3</v>
       </c>
       <c r="AO41" s="1">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
+      <c r="AP41" s="1">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AQ41" s="1">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5934,10 +6210,16 @@
       <c r="AO42" s="1">
         <v>22.0</v>
       </c>
+      <c r="AP42" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -6031,10 +6313,16 @@
       <c r="AO43" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -6128,10 +6416,16 @@
       <c r="AO44" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -6232,10 +6526,16 @@
         <f t="shared" si="23"/>
         <v>22</v>
       </c>
+      <c r="AP45" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6324,10 +6624,17 @@
       <c r="AO46" s="1">
         <v>24.0</v>
       </c>
+      <c r="AP46" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="AQ46" s="1">
+        <f>24+7</f>
+        <v>31</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6415,10 +6722,16 @@
       <c r="AO47" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6506,10 +6819,16 @@
       <c r="AO48" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6597,17 +6916,24 @@
         <v>24.0</v>
       </c>
       <c r="AN49" s="1">
-        <f t="shared" ref="AN49:AO49" si="25">AN46-AN47-AN48</f>
+        <f t="shared" ref="AN49:AP49" si="25">AN46-AN47-AN48</f>
         <v>24</v>
       </c>
       <c r="AO49" s="1">
         <f t="shared" si="25"/>
         <v>24</v>
       </c>
+      <c r="AP49" s="1">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6695,10 +7021,16 @@
       <c r="AO50" s="1">
         <v>12.0</v>
       </c>
+      <c r="AP50" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="AQ50" s="1">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6786,10 +7118,16 @@
       <c r="AO51" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6877,10 +7215,16 @@
       <c r="AO52" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6975,10 +7319,16 @@
       <c r="AO53" s="1">
         <v>12.0</v>
       </c>
+      <c r="AP53" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="AQ53" s="1">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -7066,10 +7416,16 @@
       <c r="AO54" s="1">
         <v>85.0</v>
       </c>
+      <c r="AP54" s="1">
+        <v>86.0</v>
+      </c>
+      <c r="AQ54" s="1">
+        <v>88.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -7157,10 +7513,16 @@
       <c r="AO55" s="1">
         <v>1.0</v>
       </c>
+      <c r="AP55" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AQ55" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -7248,10 +7610,16 @@
       <c r="AO56" s="1">
         <v>3.0</v>
       </c>
+      <c r="AP56" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AQ56" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -7348,10 +7716,16 @@
         <f t="shared" si="29"/>
         <v>81</v>
       </c>
+      <c r="AP57" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="AQ57" s="1">
+        <v>84.0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -7438,10 +7812,16 @@
       <c r="AO58" s="1">
         <v>54.0</v>
       </c>
+      <c r="AP58" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="AQ58" s="1">
+        <v>59.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -7527,10 +7907,16 @@
       <c r="AO59" s="1">
         <v>1.0</v>
       </c>
+      <c r="AP59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AQ59" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -7616,10 +8002,16 @@
       <c r="AO60" s="1">
         <v>5.0</v>
       </c>
+      <c r="AP60" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AQ60" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -7713,10 +8105,16 @@
         <f t="shared" si="32"/>
         <v>48</v>
       </c>
+      <c r="AP61" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="AQ61" s="1">
+        <v>53.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -7806,10 +8204,16 @@
       <c r="AO62" s="1">
         <v>30.0</v>
       </c>
+      <c r="AP62" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="AQ62" s="1">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -7899,10 +8303,16 @@
       <c r="AO63" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ63" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -7992,10 +8402,16 @@
       <c r="AO64" s="1">
         <v>3.0</v>
       </c>
+      <c r="AP64" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AQ64" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -8093,10 +8509,16 @@
       <c r="AO65" s="1">
         <v>27.0</v>
       </c>
+      <c r="AP65" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="AQ65" s="1">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -8191,10 +8613,16 @@
       <c r="AO66" s="1">
         <v>40.0</v>
       </c>
+      <c r="AP66" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -8288,10 +8716,16 @@
       <c r="AO67" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP67" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ67" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -8385,10 +8819,16 @@
       <c r="AO68" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP68" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -8487,10 +8927,16 @@
       <c r="AO69" s="1">
         <v>40.0</v>
       </c>
+      <c r="AP69" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -8522,7 +8968,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -8554,7 +9000,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -8586,7 +9032,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -8618,7 +9064,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -8702,10 +9148,16 @@
       <c r="AO74" s="1">
         <v>3.0</v>
       </c>
+      <c r="AP74" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AQ74" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -8789,10 +9241,16 @@
       <c r="AO75" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP75" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ75" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -8876,10 +9334,16 @@
       <c r="AO76" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP76" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ76" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -8968,10 +9432,16 @@
       <c r="AO77" s="1">
         <v>3.0</v>
       </c>
+      <c r="AP77" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AQ77" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -9003,7 +9473,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -9035,7 +9505,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -9067,7 +9537,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -9099,7 +9569,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -9131,7 +9601,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -9163,7 +9633,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -9195,7 +9665,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -9227,7 +9697,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -9297,10 +9767,16 @@
       <c r="AO86" s="1">
         <v>18.0</v>
       </c>
+      <c r="AP86" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="AQ86" s="1">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -9370,10 +9846,16 @@
       <c r="AO87" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ87" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -9443,10 +9925,16 @@
       <c r="AO88" s="1">
         <v>1.0</v>
       </c>
+      <c r="AP88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AQ88" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -9521,10 +10009,16 @@
         <f t="shared" si="38"/>
         <v>17</v>
       </c>
+      <c r="AP89" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="AQ89" s="1">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -9594,10 +10088,16 @@
       <c r="AO90" s="1">
         <v>2.0</v>
       </c>
+      <c r="AP90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AQ90" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -9667,10 +10167,16 @@
       <c r="AO91" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ91" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -9740,10 +10246,16 @@
       <c r="AO92" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ92" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -9816,10 +10328,16 @@
       <c r="AO93" s="1">
         <v>2.0</v>
       </c>
+      <c r="AP93" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AQ93" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -9899,10 +10417,16 @@
       <c r="AO94" s="1">
         <v>5.0</v>
       </c>
+      <c r="AP94" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AQ94" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -9982,10 +10506,16 @@
       <c r="AO95" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ95" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -10065,10 +10595,16 @@
       <c r="AO96" s="1">
         <v>0.0</v>
       </c>
+      <c r="AP96" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AQ96" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -10153,13 +10689,19 @@
       <c r="AO97" s="1">
         <v>5.0</v>
       </c>
+      <c r="AP97" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AQ97" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" ref="B98:AO98" si="40">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
+        <f t="shared" ref="B98:AQ98" si="40">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
         <v>1</v>
       </c>
       <c r="C98" s="2">
@@ -10318,10 +10860,18 @@
         <f t="shared" si="40"/>
         <v>2142</v>
       </c>
+      <c r="AP98" s="2">
+        <f t="shared" si="40"/>
+        <v>2208</v>
+      </c>
+      <c r="AQ98" s="2">
+        <f t="shared" si="40"/>
+        <v>2277</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B99" s="2">
         <v>1.0</v>
@@ -10445,14 +10995,20 @@
       <c r="AO99" s="2">
         <v>2142.0</v>
       </c>
+      <c r="AP99" s="2">
+        <v>2208.0</v>
+      </c>
+      <c r="AQ99" s="2">
+        <v>2277.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:AO100" si="41">C99/B99-1</f>
+        <f t="shared" ref="C100:AQ100" si="41">C99/B99-1</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
@@ -10607,47 +11163,55 @@
         <f t="shared" si="41"/>
         <v>0.08455696203</v>
       </c>
+      <c r="AP100" s="1">
+        <f t="shared" si="41"/>
+        <v>0.03081232493</v>
+      </c>
+      <c r="AQ100" s="1">
+        <f t="shared" si="41"/>
+        <v>0.03125</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="18" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="18"/>
       <c r="D101" s="19"/>
       <c r="E101" s="18" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="F101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="18" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="M101" s="18" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="O101" s="20" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="P101" s="18" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="Q101" s="18" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="R101" s="19"/>
       <c r="S101" s="20" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="T101" s="19"/>
       <c r="U101" s="19"/>
@@ -10655,7 +11219,7 @@
       <c r="W101" s="19"/>
       <c r="X101" s="19"/>
       <c r="Y101" s="20" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="Z101" s="20"/>
       <c r="AA101" s="20"/>
@@ -10665,10 +11229,10 @@
       <c r="AE101" s="19"/>
       <c r="AF101" s="19"/>
       <c r="AG101" s="21" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="AH101" s="21" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="AI101" s="21"/>
       <c r="AJ101" s="21"/>
@@ -10677,14 +11241,16 @@
       <c r="AM101" s="21"/>
       <c r="AN101" s="21"/>
       <c r="AO101" s="21"/>
+      <c r="AP101" s="21"/>
+      <c r="AQ101" s="21"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="22" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G102" s="1"/>
       <c r="Q102" s="1"/>
@@ -10704,10 +11270,10 @@
     </row>
     <row r="104">
       <c r="A104" s="22" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C104" s="1"/>
       <c r="Q104" s="1"/>
@@ -10717,14 +11283,14 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B105" s="8">
         <f>U99/B99-1</f>
         <v>265</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="Z105" s="23"/>
       <c r="AA105" s="23"/>
@@ -10732,14 +11298,14 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B106" s="24">
         <f>(1+B105)^(1/20)-1</f>
         <v>0.3220384364</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="Z106" s="23"/>
       <c r="AA106" s="23"/>
@@ -10747,7 +11313,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="Z107" s="23"/>
       <c r="AA107" s="23"/>
@@ -10755,7 +11321,7 @@
     </row>
     <row r="108">
       <c r="A108" s="22" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="Z108" s="23"/>
       <c r="AA108" s="23"/>
@@ -10768,10 +11334,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="Z110" s="23"/>
       <c r="AA110" s="23"/>
@@ -15594,53 +16160,53 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>36</v>
+      <c r="B1" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -15685,8 +16251,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
-        <v>38</v>
+      <c r="A3" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="C3" s="8">
         <v>59.0</v>
@@ -15734,46 +16300,46 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="16">
         <v>470.0</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="16">
         <v>529.0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>574.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="16">
         <v>659.0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="16">
         <v>833.0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="16">
         <v>1030.0</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="16">
         <v>1253.0</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="16">
         <v>1537.0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="16">
         <v>1754.0</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="16">
         <v>1840.0</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="16">
         <v>2448.0</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="16">
         <v>2847.0</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="16">
         <v>3507.0</v>
       </c>
       <c r="O4" s="1">
@@ -15828,46 +16394,46 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>40</v>
+      <c r="C9" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="A10" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="16">
         <v>470.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
+      <c r="A11" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="C11" s="8">
         <v>59.0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>529.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
-        <v>22</v>
+      <c r="A12" s="25" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="8">
         <v>45.0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="16">
         <v>574.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="17" t="s">
-        <v>23</v>
+      <c r="A13" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="B13" s="8">
         <v>0.21176470588235294</v>
@@ -15875,7 +16441,7 @@
       <c r="C13" s="8">
         <v>85.0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <v>659.0</v>
       </c>
       <c r="F13" s="8">
@@ -15883,8 +16449,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="s">
-        <v>24</v>
+      <c r="A14" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="B14" s="8">
         <v>0.1781609195402299</v>
@@ -15892,7 +16458,7 @@
       <c r="C14" s="8">
         <v>174.0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="16">
         <v>833.0</v>
       </c>
       <c r="F14" s="8">
@@ -15900,8 +16466,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="s">
-        <v>25</v>
+      <c r="A15" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="B15" s="8">
         <v>0.15228426395939088</v>
@@ -15909,7 +16475,7 @@
       <c r="C15" s="8">
         <v>197.0</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <v>1030.0</v>
       </c>
       <c r="F15" s="8">
@@ -15917,8 +16483,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
-        <v>26</v>
+      <c r="A16" s="25" t="s">
+        <v>140</v>
       </c>
       <c r="B16" s="8">
         <v>0.3004484304932735</v>
@@ -15926,7 +16492,7 @@
       <c r="C16" s="8">
         <v>223.0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="16">
         <v>1253.0</v>
       </c>
       <c r="F16" s="8">
@@ -15934,8 +16500,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
-        <v>27</v>
+      <c r="A17" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="B17" s="8">
         <v>0.1443661971830986</v>
@@ -15943,7 +16509,7 @@
       <c r="C17" s="8">
         <v>284.0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <v>1537.0</v>
       </c>
       <c r="F17" s="8">
@@ -15951,8 +16517,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="17" t="s">
-        <v>28</v>
+      <c r="A18" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="B18" s="8">
         <v>0.16129032258064516</v>
@@ -15960,7 +16526,7 @@
       <c r="C18" s="8">
         <v>217.0</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="16">
         <v>1754.0</v>
       </c>
       <c r="F18" s="8">
@@ -15968,8 +16534,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="s">
-        <v>29</v>
+      <c r="A19" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="B19" s="8">
         <v>1.0</v>
@@ -15977,7 +16543,7 @@
       <c r="C19" s="8">
         <v>86.0</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="16">
         <v>1840.0</v>
       </c>
       <c r="F19" s="8">
@@ -15985,8 +16551,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="s">
-        <v>30</v>
+      <c r="A20" s="25" t="s">
+        <v>144</v>
       </c>
       <c r="B20" s="8">
         <v>0.18914473684210525</v>
@@ -15994,7 +16560,7 @@
       <c r="C20" s="8">
         <v>608.0</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="16">
         <v>2448.0</v>
       </c>
       <c r="F20" s="8">
@@ -16002,8 +16568,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>31</v>
+      <c r="A21" s="25" t="s">
+        <v>145</v>
       </c>
       <c r="B21" s="8">
         <v>0.21804511278195488</v>
@@ -16011,7 +16577,7 @@
       <c r="C21" s="8">
         <v>399.0</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="16">
         <v>2847.0</v>
       </c>
       <c r="F21" s="8">
@@ -16019,8 +16585,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="s">
-        <v>32</v>
+      <c r="A22" s="25" t="s">
+        <v>146</v>
       </c>
       <c r="B22" s="8">
         <f t="shared" ref="B22:B24" si="3">F22/C22</f>
@@ -16029,7 +16595,7 @@
       <c r="C22" s="8">
         <v>660.0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="16">
         <v>3507.0</v>
       </c>
       <c r="F22" s="8">
@@ -16037,8 +16603,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="17" t="s">
-        <v>34</v>
+      <c r="A23" s="25" t="s">
+        <v>147</v>
       </c>
       <c r="B23" s="8">
         <f t="shared" si="3"/>
@@ -16056,8 +16622,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="17" t="s">
-        <v>35</v>
+      <c r="A24" s="25" t="s">
+        <v>148</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="3"/>
@@ -16075,8 +16641,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="17" t="s">
-        <v>36</v>
+      <c r="A25" s="25" t="s">
+        <v>149</v>
       </c>
       <c r="F25" s="1">
         <v>175.0</v>
@@ -16349,7 +16915,7 @@
     </row>
     <row r="18">
       <c r="B18" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>10</v>
@@ -16383,13 +16949,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="15">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="16">
         <v>1.0</v>
       </c>
     </row>
@@ -16400,19 +16966,19 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <f>MSE!B19</f>
         <v>1489.301735</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
+      <c r="A4" s="15" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>18</v>
+      <c r="A6" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/databases/cases.xlsx
+++ b/databases/cases.xlsx
@@ -18,13 +18,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="153">
   <si>
+    <t>Provicia \ día</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABA Casos Confirmados </t>
+  </si>
+  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Confirmados</t>
-  </si>
-  <si>
-    <t>Provicia \ día</t>
   </si>
   <si>
     <t>Teóricos Tasa 1.236</t>
@@ -33,13 +36,22 @@
     <t>MSE</t>
   </si>
   <si>
-    <t xml:space="preserve">CABA Casos Confirmados </t>
-  </si>
-  <si>
     <t>total MSE</t>
   </si>
   <si>
+    <t xml:space="preserve">CABA Casos Recuperados </t>
+  </si>
+  <si>
     <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABA Casos Muertos </t>
+  </si>
+  <si>
+    <t>CABA Casos Activos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As Casos Confirmados </t>
   </si>
   <si>
     <t>20202281585415264161</t>
@@ -48,22 +60,10 @@
     <t>ZaBlfONzILttXxum</t>
   </si>
   <si>
-    <t xml:space="preserve">CABA Casos Recuperados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABA Casos Muertos </t>
-  </si>
-  <si>
     <t>HTMF</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>CABA Casos Activos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As Casos Confirmados </t>
   </si>
   <si>
     <t xml:space="preserve">Bs As  Casos Recuperados </t>
@@ -72,7 +72,61 @@
     <t xml:space="preserve">Bs As  Casos Muertos </t>
   </si>
   <si>
+    <t>03/15</t>
+  </si>
+  <si>
     <t>Bs As  Casos Activos</t>
+  </si>
+  <si>
+    <t>03/16</t>
+  </si>
+  <si>
+    <t>03/17</t>
+  </si>
+  <si>
+    <t>03/18</t>
+  </si>
+  <si>
+    <t>03/19</t>
+  </si>
+  <si>
+    <t>03/20</t>
+  </si>
+  <si>
+    <t>03/21</t>
+  </si>
+  <si>
+    <t>03/22</t>
+  </si>
+  <si>
+    <t>03/23</t>
+  </si>
+  <si>
+    <t>03/24</t>
+  </si>
+  <si>
+    <t>03/25</t>
+  </si>
+  <si>
+    <t>03/26</t>
+  </si>
+  <si>
+    <t>03/27</t>
+  </si>
+  <si>
+    <t>03/28</t>
+  </si>
+  <si>
+    <t>03/29</t>
+  </si>
+  <si>
+    <t>03/30</t>
+  </si>
+  <si>
+    <t>Tests realizados</t>
+  </si>
+  <si>
+    <t>Tests acumulativos</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba Casos Confirmados </t>
@@ -171,61 +225,7 @@
     <t>Salta Casos Activos</t>
   </si>
   <si>
-    <t>03/15</t>
-  </si>
-  <si>
-    <t>03/16</t>
-  </si>
-  <si>
-    <t>03/17</t>
-  </si>
-  <si>
-    <t>03/18</t>
-  </si>
-  <si>
-    <t>03/19</t>
-  </si>
-  <si>
-    <t>03/20</t>
-  </si>
-  <si>
-    <t>03/21</t>
-  </si>
-  <si>
-    <t>03/22</t>
-  </si>
-  <si>
-    <t>03/23</t>
-  </si>
-  <si>
-    <t>03/24</t>
-  </si>
-  <si>
-    <t>03/25</t>
-  </si>
-  <si>
-    <t>03/26</t>
-  </si>
-  <si>
-    <t>03/27</t>
-  </si>
-  <si>
-    <t>03/28</t>
-  </si>
-  <si>
-    <t>03/29</t>
-  </si>
-  <si>
-    <t>03/30</t>
-  </si>
-  <si>
-    <t>Tests realizados</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entre Ríos Casos Confirmados </t>
-  </si>
-  <si>
-    <t>Tests acumulativos</t>
   </si>
   <si>
     <t xml:space="preserve">Entre Ríos Casos Recuperados </t>
@@ -561,10 +561,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -573,7 +574,6 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -654,11 +654,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="837125998"/>
-        <c:axId val="1973380591"/>
+        <c:axId val="338085295"/>
+        <c:axId val="1782800887"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="837125998"/>
+        <c:axId val="338085295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1973380591"/>
+        <c:crossAx val="1782800887"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1973380591"/>
+        <c:axId val="1782800887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="837125998"/>
+        <c:crossAx val="338085295"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1094,193 +1094,196 @@
     <col customWidth="1" min="29" max="30" width="6.29"/>
     <col customWidth="1" min="31" max="31" width="7.29"/>
     <col customWidth="1" min="32" max="36" width="6.0"/>
-    <col customWidth="1" min="37" max="51" width="5.86"/>
+    <col customWidth="1" min="37" max="52" width="5.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2">
         <v>43893.0</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="3">
         <f t="shared" ref="C1:U1" si="1">B1+1</f>
         <v>43894</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <f t="shared" si="1"/>
         <v>43895</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="2">
         <f t="shared" si="1"/>
         <v>43896</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="2">
         <f t="shared" si="1"/>
         <v>43897</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="2">
         <f t="shared" si="1"/>
         <v>43898</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="2">
         <f t="shared" si="1"/>
         <v>43899</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <f t="shared" si="1"/>
         <v>43900</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <f t="shared" si="1"/>
         <v>43901</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="2">
         <f t="shared" si="1"/>
         <v>43902</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="2">
         <f t="shared" si="1"/>
         <v>43903</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="2">
         <f t="shared" si="1"/>
         <v>43904</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="2">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="2">
         <f t="shared" si="1"/>
         <v>43906</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="2">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="Q1" s="2">
         <f t="shared" si="1"/>
         <v>43908</v>
       </c>
-      <c r="R1" s="3">
+      <c r="R1" s="2">
         <f t="shared" si="1"/>
         <v>43909</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <f t="shared" si="1"/>
         <v>43910</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="2">
         <f t="shared" si="1"/>
         <v>43911</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="2">
         <f t="shared" si="1"/>
         <v>43912</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>43913.0</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="2">
         <f>V1+1</f>
         <v>43914</v>
       </c>
-      <c r="X1" s="3">
+      <c r="X1" s="2">
         <v>43915.0</v>
       </c>
-      <c r="Y1" s="3">
+      <c r="Y1" s="2">
         <v>43916.0</v>
       </c>
-      <c r="Z1" s="3">
+      <c r="Z1" s="2">
         <f t="shared" ref="Z1:AE1" si="2">Y1+1</f>
         <v>43917</v>
       </c>
-      <c r="AA1" s="3">
+      <c r="AA1" s="2">
         <f t="shared" si="2"/>
         <v>43918</v>
       </c>
-      <c r="AB1" s="3">
+      <c r="AB1" s="2">
         <f t="shared" si="2"/>
         <v>43919</v>
       </c>
-      <c r="AC1" s="3">
+      <c r="AC1" s="2">
         <f t="shared" si="2"/>
         <v>43920</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="2">
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="AE1" s="3">
+      <c r="AE1" s="2">
         <f t="shared" si="2"/>
         <v>43922</v>
       </c>
-      <c r="AF1" s="3">
+      <c r="AF1" s="2">
         <v>43923.0</v>
       </c>
-      <c r="AG1" s="3">
+      <c r="AG1" s="2">
         <v>43924.0</v>
       </c>
-      <c r="AH1" s="3">
+      <c r="AH1" s="2">
         <v>43925.0</v>
       </c>
-      <c r="AI1" s="3">
+      <c r="AI1" s="2">
         <v>43926.0</v>
       </c>
-      <c r="AJ1" s="3">
+      <c r="AJ1" s="2">
         <v>43927.0</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AK1" s="2">
         <v>43928.0</v>
       </c>
-      <c r="AL1" s="3">
+      <c r="AL1" s="2">
         <v>43929.0</v>
       </c>
-      <c r="AM1" s="3">
+      <c r="AM1" s="2">
         <v>43930.0</v>
       </c>
-      <c r="AN1" s="3">
+      <c r="AN1" s="2">
         <v>43931.0</v>
       </c>
-      <c r="AO1" s="3">
+      <c r="AO1" s="2">
         <v>43932.0</v>
       </c>
-      <c r="AP1" s="3">
+      <c r="AP1" s="2">
         <v>43933.0</v>
       </c>
-      <c r="AQ1" s="3">
+      <c r="AQ1" s="2">
         <v>43934.0</v>
       </c>
-      <c r="AR1" s="3">
+      <c r="AR1" s="2">
         <v>43935.0</v>
       </c>
-      <c r="AS1" s="3">
+      <c r="AS1" s="2">
         <v>43936.0</v>
       </c>
-      <c r="AT1" s="3">
+      <c r="AT1" s="2">
         <v>43937.0</v>
       </c>
-      <c r="AU1" s="3">
+      <c r="AU1" s="2">
         <v>43938.0</v>
       </c>
-      <c r="AV1" s="3">
+      <c r="AV1" s="2">
         <v>43939.0</v>
       </c>
-      <c r="AW1" s="3">
+      <c r="AW1" s="2">
         <v>43940.0</v>
       </c>
-      <c r="AX1" s="3">
+      <c r="AX1" s="2">
         <v>43941.0</v>
       </c>
-      <c r="AY1" s="3">
+      <c r="AY1" s="2">
         <v>43942.0</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>43943.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -1453,10 +1456,13 @@
       <c r="AY2" s="1">
         <v>761.0</v>
       </c>
+      <c r="AZ2" s="1">
+        <v>800.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
@@ -1608,10 +1614,13 @@
       <c r="AY3" s="1">
         <v>270.0</v>
       </c>
+      <c r="AZ3" s="1">
+        <v>270.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -1763,10 +1772,13 @@
       <c r="AY4" s="1">
         <v>44.0</v>
       </c>
+      <c r="AZ4" s="1">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -1832,7 +1844,7 @@
         <v>77.0</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" ref="W5:AY5" si="4">W2-W3-W4</f>
+        <f t="shared" ref="W5:AZ5" si="4">W2-W3-W4</f>
         <v>107</v>
       </c>
       <c r="X5" s="1">
@@ -1947,10 +1959,14 @@
         <f t="shared" si="4"/>
         <v>447</v>
       </c>
+      <c r="AZ5" s="1">
+        <f t="shared" si="4"/>
+        <v>484</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2117,6 +2133,9 @@
       <c r="AY6" s="1">
         <v>975.0</v>
       </c>
+      <c r="AZ6" s="1">
+        <v>1036.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -2268,6 +2287,9 @@
       <c r="AY7" s="1">
         <v>15.0</v>
       </c>
+      <c r="AZ7" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -2419,10 +2441,13 @@
       <c r="AY8" s="1">
         <v>59.0</v>
       </c>
+      <c r="AZ8" s="1">
+        <v>64.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2490,7 +2515,7 @@
         <v>129.0</v>
       </c>
       <c r="Y9" s="1">
-        <f t="shared" ref="Y9:AY9" si="6">Y6-Y7-Y8</f>
+        <f t="shared" ref="Y9:AZ9" si="6">Y6-Y7-Y8</f>
         <v>139</v>
       </c>
       <c r="Z9" s="1">
@@ -2597,10 +2622,14 @@
         <f t="shared" si="6"/>
         <v>901</v>
       </c>
+      <c r="AZ9" s="1">
+        <f t="shared" si="6"/>
+        <v>957</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2761,10 +2790,13 @@
       <c r="AY10" s="1">
         <v>260.0</v>
       </c>
+      <c r="AZ10" s="1">
+        <v>264.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2910,10 +2942,13 @@
       <c r="AY11" s="1">
         <v>37.0</v>
       </c>
+      <c r="AZ11" s="1">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3059,10 +3094,13 @@
       <c r="AY12" s="1">
         <v>9.0</v>
       </c>
+      <c r="AZ12" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3154,7 +3192,7 @@
         <v>99.0</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" ref="AF13:AY13" si="8">AF10-AF11-AF12</f>
+        <f t="shared" ref="AF13:AZ13" si="8">AF10-AF11-AF12</f>
         <v>115</v>
       </c>
       <c r="AG13" s="1">
@@ -3233,10 +3271,14 @@
         <f t="shared" si="8"/>
         <v>214</v>
       </c>
+      <c r="AZ13" s="1">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3378,10 +3420,13 @@
       <c r="AY14" s="1">
         <v>11.0</v>
       </c>
+      <c r="AZ14" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3521,10 +3566,13 @@
       <c r="AY15" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ15" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3664,10 +3712,13 @@
       <c r="AY16" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ16" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3778,7 +3829,7 @@
         <v>11.0</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" ref="AN17:AY17" si="10">AN14-AN15-AN16</f>
+        <f t="shared" ref="AN17:AZ17" si="10">AN14-AN15-AN16</f>
         <v>11</v>
       </c>
       <c r="AO17" s="1">
@@ -3825,10 +3876,14 @@
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
+      <c r="AZ17" s="1">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3984,10 +4039,13 @@
       <c r="AY18" s="1">
         <v>263.0</v>
       </c>
+      <c r="AZ18" s="1">
+        <v>270.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4127,10 +4185,13 @@
       <c r="AY19" s="1">
         <v>4.0</v>
       </c>
+      <c r="AZ19" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4270,10 +4331,13 @@
       <c r="AY20" s="1">
         <v>11.0</v>
       </c>
+      <c r="AZ20" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4376,7 +4440,7 @@
         <v>104.0</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" ref="AJ21:AY21" si="13">AJ18-AJ19-AJ20</f>
+        <f t="shared" ref="AJ21:AZ21" si="13">AJ18-AJ19-AJ20</f>
         <v>108</v>
       </c>
       <c r="AK21" s="1">
@@ -4439,10 +4503,14 @@
         <f t="shared" si="13"/>
         <v>248</v>
       </c>
+      <c r="AZ21" s="1">
+        <f t="shared" si="13"/>
+        <v>255</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4587,10 +4655,13 @@
       <c r="AY22" s="1">
         <v>148.0</v>
       </c>
+      <c r="AZ22" s="1">
+        <v>165.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -4730,10 +4801,13 @@
       <c r="AY23" s="1">
         <v>1.0</v>
       </c>
+      <c r="AZ23" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -4873,10 +4947,13 @@
       <c r="AY24" s="1">
         <v>6.0</v>
       </c>
+      <c r="AZ24" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -4986,7 +5063,7 @@
         <v>33.0</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" ref="AN25:AY25" si="15">AN22-AN23-AN24</f>
+        <f t="shared" ref="AN25:AZ25" si="15">AN22-AN23-AN24</f>
         <v>39</v>
       </c>
       <c r="AO25" s="1">
@@ -5033,10 +5110,14 @@
         <f t="shared" si="15"/>
         <v>141</v>
       </c>
+      <c r="AZ25" s="1">
+        <f t="shared" si="15"/>
+        <v>158</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5177,10 +5258,13 @@
       <c r="AY26" s="1">
         <v>225.0</v>
       </c>
+      <c r="AZ26" s="1">
+        <v>230.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5310,10 +5394,13 @@
       <c r="AY27" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ27" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5443,10 +5530,13 @@
       <c r="AY28" s="1">
         <v>2.0</v>
       </c>
+      <c r="AZ28" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5539,7 +5629,7 @@
         <v>186.0</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" ref="AL29:AY29" si="17">AL26-AL27-AL28</f>
+        <f t="shared" ref="AL29:AZ29" si="17">AL26-AL27-AL28</f>
         <v>188</v>
       </c>
       <c r="AM29" s="1">
@@ -5594,10 +5684,14 @@
         <f t="shared" si="17"/>
         <v>223</v>
       </c>
+      <c r="AZ29" s="1">
+        <f t="shared" si="17"/>
+        <v>228</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5733,10 +5827,13 @@
       <c r="AY30" s="1">
         <v>124.0</v>
       </c>
+      <c r="AZ30" s="1">
+        <v>124.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5864,10 +5961,13 @@
       <c r="AY31" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ31" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5995,10 +6095,13 @@
       <c r="AY32" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ32" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6103,7 +6206,7 @@
         <v>91.0</v>
       </c>
       <c r="AP33" s="1">
-        <f t="shared" ref="AP33:AY33" si="19">AP30-AP31-AP32</f>
+        <f t="shared" ref="AP33:AZ33" si="19">AP30-AP31-AP32</f>
         <v>95</v>
       </c>
       <c r="AQ33" s="1">
@@ -6142,10 +6245,14 @@
         <f t="shared" si="19"/>
         <v>124</v>
       </c>
+      <c r="AZ33" s="1">
+        <f t="shared" si="19"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6271,10 +6378,13 @@
       <c r="AY34" s="1">
         <v>5.0</v>
       </c>
+      <c r="AZ34" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6398,10 +6508,13 @@
       <c r="AY35" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ35" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6525,10 +6638,13 @@
       <c r="AY36" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ36" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -6635,7 +6751,7 @@
         <v>5.0</v>
       </c>
       <c r="AR37" s="1">
-        <f t="shared" ref="AR37:AY37" si="21">AR34-AR35-AR36</f>
+        <f t="shared" ref="AR37:AZ37" si="21">AR34-AR35-AR36</f>
         <v>5</v>
       </c>
       <c r="AS37" s="1">
@@ -6666,10 +6782,14 @@
         <f t="shared" si="21"/>
         <v>5</v>
       </c>
+      <c r="AZ37" s="1">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -6793,10 +6913,13 @@
       <c r="AY38" s="1">
         <v>3.0</v>
       </c>
+      <c r="AZ38" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -6920,10 +7043,13 @@
       <c r="AY39" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ39" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -7047,10 +7173,13 @@
       <c r="AY40" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ40" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -7144,7 +7273,7 @@
         <v>3.0</v>
       </c>
       <c r="AN41" s="1">
-        <f t="shared" ref="AN41:AY41" si="23">AN38-AN39-AN40</f>
+        <f t="shared" ref="AN41:AZ41" si="23">AN38-AN39-AN40</f>
         <v>3</v>
       </c>
       <c r="AO41" s="1">
@@ -7191,10 +7320,14 @@
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
+      <c r="AZ41" s="1">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -7318,6 +7451,9 @@
       <c r="AY42" s="1">
         <v>22.0</v>
       </c>
+      <c r="AZ42" s="1">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -7445,6 +7581,9 @@
       <c r="AY43" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ43" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -7572,6 +7711,9 @@
       <c r="AY44" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ44" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -7683,7 +7825,7 @@
         <v>21.0</v>
       </c>
       <c r="AR45" s="1">
-        <f t="shared" ref="AR45:AY45" si="26">AR42-AR43-AR44</f>
+        <f t="shared" ref="AR45:AZ45" si="26">AR42-AR43-AR44</f>
         <v>21</v>
       </c>
       <c r="AS45" s="1">
@@ -7711,6 +7853,10 @@
         <v>22</v>
       </c>
       <c r="AY45" s="1">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="AZ45" s="1">
         <f t="shared" si="26"/>
         <v>22</v>
       </c>
@@ -7837,6 +7983,9 @@
       <c r="AY46" s="1">
         <v>34.0</v>
       </c>
+      <c r="AZ46" s="1">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
@@ -7958,6 +8107,9 @@
       <c r="AY47" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ47" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -8079,6 +8231,9 @@
       <c r="AY48" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ48" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -8185,7 +8340,7 @@
         <v>31.0</v>
       </c>
       <c r="AR49" s="1">
-        <f t="shared" ref="AR49:AY49" si="29">AR46-AR47-AR48</f>
+        <f t="shared" ref="AR49:AZ49" si="29">AR46-AR47-AR48</f>
         <v>32</v>
       </c>
       <c r="AS49" s="1">
@@ -8213,6 +8368,10 @@
         <v>34</v>
       </c>
       <c r="AY49" s="1">
+        <f t="shared" si="29"/>
+        <v>34</v>
+      </c>
+      <c r="AZ49" s="1">
         <f t="shared" si="29"/>
         <v>34</v>
       </c>
@@ -8337,6 +8496,9 @@
       <c r="AY50" s="1">
         <v>12.0</v>
       </c>
+      <c r="AZ50" s="1">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -8458,6 +8620,9 @@
       <c r="AY51" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ51" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -8579,6 +8744,9 @@
       <c r="AY52" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ52" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -8684,7 +8852,7 @@
         <v>12.0</v>
       </c>
       <c r="AR53" s="1">
-        <f t="shared" ref="AR53:AY53" si="31">AR50-AR51-AR52</f>
+        <f t="shared" ref="AR53:AZ53" si="31">AR50-AR51-AR52</f>
         <v>12</v>
       </c>
       <c r="AS53" s="1">
@@ -8712,6 +8880,10 @@
         <v>12</v>
       </c>
       <c r="AY53" s="1">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="AZ53" s="1">
         <f t="shared" si="31"/>
         <v>12</v>
       </c>
@@ -8836,6 +9008,9 @@
       <c r="AY54" s="1">
         <v>102.0</v>
       </c>
+      <c r="AZ54" s="1">
+        <v>103.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -8957,6 +9132,9 @@
       <c r="AY55" s="1">
         <v>1.0</v>
       </c>
+      <c r="AZ55" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -9076,6 +9254,9 @@
         <v>3.0</v>
       </c>
       <c r="AY56" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AZ56" s="1">
         <v>3.0</v>
       </c>
     </row>
@@ -9185,7 +9366,7 @@
         <v>84.0</v>
       </c>
       <c r="AR57" s="1">
-        <f t="shared" ref="AR57:AY57" si="35">AR54-AR55-AR56</f>
+        <f t="shared" ref="AR57:AZ57" si="35">AR54-AR55-AR56</f>
         <v>86</v>
       </c>
       <c r="AS57" s="1">
@@ -9215,6 +9396,10 @@
       <c r="AY57" s="1">
         <f t="shared" si="35"/>
         <v>98</v>
+      </c>
+      <c r="AZ57" s="1">
+        <f t="shared" si="35"/>
+        <v>99</v>
       </c>
     </row>
     <row r="58">
@@ -9336,6 +9521,9 @@
       <c r="AY58" s="1">
         <v>73.0</v>
       </c>
+      <c r="AZ58" s="1">
+        <v>74.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -9455,6 +9643,9 @@
       <c r="AY59" s="1">
         <v>1.0</v>
       </c>
+      <c r="AZ59" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
@@ -9572,6 +9763,9 @@
         <v>9.0</v>
       </c>
       <c r="AY60" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AZ60" s="1">
         <v>9.0</v>
       </c>
     </row>
@@ -9678,7 +9872,7 @@
         <v>53.0</v>
       </c>
       <c r="AR61" s="1">
-        <f t="shared" ref="AR61:AY61" si="39">AR58-AR59-AR60</f>
+        <f t="shared" ref="AR61:AZ61" si="39">AR58-AR59-AR60</f>
         <v>56</v>
       </c>
       <c r="AS61" s="1">
@@ -9708,6 +9902,10 @@
       <c r="AY61" s="1">
         <f t="shared" si="39"/>
         <v>63</v>
+      </c>
+      <c r="AZ61" s="1">
+        <f t="shared" si="39"/>
+        <v>64</v>
       </c>
     </row>
     <row r="62">
@@ -9832,6 +10030,9 @@
       <c r="AY62" s="1">
         <v>31.0</v>
       </c>
+      <c r="AZ62" s="1">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
@@ -9955,6 +10156,9 @@
       <c r="AY63" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ63" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -10078,6 +10282,9 @@
       <c r="AY64" s="1">
         <v>3.0</v>
       </c>
+      <c r="AZ64" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -10186,7 +10393,7 @@
         <v>27.0</v>
       </c>
       <c r="AR65" s="1">
-        <f t="shared" ref="AR65:AY65" si="43">AR62-AR63-AR64</f>
+        <f t="shared" ref="AR65:AZ65" si="43">AR62-AR63-AR64</f>
         <v>27</v>
       </c>
       <c r="AS65" s="1">
@@ -10216,6 +10423,10 @@
       <c r="AY65" s="1">
         <f t="shared" si="43"/>
         <v>28</v>
+      </c>
+      <c r="AZ65" s="1">
+        <f t="shared" si="43"/>
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -10345,6 +10556,9 @@
       <c r="AY66" s="1">
         <v>41.0</v>
       </c>
+      <c r="AZ66" s="1">
+        <v>41.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -10472,6 +10686,9 @@
       <c r="AY67" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ67" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -10599,6 +10816,9 @@
       <c r="AY68" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ68" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
@@ -10708,7 +10928,7 @@
         <v>40.0</v>
       </c>
       <c r="AR69" s="1">
-        <f t="shared" ref="AR69:AY69" si="45">AR66-AR67-AR68</f>
+        <f t="shared" ref="AR69:AZ69" si="45">AR66-AR67-AR68</f>
         <v>40</v>
       </c>
       <c r="AS69" s="1">
@@ -10736,6 +10956,10 @@
         <v>41</v>
       </c>
       <c r="AY69" s="1">
+        <f t="shared" si="45"/>
+        <v>41</v>
+      </c>
+      <c r="AZ69" s="1">
         <f t="shared" si="45"/>
         <v>41</v>
       </c>
@@ -10792,6 +11016,9 @@
       <c r="AY70" s="1">
         <v>2.0</v>
       </c>
+      <c r="AZ70" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
@@ -10845,6 +11072,9 @@
       <c r="AY71" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ71" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
@@ -10898,6 +11128,9 @@
       <c r="AY72" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ72" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
@@ -10934,7 +11167,7 @@
         <v>1.0</v>
       </c>
       <c r="AT73" s="1">
-        <f t="shared" ref="AT73:AY73" si="46">AT70-AT71-AT72</f>
+        <f t="shared" ref="AT73:AZ73" si="46">AT70-AT71-AT72</f>
         <v>2</v>
       </c>
       <c r="AU73" s="1">
@@ -10954,6 +11187,10 @@
         <v>2</v>
       </c>
       <c r="AY73" s="1">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="AZ73" s="1">
         <f t="shared" si="46"/>
         <v>2</v>
       </c>
@@ -11074,6 +11311,9 @@
       <c r="AY74" s="1">
         <v>5.0</v>
       </c>
+      <c r="AZ74" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
@@ -11191,6 +11431,9 @@
       <c r="AY75" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ75" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
@@ -11308,6 +11551,9 @@
       <c r="AY76" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ76" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
@@ -11407,7 +11653,7 @@
         <v>3.0</v>
       </c>
       <c r="AR77" s="1">
-        <f t="shared" ref="AR77:AY77" si="48">AR74-AR75-AR76</f>
+        <f t="shared" ref="AR77:AZ77" si="48">AR74-AR75-AR76</f>
         <v>3</v>
       </c>
       <c r="AS77" s="1">
@@ -11435,6 +11681,10 @@
         <v>5</v>
       </c>
       <c r="AY77" s="1">
+        <f t="shared" si="48"/>
+        <v>5</v>
+      </c>
+      <c r="AZ77" s="1">
         <f t="shared" si="48"/>
         <v>5</v>
       </c>
@@ -11797,6 +12047,9 @@
       <c r="AY86" s="1">
         <v>40.0</v>
       </c>
+      <c r="AZ86" s="1">
+        <v>45.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
@@ -11900,6 +12153,9 @@
       <c r="AY87" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ87" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
@@ -12001,6 +12257,9 @@
         <v>3.0</v>
       </c>
       <c r="AY88" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="AZ88" s="1">
         <v>5.0</v>
       </c>
     </row>
@@ -12088,7 +12347,7 @@
         <v>21.0</v>
       </c>
       <c r="AR89" s="1">
-        <f t="shared" ref="AR89:AY89" si="50">AR86-AR87-AR88</f>
+        <f t="shared" ref="AR89:AZ89" si="50">AR86-AR87-AR88</f>
         <v>27</v>
       </c>
       <c r="AS89" s="1">
@@ -12118,6 +12377,10 @@
       <c r="AY89" s="1">
         <f t="shared" si="50"/>
         <v>35</v>
+      </c>
+      <c r="AZ89" s="1">
+        <f t="shared" si="50"/>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
@@ -12222,6 +12485,9 @@
       <c r="AY90" s="1">
         <v>2.0</v>
       </c>
+      <c r="AZ90" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
@@ -12325,6 +12591,9 @@
       <c r="AY91" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ91" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
@@ -12426,6 +12695,9 @@
         <v>0.0</v>
       </c>
       <c r="AY92" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="AZ92" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -12511,7 +12783,7 @@
         <v>2.0</v>
       </c>
       <c r="AR93" s="1">
-        <f t="shared" ref="AR93:AY93" si="51">AR90-AR91-AR92</f>
+        <f t="shared" ref="AR93:AZ93" si="51">AR90-AR91-AR92</f>
         <v>2</v>
       </c>
       <c r="AS93" s="1">
@@ -12539,6 +12811,10 @@
         <v>2</v>
       </c>
       <c r="AY93" s="1">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+      <c r="AZ93" s="1">
         <f t="shared" si="51"/>
         <v>2</v>
       </c>
@@ -12655,6 +12931,9 @@
       <c r="AY94" s="1">
         <v>5.0</v>
       </c>
+      <c r="AZ94" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
@@ -12768,6 +13047,9 @@
       <c r="AY95" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ95" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
@@ -12881,6 +13163,9 @@
       <c r="AY96" s="1">
         <v>0.0</v>
       </c>
+      <c r="AZ96" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
@@ -12976,7 +13261,7 @@
         <v>5.0</v>
       </c>
       <c r="AR97" s="1">
-        <f t="shared" ref="AR97:AY97" si="53">AR94-AR95-AR96</f>
+        <f t="shared" ref="AR97:AZ97" si="53">AR94-AR95-AR96</f>
         <v>5</v>
       </c>
       <c r="AS97" s="1">
@@ -13007,367 +13292,378 @@
         <f t="shared" si="53"/>
         <v>5</v>
       </c>
+      <c r="AZ97" s="1">
+        <f t="shared" si="53"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="2">
-        <f t="shared" ref="B98:AY98" si="54">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
+      <c r="B98" s="4">
+        <f t="shared" ref="B98:AZ98" si="54">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
         <v>1</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="4">
         <f t="shared" si="54"/>
         <v>1</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="4">
         <f t="shared" si="54"/>
         <v>2</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="4">
         <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="4">
         <f t="shared" si="54"/>
         <v>9</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="4">
         <f t="shared" si="54"/>
         <v>12</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="4">
         <f t="shared" si="54"/>
         <v>17</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="4">
         <f t="shared" si="54"/>
         <v>19</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="4">
         <f t="shared" si="54"/>
         <v>21</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="4">
         <f t="shared" si="54"/>
         <v>31</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L98" s="4">
         <f t="shared" si="54"/>
         <v>34</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98" s="4">
         <f t="shared" si="54"/>
         <v>45</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N98" s="4">
         <f t="shared" si="54"/>
         <v>56</v>
       </c>
-      <c r="O98" s="2">
+      <c r="O98" s="4">
         <f t="shared" si="54"/>
         <v>65</v>
       </c>
-      <c r="P98" s="2">
+      <c r="P98" s="4">
         <f t="shared" si="54"/>
         <v>79</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q98" s="4">
         <f t="shared" si="54"/>
         <v>97</v>
       </c>
-      <c r="R98" s="2">
+      <c r="R98" s="4">
         <f t="shared" si="54"/>
         <v>128</v>
       </c>
-      <c r="S98" s="2">
+      <c r="S98" s="4">
         <f t="shared" si="54"/>
         <v>158</v>
       </c>
-      <c r="T98" s="2">
+      <c r="T98" s="4">
         <f t="shared" si="54"/>
         <v>225</v>
       </c>
-      <c r="U98" s="2">
+      <c r="U98" s="4">
         <f t="shared" si="54"/>
         <v>266</v>
       </c>
-      <c r="V98" s="2">
+      <c r="V98" s="4">
         <f t="shared" si="54"/>
         <v>301</v>
       </c>
-      <c r="W98" s="2">
+      <c r="W98" s="4">
         <f t="shared" si="54"/>
         <v>387</v>
       </c>
-      <c r="X98" s="2">
+      <c r="X98" s="4">
         <f t="shared" si="54"/>
         <v>502</v>
       </c>
-      <c r="Y98" s="2">
+      <c r="Y98" s="4">
         <f t="shared" si="54"/>
         <v>589</v>
       </c>
-      <c r="Z98" s="2">
+      <c r="Z98" s="4">
         <f t="shared" si="54"/>
         <v>690</v>
       </c>
-      <c r="AA98" s="2">
+      <c r="AA98" s="4">
         <f t="shared" si="54"/>
         <v>745</v>
       </c>
-      <c r="AB98" s="2">
+      <c r="AB98" s="4">
         <f t="shared" si="54"/>
         <v>820</v>
       </c>
-      <c r="AC98" s="2">
+      <c r="AC98" s="4">
         <f t="shared" si="54"/>
         <v>966</v>
       </c>
-      <c r="AD98" s="2">
+      <c r="AD98" s="4">
         <f t="shared" si="54"/>
         <v>1054</v>
       </c>
-      <c r="AE98" s="2">
+      <c r="AE98" s="4">
         <f t="shared" si="54"/>
         <v>1133</v>
       </c>
-      <c r="AF98" s="2">
+      <c r="AF98" s="4">
         <f t="shared" si="54"/>
         <v>1265</v>
       </c>
-      <c r="AG98" s="2">
+      <c r="AG98" s="4">
         <f t="shared" si="54"/>
         <v>1353</v>
       </c>
-      <c r="AH98" s="2">
+      <c r="AH98" s="4">
         <f t="shared" si="54"/>
         <v>1451</v>
       </c>
-      <c r="AI98" s="2">
+      <c r="AI98" s="4">
         <f t="shared" si="54"/>
         <v>1554</v>
       </c>
-      <c r="AJ98" s="2">
+      <c r="AJ98" s="4">
         <f t="shared" si="54"/>
         <v>1628</v>
       </c>
-      <c r="AK98" s="2">
+      <c r="AK98" s="4">
         <f t="shared" si="54"/>
         <v>1715</v>
       </c>
-      <c r="AL98" s="2">
+      <c r="AL98" s="4">
         <f t="shared" si="54"/>
         <v>1795</v>
       </c>
-      <c r="AM98" s="2">
+      <c r="AM98" s="4">
         <f t="shared" si="54"/>
         <v>1894</v>
       </c>
-      <c r="AN98" s="2">
+      <c r="AN98" s="4">
         <f t="shared" si="54"/>
         <v>1975</v>
       </c>
-      <c r="AO98" s="2">
+      <c r="AO98" s="4">
         <f t="shared" si="54"/>
         <v>2142</v>
       </c>
-      <c r="AP98" s="2">
+      <c r="AP98" s="4">
         <f t="shared" si="54"/>
         <v>2208</v>
       </c>
-      <c r="AQ98" s="2">
+      <c r="AQ98" s="4">
         <f t="shared" si="54"/>
         <v>2277</v>
       </c>
-      <c r="AR98" s="2">
+      <c r="AR98" s="4">
         <f t="shared" si="54"/>
         <v>2443</v>
       </c>
-      <c r="AS98" s="2">
+      <c r="AS98" s="4">
         <f t="shared" si="54"/>
         <v>2571</v>
       </c>
-      <c r="AT98" s="2">
+      <c r="AT98" s="4">
         <f t="shared" si="54"/>
         <v>2669</v>
       </c>
-      <c r="AU98" s="2">
+      <c r="AU98" s="4">
         <f t="shared" si="54"/>
         <v>2758</v>
       </c>
-      <c r="AV98" s="2">
+      <c r="AV98" s="4">
         <f t="shared" si="54"/>
         <v>2839</v>
       </c>
-      <c r="AW98" s="2">
+      <c r="AW98" s="4">
         <f t="shared" si="54"/>
         <v>2941</v>
       </c>
-      <c r="AX98" s="2">
+      <c r="AX98" s="4">
         <f t="shared" si="54"/>
         <v>3031</v>
       </c>
-      <c r="AY98" s="2">
+      <c r="AY98" s="4">
         <f t="shared" si="54"/>
         <v>3144</v>
       </c>
+      <c r="AZ98" s="4">
+        <f t="shared" si="54"/>
+        <v>3288</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="2">
+      <c r="B99" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D99" s="4">
         <v>2.0</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="4">
         <v>8.0</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="4">
         <v>9.0</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="4">
         <v>12.0</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="4">
         <v>17.0</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="4">
         <v>19.0</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="4">
         <v>21.0</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="4">
         <v>31.0</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="4">
         <v>34.0</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M99" s="4">
         <v>45.0</v>
       </c>
-      <c r="N99" s="2">
+      <c r="N99" s="4">
         <v>56.0</v>
       </c>
-      <c r="O99" s="2">
+      <c r="O99" s="4">
         <v>65.0</v>
       </c>
-      <c r="P99" s="2">
+      <c r="P99" s="4">
         <v>79.0</v>
       </c>
-      <c r="Q99" s="2">
+      <c r="Q99" s="4">
         <v>97.0</v>
       </c>
-      <c r="R99" s="2">
+      <c r="R99" s="4">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="S99" s="2">
+      <c r="S99" s="4">
         <v>158.0</v>
       </c>
-      <c r="T99" s="2">
+      <c r="T99" s="4">
         <v>225.0</v>
       </c>
-      <c r="U99" s="2">
+      <c r="U99" s="4">
         <v>266.0</v>
       </c>
-      <c r="V99" s="2">
+      <c r="V99" s="4">
         <v>301.0</v>
       </c>
-      <c r="W99" s="2">
+      <c r="W99" s="4">
         <v>387.0</v>
       </c>
-      <c r="X99" s="2">
+      <c r="X99" s="4">
         <v>502.0</v>
       </c>
-      <c r="Y99" s="2">
+      <c r="Y99" s="4">
         <v>589.0</v>
       </c>
-      <c r="Z99" s="2">
+      <c r="Z99" s="4">
         <v>690.0</v>
       </c>
-      <c r="AA99" s="2">
+      <c r="AA99" s="4">
         <v>745.0</v>
       </c>
-      <c r="AB99" s="2">
+      <c r="AB99" s="4">
         <v>820.0</v>
       </c>
-      <c r="AC99" s="2">
+      <c r="AC99" s="4">
         <v>966.0</v>
       </c>
-      <c r="AD99" s="2">
+      <c r="AD99" s="4">
         <v>1054.0</v>
       </c>
-      <c r="AE99" s="2">
+      <c r="AE99" s="4">
         <v>1133.0</v>
       </c>
-      <c r="AF99" s="2">
+      <c r="AF99" s="4">
         <v>1265.0</v>
       </c>
-      <c r="AG99" s="2">
+      <c r="AG99" s="4">
         <v>1353.0</v>
       </c>
-      <c r="AH99" s="2">
+      <c r="AH99" s="4">
         <v>1451.0</v>
       </c>
-      <c r="AI99" s="2">
+      <c r="AI99" s="4">
         <f>103+AH99</f>
         <v>1554</v>
       </c>
-      <c r="AJ99" s="2">
+      <c r="AJ99" s="4">
         <v>1628.0</v>
       </c>
-      <c r="AK99" s="2">
+      <c r="AK99" s="4">
         <v>1715.0</v>
       </c>
-      <c r="AL99" s="2">
+      <c r="AL99" s="4">
         <v>1795.0</v>
       </c>
-      <c r="AM99" s="2">
+      <c r="AM99" s="4">
         <v>1894.0</v>
       </c>
-      <c r="AN99" s="2">
+      <c r="AN99" s="4">
         <v>1975.0</v>
       </c>
-      <c r="AO99" s="2">
+      <c r="AO99" s="4">
         <v>2142.0</v>
       </c>
-      <c r="AP99" s="2">
+      <c r="AP99" s="4">
         <v>2208.0</v>
       </c>
-      <c r="AQ99" s="2">
+      <c r="AQ99" s="4">
         <v>2277.0</v>
       </c>
-      <c r="AR99" s="2">
+      <c r="AR99" s="4">
         <v>2443.0</v>
       </c>
-      <c r="AS99" s="2">
+      <c r="AS99" s="4">
         <v>2571.0</v>
       </c>
-      <c r="AT99" s="2">
+      <c r="AT99" s="4">
         <v>2669.0</v>
       </c>
-      <c r="AU99" s="2">
+      <c r="AU99" s="4">
         <v>2758.0</v>
       </c>
-      <c r="AV99" s="2">
+      <c r="AV99" s="4">
         <v>2839.0</v>
       </c>
-      <c r="AW99" s="2">
+      <c r="AW99" s="4">
         <v>2941.0</v>
       </c>
-      <c r="AX99" s="2">
+      <c r="AX99" s="4">
         <v>3031.0</v>
       </c>
-      <c r="AY99" s="2">
+      <c r="AY99" s="4">
         <v>3144.0</v>
+      </c>
+      <c r="AZ99" s="4">
+        <v>3288.0</v>
       </c>
     </row>
     <row r="100">
@@ -13376,7 +13672,7 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:AY100" si="55">C99/B99-1</f>
+        <f t="shared" ref="C100:AZ100" si="55">C99/B99-1</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
@@ -13570,6 +13866,10 @@
       <c r="AY100" s="1">
         <f t="shared" si="55"/>
         <v>0.03728142527</v>
+      </c>
+      <c r="AZ100" s="1">
+        <f t="shared" si="55"/>
+        <v>0.04580152672</v>
       </c>
     </row>
     <row r="101">
@@ -13653,6 +13953,7 @@
       </c>
       <c r="AX101" s="22"/>
       <c r="AY101" s="22"/>
+      <c r="AZ101" s="22"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
@@ -18568,55 +18869,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -18662,7 +18963,7 @@
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C3" s="8">
         <v>59.0</v>
@@ -18711,7 +19012,7 @@
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B4" s="15">
         <v>470.0</v>
@@ -18802,18 +19103,18 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="18" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D10" s="15">
         <v>470.0</v>
@@ -18821,7 +19122,7 @@
     </row>
     <row r="11">
       <c r="A11" s="18" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8">
         <v>59.0</v>
@@ -18832,7 +19133,7 @@
     </row>
     <row r="12">
       <c r="A12" s="18" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8">
         <v>45.0</v>
@@ -18843,7 +19144,7 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8">
         <v>0.21176470588235294</v>
@@ -18860,7 +19161,7 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8">
         <v>0.1781609195402299</v>
@@ -18877,7 +19178,7 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="B15" s="8">
         <v>0.15228426395939088</v>
@@ -18894,7 +19195,7 @@
     </row>
     <row r="16">
       <c r="A16" s="18" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8">
         <v>0.3004484304932735</v>
@@ -18911,7 +19212,7 @@
     </row>
     <row r="17">
       <c r="A17" s="18" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8">
         <v>0.1443661971830986</v>
@@ -18928,7 +19229,7 @@
     </row>
     <row r="18">
       <c r="A18" s="18" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8">
         <v>0.16129032258064516</v>
@@ -18945,7 +19246,7 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B19" s="8">
         <v>1.0</v>
@@ -18962,7 +19263,7 @@
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B20" s="8">
         <v>0.18914473684210525</v>
@@ -18979,7 +19280,7 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B21" s="8">
         <v>0.21804511278195488</v>
@@ -18996,7 +19297,7 @@
     </row>
     <row r="22">
       <c r="A22" s="18" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B22" s="8">
         <f t="shared" ref="B22:B24" si="3">F22/C22</f>
@@ -19014,7 +19315,7 @@
     </row>
     <row r="23">
       <c r="A23" s="18" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B23" s="8">
         <f t="shared" si="3"/>
@@ -19033,7 +19334,7 @@
     </row>
     <row r="24">
       <c r="A24" s="18" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="3"/>
@@ -19052,7 +19353,7 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1">
         <v>175.0</v>
@@ -19078,23 +19379,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>43903.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>34.0</v>
       </c>
       <c r="C2" s="7">
@@ -19107,10 +19408,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43904.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>45.0</v>
       </c>
       <c r="C3" s="7">
@@ -19123,10 +19424,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>43905.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>56.0</v>
       </c>
       <c r="C4" s="7">
@@ -19139,10 +19440,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>43906.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>65.0</v>
       </c>
       <c r="C5" s="7">
@@ -19155,10 +19456,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>43907.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>79.0</v>
       </c>
       <c r="C6" s="7">
@@ -19171,10 +19472,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>43908.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>97.0</v>
       </c>
       <c r="C7" s="7">
@@ -19187,7 +19488,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>43909.0</v>
       </c>
       <c r="B8" s="9">
@@ -19204,10 +19505,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43910.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>158.0</v>
       </c>
       <c r="C9" s="7">
@@ -19220,10 +19521,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>43911.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>225.0</v>
       </c>
       <c r="C10" s="7">
@@ -19236,10 +19537,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>43912.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>266.0</v>
       </c>
       <c r="C11" s="7">
@@ -19252,10 +19553,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>43913.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>301.0</v>
       </c>
       <c r="C12" s="7">
@@ -19268,10 +19569,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>43914.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>387.0</v>
       </c>
       <c r="C13" s="7">
@@ -19284,10 +19585,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>43915.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>502.0</v>
       </c>
       <c r="C14" s="7">
@@ -19300,10 +19601,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>43916.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>589.0</v>
       </c>
       <c r="C15" s="7">
@@ -19312,7 +19613,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>43917.0</v>
       </c>
       <c r="B16" s="9">
@@ -19328,7 +19629,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -19341,7 +19642,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="2"/>
+      <c r="C26" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19360,10 +19661,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J1" s="15">
         <v>1.0</v>
@@ -19383,12 +19684,12 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/databases/cases.xlsx
+++ b/databases/cases.xlsx
@@ -18,13 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="153">
   <si>
-    <t>Provicia \ día</t>
+    <t>Fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">CABA Casos Confirmados </t>
-  </si>
-  <si>
-    <t>Fecha</t>
+    <t>Provicia \ día</t>
   </si>
   <si>
     <t>Confirmados</t>
@@ -36,46 +33,16 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>total MSE</t>
+    <t xml:space="preserve">CABA Casos Confirmados </t>
   </si>
   <si>
-    <t xml:space="preserve">CABA Casos Recuperados </t>
-  </si>
-  <si>
-    <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABA Casos Muertos </t>
-  </si>
-  <si>
-    <t>CABA Casos Activos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As Casos Confirmados </t>
-  </si>
-  <si>
-    <t>20202281585415264161</t>
-  </si>
-  <si>
-    <t>ZaBlfONzILttXxum</t>
-  </si>
-  <si>
-    <t>HTMF</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As  Casos Recuperados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bs As  Casos Muertos </t>
+    <t>total MSE</t>
   </si>
   <si>
     <t>03/15</t>
   </si>
   <si>
-    <t>Bs As  Casos Activos</t>
+    <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
   </si>
   <si>
     <t>03/16</t>
@@ -127,6 +94,39 @@
   </si>
   <si>
     <t>Tests acumulativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABA Casos Recuperados </t>
+  </si>
+  <si>
+    <t>20202281585415264161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABA Casos Muertos </t>
+  </si>
+  <si>
+    <t>ZaBlfONzILttXxum</t>
+  </si>
+  <si>
+    <t>HTMF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CABA Casos Activos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As Casos Confirmados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As  Casos Recuperados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bs As  Casos Muertos </t>
+  </si>
+  <si>
+    <t>Bs As  Casos Activos</t>
   </si>
   <si>
     <t xml:space="preserve">Córdoba Casos Confirmados </t>
@@ -482,10 +482,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="dd/mm"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
+    <numFmt numFmtId="166" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
@@ -561,14 +561,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -577,31 +573,35 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -654,11 +654,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="338085295"/>
-        <c:axId val="1782800887"/>
+        <c:axId val="614788022"/>
+        <c:axId val="320837246"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338085295"/>
+        <c:axId val="614788022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,10 +700,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1782800887"/>
+        <c:crossAx val="320837246"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1782800887"/>
+        <c:axId val="320837246"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338085295"/>
+        <c:crossAx val="614788022"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1099,191 +1099,191 @@
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6">
         <v>43893.0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="8">
         <f t="shared" ref="C1:U1" si="1">B1+1</f>
         <v>43894</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="6">
         <f t="shared" si="1"/>
         <v>43895</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="6">
         <f t="shared" si="1"/>
         <v>43896</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="6">
         <f t="shared" si="1"/>
         <v>43897</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="6">
         <f t="shared" si="1"/>
         <v>43898</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="6">
         <f t="shared" si="1"/>
         <v>43899</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="6">
         <f t="shared" si="1"/>
         <v>43900</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="6">
         <f t="shared" si="1"/>
         <v>43901</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="6">
         <f t="shared" si="1"/>
         <v>43902</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="6">
         <f t="shared" si="1"/>
         <v>43903</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="6">
         <f t="shared" si="1"/>
         <v>43904</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="6">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="6">
         <f t="shared" si="1"/>
         <v>43906</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="6">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="6">
         <f t="shared" si="1"/>
         <v>43908</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="6">
         <f t="shared" si="1"/>
         <v>43909</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="6">
         <f t="shared" si="1"/>
         <v>43910</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="6">
         <f t="shared" si="1"/>
         <v>43911</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="6">
         <f t="shared" si="1"/>
         <v>43912</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="6">
         <v>43913.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="6">
         <f>V1+1</f>
         <v>43914</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="6">
         <v>43915.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="6">
         <v>43916.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="6">
         <f t="shared" ref="Z1:AE1" si="2">Y1+1</f>
         <v>43917</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="6">
         <f t="shared" si="2"/>
         <v>43918</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="6">
         <f t="shared" si="2"/>
         <v>43919</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="6">
         <f t="shared" si="2"/>
         <v>43920</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="6">
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="6">
         <f t="shared" si="2"/>
         <v>43922</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="6">
         <v>43923.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="6">
         <v>43924.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="6">
         <v>43925.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="6">
         <v>43926.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="6">
         <v>43927.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="6">
         <v>43928.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="6">
         <v>43929.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="6">
         <v>43930.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="6">
         <v>43931.0</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="6">
         <v>43932.0</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="6">
         <v>43933.0</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="6">
         <v>43934.0</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="6">
         <v>43935.0</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="6">
         <v>43936.0</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="6">
         <v>43937.0</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="6">
         <v>43938.0</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="6">
         <v>43939.0</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="6">
         <v>43940.0</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="6">
         <v>43941.0</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="6">
         <v>43942.0</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="6">
         <v>43943.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -1370,30 +1370,30 @@
         <f>AA2+13</f>
         <v>258</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="7">
         <f>AB2+34</f>
         <v>292</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="7">
         <f>19+AC2</f>
         <v>311</v>
       </c>
       <c r="AE2" s="1">
         <v>321.0</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="7">
         <f>AE2+24</f>
         <v>345</v>
       </c>
-      <c r="AG2" s="8">
+      <c r="AG2" s="7">
         <f>AF2+28</f>
         <v>373</v>
       </c>
-      <c r="AH2" s="8">
+      <c r="AH2" s="7">
         <f>34+AG2</f>
         <v>407</v>
       </c>
-      <c r="AI2" s="8">
+      <c r="AI2" s="7">
         <f>32+AH2</f>
         <v>439</v>
       </c>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
@@ -1545,25 +1545,25 @@
       <c r="AB3" s="1">
         <v>53.0</v>
       </c>
-      <c r="AC3" s="8">
+      <c r="AC3" s="7">
         <v>53.0</v>
       </c>
-      <c r="AD3" s="8">
+      <c r="AD3" s="7">
         <v>53.0</v>
       </c>
       <c r="AE3" s="1">
         <v>53.0</v>
       </c>
-      <c r="AF3" s="8">
+      <c r="AF3" s="7">
         <v>53.0</v>
       </c>
-      <c r="AG3" s="8">
+      <c r="AG3" s="7">
         <v>53.0</v>
       </c>
-      <c r="AH3" s="8">
+      <c r="AH3" s="7">
         <v>53.0</v>
       </c>
-      <c r="AI3" s="8">
+      <c r="AI3" s="7">
         <v>53.0</v>
       </c>
       <c r="AJ3" s="1">
@@ -1620,7 +1620,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -1703,25 +1703,25 @@
       <c r="AB4" s="1">
         <v>8.0</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="7">
         <v>8.0</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AD4" s="7">
         <v>8.0</v>
       </c>
       <c r="AE4" s="1">
         <v>9.0</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AF4" s="7">
         <v>9.0</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AG4" s="7">
         <v>9.0</v>
       </c>
-      <c r="AH4" s="8">
+      <c r="AH4" s="7">
         <v>9.0</v>
       </c>
-      <c r="AI4" s="8">
+      <c r="AI4" s="7">
         <v>10.0</v>
       </c>
       <c r="AJ4" s="1">
@@ -1778,7 +1778,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1">
         <v>1.0</v>
@@ -1867,11 +1867,11 @@
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <f t="shared" si="4"/>
         <v>231</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="7">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
@@ -1879,19 +1879,19 @@
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="7">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="7">
         <f t="shared" si="4"/>
         <v>311</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="7">
         <f t="shared" si="4"/>
         <v>345</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="7">
         <f t="shared" si="4"/>
         <v>376</v>
       </c>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2049,30 +2049,30 @@
         <f>AA6+16</f>
         <v>217</v>
       </c>
-      <c r="AC6" s="8">
+      <c r="AC6" s="7">
         <f>AB6+36</f>
         <v>253</v>
       </c>
-      <c r="AD6" s="8">
+      <c r="AD6" s="7">
         <f>17+AC6</f>
         <v>270</v>
       </c>
       <c r="AE6" s="1">
         <v>280.0</v>
       </c>
-      <c r="AF6" s="8">
+      <c r="AF6" s="7">
         <f>AE6+36</f>
         <v>316</v>
       </c>
-      <c r="AG6" s="8">
+      <c r="AG6" s="7">
         <f>AF6+22</f>
         <v>338</v>
       </c>
-      <c r="AH6" s="8">
+      <c r="AH6" s="7">
         <f>AG6+26</f>
         <v>364</v>
       </c>
-      <c r="AI6" s="8">
+      <c r="AI6" s="7">
         <f>33+AH6</f>
         <v>397</v>
       </c>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2411,7 +2411,7 @@
       <c r="AO8" s="1">
         <v>36.0</v>
       </c>
-      <c r="AP8" s="17">
+      <c r="AP8" s="18">
         <v>40.0</v>
       </c>
       <c r="AQ8" s="1">
@@ -2447,7 +2447,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2558,11 +2558,11 @@
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="7">
         <f t="shared" si="6"/>
         <v>375</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AK9" s="7">
         <f t="shared" si="6"/>
         <v>405</v>
       </c>
@@ -2711,22 +2711,22 @@
         <f>AA10+18</f>
         <v>73</v>
       </c>
-      <c r="AC10" s="8">
+      <c r="AC10" s="7">
         <f>AB10+8</f>
         <v>81</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AD10" s="7">
         <f>AC10+14</f>
         <v>95</v>
       </c>
       <c r="AE10" s="1">
         <v>101.0</v>
       </c>
-      <c r="AF10" s="8">
+      <c r="AF10" s="7">
         <f>AE10+16</f>
         <v>117</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AG10" s="7">
         <f>AF10+14</f>
         <v>131</v>
       </c>
@@ -5183,18 +5183,18 @@
         <f>AA26+13</f>
         <v>90</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AC26" s="7">
         <f>AB26+21</f>
         <v>111</v>
       </c>
-      <c r="AD26" s="8">
+      <c r="AD26" s="7">
         <f>AC26+22</f>
         <v>133</v>
       </c>
       <c r="AE26" s="1">
         <v>144.0</v>
       </c>
-      <c r="AF26" s="8">
+      <c r="AF26" s="7">
         <f>8+AE26</f>
         <v>152</v>
       </c>
@@ -5754,7 +5754,7 @@
         <f>AA30+4</f>
         <v>21</v>
       </c>
-      <c r="AC30" s="8">
+      <c r="AC30" s="7">
         <f>AB30+11</f>
         <v>32</v>
       </c>
@@ -5764,7 +5764,7 @@
       <c r="AE30" s="1">
         <v>39.0</v>
       </c>
-      <c r="AF30" s="8">
+      <c r="AF30" s="7">
         <f>24+AE30</f>
         <v>63</v>
       </c>
@@ -6317,7 +6317,7 @@
       <c r="AE34" s="1">
         <v>3.0</v>
       </c>
-      <c r="AF34" s="8">
+      <c r="AF34" s="7">
         <f>2+AE34</f>
         <v>5</v>
       </c>
@@ -7921,7 +7921,7 @@
       <c r="AE46" s="1">
         <v>21.0</v>
       </c>
-      <c r="AF46" s="8">
+      <c r="AF46" s="7">
         <f>AE46+1</f>
         <v>22</v>
       </c>
@@ -13298,371 +13298,371 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="2">
         <f t="shared" ref="B98:AZ98" si="54">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
         <v>1</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="2">
         <f t="shared" si="54"/>
         <v>1</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="2">
         <f t="shared" si="54"/>
         <v>2</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="2">
         <f t="shared" si="54"/>
         <v>8</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="2">
         <f t="shared" si="54"/>
         <v>9</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="2">
         <f t="shared" si="54"/>
         <v>12</v>
       </c>
-      <c r="H98" s="4">
+      <c r="H98" s="2">
         <f t="shared" si="54"/>
         <v>17</v>
       </c>
-      <c r="I98" s="4">
+      <c r="I98" s="2">
         <f t="shared" si="54"/>
         <v>19</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="2">
         <f t="shared" si="54"/>
         <v>21</v>
       </c>
-      <c r="K98" s="4">
+      <c r="K98" s="2">
         <f t="shared" si="54"/>
         <v>31</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="2">
         <f t="shared" si="54"/>
         <v>34</v>
       </c>
-      <c r="M98" s="4">
+      <c r="M98" s="2">
         <f t="shared" si="54"/>
         <v>45</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N98" s="2">
         <f t="shared" si="54"/>
         <v>56</v>
       </c>
-      <c r="O98" s="4">
+      <c r="O98" s="2">
         <f t="shared" si="54"/>
         <v>65</v>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="2">
         <f t="shared" si="54"/>
         <v>79</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="Q98" s="2">
         <f t="shared" si="54"/>
         <v>97</v>
       </c>
-      <c r="R98" s="4">
+      <c r="R98" s="2">
         <f t="shared" si="54"/>
         <v>128</v>
       </c>
-      <c r="S98" s="4">
+      <c r="S98" s="2">
         <f t="shared" si="54"/>
         <v>158</v>
       </c>
-      <c r="T98" s="4">
+      <c r="T98" s="2">
         <f t="shared" si="54"/>
         <v>225</v>
       </c>
-      <c r="U98" s="4">
+      <c r="U98" s="2">
         <f t="shared" si="54"/>
         <v>266</v>
       </c>
-      <c r="V98" s="4">
+      <c r="V98" s="2">
         <f t="shared" si="54"/>
         <v>301</v>
       </c>
-      <c r="W98" s="4">
+      <c r="W98" s="2">
         <f t="shared" si="54"/>
         <v>387</v>
       </c>
-      <c r="X98" s="4">
+      <c r="X98" s="2">
         <f t="shared" si="54"/>
         <v>502</v>
       </c>
-      <c r="Y98" s="4">
+      <c r="Y98" s="2">
         <f t="shared" si="54"/>
         <v>589</v>
       </c>
-      <c r="Z98" s="4">
+      <c r="Z98" s="2">
         <f t="shared" si="54"/>
         <v>690</v>
       </c>
-      <c r="AA98" s="4">
+      <c r="AA98" s="2">
         <f t="shared" si="54"/>
         <v>745</v>
       </c>
-      <c r="AB98" s="4">
+      <c r="AB98" s="2">
         <f t="shared" si="54"/>
         <v>820</v>
       </c>
-      <c r="AC98" s="4">
+      <c r="AC98" s="2">
         <f t="shared" si="54"/>
         <v>966</v>
       </c>
-      <c r="AD98" s="4">
+      <c r="AD98" s="2">
         <f t="shared" si="54"/>
         <v>1054</v>
       </c>
-      <c r="AE98" s="4">
+      <c r="AE98" s="2">
         <f t="shared" si="54"/>
         <v>1133</v>
       </c>
-      <c r="AF98" s="4">
+      <c r="AF98" s="2">
         <f t="shared" si="54"/>
         <v>1265</v>
       </c>
-      <c r="AG98" s="4">
+      <c r="AG98" s="2">
         <f t="shared" si="54"/>
         <v>1353</v>
       </c>
-      <c r="AH98" s="4">
+      <c r="AH98" s="2">
         <f t="shared" si="54"/>
         <v>1451</v>
       </c>
-      <c r="AI98" s="4">
+      <c r="AI98" s="2">
         <f t="shared" si="54"/>
         <v>1554</v>
       </c>
-      <c r="AJ98" s="4">
+      <c r="AJ98" s="2">
         <f t="shared" si="54"/>
         <v>1628</v>
       </c>
-      <c r="AK98" s="4">
+      <c r="AK98" s="2">
         <f t="shared" si="54"/>
         <v>1715</v>
       </c>
-      <c r="AL98" s="4">
+      <c r="AL98" s="2">
         <f t="shared" si="54"/>
         <v>1795</v>
       </c>
-      <c r="AM98" s="4">
+      <c r="AM98" s="2">
         <f t="shared" si="54"/>
         <v>1894</v>
       </c>
-      <c r="AN98" s="4">
+      <c r="AN98" s="2">
         <f t="shared" si="54"/>
         <v>1975</v>
       </c>
-      <c r="AO98" s="4">
+      <c r="AO98" s="2">
         <f t="shared" si="54"/>
         <v>2142</v>
       </c>
-      <c r="AP98" s="4">
+      <c r="AP98" s="2">
         <f t="shared" si="54"/>
         <v>2208</v>
       </c>
-      <c r="AQ98" s="4">
+      <c r="AQ98" s="2">
         <f t="shared" si="54"/>
         <v>2277</v>
       </c>
-      <c r="AR98" s="4">
+      <c r="AR98" s="2">
         <f t="shared" si="54"/>
         <v>2443</v>
       </c>
-      <c r="AS98" s="4">
+      <c r="AS98" s="2">
         <f t="shared" si="54"/>
         <v>2571</v>
       </c>
-      <c r="AT98" s="4">
+      <c r="AT98" s="2">
         <f t="shared" si="54"/>
         <v>2669</v>
       </c>
-      <c r="AU98" s="4">
+      <c r="AU98" s="2">
         <f t="shared" si="54"/>
         <v>2758</v>
       </c>
-      <c r="AV98" s="4">
+      <c r="AV98" s="2">
         <f t="shared" si="54"/>
         <v>2839</v>
       </c>
-      <c r="AW98" s="4">
+      <c r="AW98" s="2">
         <f t="shared" si="54"/>
         <v>2941</v>
       </c>
-      <c r="AX98" s="4">
+      <c r="AX98" s="2">
         <f t="shared" si="54"/>
         <v>3031</v>
       </c>
-      <c r="AY98" s="4">
+      <c r="AY98" s="2">
         <f t="shared" si="54"/>
         <v>3144</v>
       </c>
-      <c r="AZ98" s="4">
+      <c r="AZ98" s="2">
         <f t="shared" si="54"/>
         <v>3288</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D99" s="4">
+      <c r="B99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D99" s="2">
         <v>2.0</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="2">
         <v>8.0</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="2">
         <v>9.0</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G99" s="2">
         <v>12.0</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H99" s="2">
         <v>17.0</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I99" s="2">
         <v>19.0</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="2">
         <v>21.0</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K99" s="2">
         <v>31.0</v>
       </c>
-      <c r="L99" s="4">
+      <c r="L99" s="2">
         <v>34.0</v>
       </c>
-      <c r="M99" s="4">
+      <c r="M99" s="2">
         <v>45.0</v>
       </c>
-      <c r="N99" s="4">
+      <c r="N99" s="2">
         <v>56.0</v>
       </c>
-      <c r="O99" s="4">
+      <c r="O99" s="2">
         <v>65.0</v>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="2">
         <v>79.0</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="Q99" s="2">
         <v>97.0</v>
       </c>
-      <c r="R99" s="4">
+      <c r="R99" s="2">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="S99" s="4">
+      <c r="S99" s="2">
         <v>158.0</v>
       </c>
-      <c r="T99" s="4">
+      <c r="T99" s="2">
         <v>225.0</v>
       </c>
-      <c r="U99" s="4">
+      <c r="U99" s="2">
         <v>266.0</v>
       </c>
-      <c r="V99" s="4">
+      <c r="V99" s="2">
         <v>301.0</v>
       </c>
-      <c r="W99" s="4">
+      <c r="W99" s="2">
         <v>387.0</v>
       </c>
-      <c r="X99" s="4">
+      <c r="X99" s="2">
         <v>502.0</v>
       </c>
-      <c r="Y99" s="4">
+      <c r="Y99" s="2">
         <v>589.0</v>
       </c>
-      <c r="Z99" s="4">
+      <c r="Z99" s="2">
         <v>690.0</v>
       </c>
-      <c r="AA99" s="4">
+      <c r="AA99" s="2">
         <v>745.0</v>
       </c>
-      <c r="AB99" s="4">
+      <c r="AB99" s="2">
         <v>820.0</v>
       </c>
-      <c r="AC99" s="4">
+      <c r="AC99" s="2">
         <v>966.0</v>
       </c>
-      <c r="AD99" s="4">
+      <c r="AD99" s="2">
         <v>1054.0</v>
       </c>
-      <c r="AE99" s="4">
+      <c r="AE99" s="2">
         <v>1133.0</v>
       </c>
-      <c r="AF99" s="4">
+      <c r="AF99" s="2">
         <v>1265.0</v>
       </c>
-      <c r="AG99" s="4">
+      <c r="AG99" s="2">
         <v>1353.0</v>
       </c>
-      <c r="AH99" s="4">
+      <c r="AH99" s="2">
         <v>1451.0</v>
       </c>
-      <c r="AI99" s="4">
+      <c r="AI99" s="2">
         <f>103+AH99</f>
         <v>1554</v>
       </c>
-      <c r="AJ99" s="4">
+      <c r="AJ99" s="2">
         <v>1628.0</v>
       </c>
-      <c r="AK99" s="4">
+      <c r="AK99" s="2">
         <v>1715.0</v>
       </c>
-      <c r="AL99" s="4">
+      <c r="AL99" s="2">
         <v>1795.0</v>
       </c>
-      <c r="AM99" s="4">
+      <c r="AM99" s="2">
         <v>1894.0</v>
       </c>
-      <c r="AN99" s="4">
+      <c r="AN99" s="2">
         <v>1975.0</v>
       </c>
-      <c r="AO99" s="4">
+      <c r="AO99" s="2">
         <v>2142.0</v>
       </c>
-      <c r="AP99" s="4">
+      <c r="AP99" s="2">
         <v>2208.0</v>
       </c>
-      <c r="AQ99" s="4">
+      <c r="AQ99" s="2">
         <v>2277.0</v>
       </c>
-      <c r="AR99" s="4">
+      <c r="AR99" s="2">
         <v>2443.0</v>
       </c>
-      <c r="AS99" s="4">
+      <c r="AS99" s="2">
         <v>2571.0</v>
       </c>
-      <c r="AT99" s="4">
+      <c r="AT99" s="2">
         <v>2669.0</v>
       </c>
-      <c r="AU99" s="4">
+      <c r="AU99" s="2">
         <v>2758.0</v>
       </c>
-      <c r="AV99" s="4">
+      <c r="AV99" s="2">
         <v>2839.0</v>
       </c>
-      <c r="AW99" s="4">
+      <c r="AW99" s="2">
         <v>2941.0</v>
       </c>
-      <c r="AX99" s="4">
+      <c r="AX99" s="2">
         <v>3031.0</v>
       </c>
-      <c r="AY99" s="4">
+      <c r="AY99" s="2">
         <v>3144.0</v>
       </c>
-      <c r="AZ99" s="4">
+      <c r="AZ99" s="2">
         <v>3288.0</v>
       </c>
     </row>
@@ -13996,7 +13996,7 @@
       <c r="A105" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="7">
         <f>U99/B99-1</f>
         <v>265</v>
       </c>
@@ -18869,150 +18869,150 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="M1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="O1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="P1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="Q1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="2">
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>0.21176470588235294</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0.1781609195402299</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>0.15228426395939088</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>0.3004484304932735</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>0.1443661971830986</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>0.16129032258064516</v>
       </c>
-      <c r="K2" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="L2" s="7">
         <v>0.18914473684210525</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>0.21804511278195488</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <f t="shared" ref="N2:P2" si="1">N6/N3</f>
         <v>0.153030303</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <f t="shared" si="1"/>
         <v>0.1214128035</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <f t="shared" si="1"/>
         <v>0.1704545455</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="8">
+        <v>24</v>
+      </c>
+      <c r="C3" s="7">
         <v>59.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>45.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>85.0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>174.0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>197.0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>223.0</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>284.0</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>217.0</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>86.0</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>608.0</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <v>399.0</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <v>660.0</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f t="shared" ref="O3:P3" si="2">O4-N4</f>
         <v>453</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B4" s="15">
         <v>470.0</v>
@@ -19061,37 +19061,37 @@
       </c>
     </row>
     <row r="6">
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>18.0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>31.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>30.0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>67.0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>41.0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>35.0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>86.0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>115.0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>87.0</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>101.0</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>55.0</v>
       </c>
       <c r="P6" s="1">
@@ -19103,28 +19103,28 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>18</v>
+      <c r="A10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="15">
         <v>470.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="A11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
         <v>59.0</v>
       </c>
       <c r="D11" s="15">
@@ -19132,10 +19132,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="8">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <v>45.0</v>
       </c>
       <c r="D12" s="15">
@@ -19143,204 +19143,204 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="A13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
         <v>0.21176470588235294</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>85.0</v>
       </c>
       <c r="D13" s="15">
         <v>659.0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>18.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.1781609195402299</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="7">
         <v>174.0</v>
       </c>
       <c r="D14" s="15">
         <v>833.0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>31.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
         <v>0.15228426395939088</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>197.0</v>
       </c>
       <c r="D15" s="15">
         <v>1030.0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>30.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7">
         <v>0.3004484304932735</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>223.0</v>
       </c>
       <c r="D16" s="15">
         <v>1253.0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>67.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7">
         <v>0.1443661971830986</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>284.0</v>
       </c>
       <c r="D17" s="15">
         <v>1537.0</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>41.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
         <v>0.16129032258064516</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>217.0</v>
       </c>
       <c r="D18" s="15">
         <v>1754.0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>35.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="7">
         <v>86.0</v>
       </c>
       <c r="D19" s="15">
         <v>1840.0</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>86.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7">
         <v>0.18914473684210525</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="7">
         <v>608.0</v>
       </c>
       <c r="D20" s="15">
         <v>2448.0</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>115.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7">
         <v>0.21804511278195488</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="7">
         <v>399.0</v>
       </c>
       <c r="D21" s="15">
         <v>2847.0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>87.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7">
         <f t="shared" ref="B22:B24" si="3">F22/C22</f>
         <v>0.153030303</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <v>660.0</v>
       </c>
       <c r="D22" s="15">
         <v>3507.0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>101.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="A23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="7">
         <f t="shared" si="3"/>
         <v>0.1214128035</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <f t="shared" ref="C23:C24" si="4">D23-D22</f>
         <v>453</v>
       </c>
       <c r="D23" s="1">
         <v>3960.0</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>55.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="A24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7">
         <f t="shared" si="3"/>
         <v>0.1704545455</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
@@ -19352,8 +19352,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="s">
-        <v>34</v>
+      <c r="A25" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="F25" s="1">
         <v>175.0</v>
@@ -19379,247 +19379,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>43903.0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>34.0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <f>31*C$19</f>
         <v>38.316</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f t="shared" ref="D2:D14" si="1">(C2-B2)*(C2-B2)</f>
         <v>18.627856</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>43904.0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>45.0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:C16" si="2">C2*C$19</f>
         <v>47.358576</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f t="shared" si="1"/>
         <v>5.562880748</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>43905.0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>56.0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <f t="shared" si="2"/>
         <v>58.53519994</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f t="shared" si="1"/>
         <v>6.427238715</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>43906.0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>65.0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <f t="shared" si="2"/>
         <v>72.34950712</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
         <v>54.01525492</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>43907.0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>79.0</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <f t="shared" si="2"/>
         <v>89.4239908</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
         <v>108.6595842</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>43908.0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>97.0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <f t="shared" si="2"/>
         <v>110.5280526</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
         <v>183.008208</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>43909.0</v>
       </c>
       <c r="B8" s="9">
         <f>97+31</f>
         <v>128</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <f t="shared" si="2"/>
         <v>136.6126731</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
         <v>74.17813709</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>43910.0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>158.0</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <f t="shared" si="2"/>
         <v>168.8532639</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>117.7933371</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>43911.0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>225.0</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <f t="shared" si="2"/>
         <v>208.7026342</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>265.604133</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>43912.0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>266.0</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <f t="shared" si="2"/>
         <v>257.9564558</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>64.69860275</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>43913.0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>301.0</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <f t="shared" si="2"/>
         <v>318.8341794</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>318.0579553</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>43914.0</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>387.0</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <f t="shared" si="2"/>
         <v>394.0790458</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>50.11288876</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>43915.0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>502.0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <f t="shared" si="2"/>
         <v>487.0817005</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>222.5556585</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>43916.0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>589.0</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <f t="shared" si="2"/>
         <v>602.0329819</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>43917.0</v>
       </c>
       <c r="B16" s="9">
         <v>690.0</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <f t="shared" si="2"/>
         <v>744.1127656</v>
       </c>
@@ -19628,21 +19628,21 @@
       <c r="B18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="12">
+      <c r="B19" s="13">
         <f>SUM(D2:D14)</f>
         <v>1489.301735</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="14">
         <v>1.236</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="4"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -19660,36 +19660,36 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>13</v>
+      <c r="A1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="J1" s="15">
         <v>1.0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="str">
+      <c r="A2" s="7" t="str">
         <f>Min(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <f>MSE!B19</f>
         <v>1489.301735</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>14</v>
+      <c r="A4" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>15</v>
+      <c r="A6" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/databases/cases.xlsx
+++ b/databases/cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="188">
   <si>
     <t>Fecha</t>
   </si>
@@ -36,16 +36,7 @@
     <t xml:space="preserve">CABA Casos Confirmados </t>
   </si>
   <si>
-    <t>total MSE</t>
-  </si>
-  <si>
-    <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
-  </si>
-  <si>
     <t>03/15</t>
-  </si>
-  <si>
-    <t>20202281585415264161</t>
   </si>
   <si>
     <t>03/16</t>
@@ -67,9 +58,6 @@
   </si>
   <si>
     <t>03/22</t>
-  </si>
-  <si>
-    <t>ZaBlfONzILttXxum</t>
   </si>
   <si>
     <t>03/23</t>
@@ -96,19 +84,19 @@
     <t>03/30</t>
   </si>
   <si>
-    <t>Tests realizados</t>
+    <t>total MSE</t>
   </si>
   <si>
-    <t xml:space="preserve">CABA Casos Recuperados </t>
+    <t>Tasa por minimización del MSE (mean squared error) entre 13/03 y 25/3</t>
+  </si>
+  <si>
+    <t>Tests realizados</t>
   </si>
   <si>
     <t>Tests acumulativos</t>
   </si>
   <si>
-    <t>HTMF</t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">CABA Casos Recuperados </t>
   </si>
   <si>
     <t xml:space="preserve">CABA Casos Muertos </t>
@@ -117,7 +105,19 @@
     <t>CABA Casos Activos</t>
   </si>
   <si>
+    <t>20202281585415264161</t>
+  </si>
+  <si>
+    <t>ZaBlfONzILttXxum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bs As Casos Confirmados </t>
+  </si>
+  <si>
+    <t>HTMF</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">Bs As  Casos Recuperados </t>
@@ -578,16 +578,19 @@
   <si>
     <t>http://www.salud.mendoza.gov.ar/</t>
   </si>
+  <si>
+    <t>http://www.prensa.mendoza.gov.ar/coronavirus-comunicado-del-ministerio-de-salud-desarrollo-social-y-deportes-de-mendoza-41/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
-    <numFmt numFmtId="167" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="d&quot;/&quot;mm&quot;/&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="7">
@@ -678,25 +681,28 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -704,17 +710,14 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -781,11 +784,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1781442228"/>
-        <c:axId val="1569705856"/>
+        <c:axId val="1527700728"/>
+        <c:axId val="722399115"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1781442228"/>
+        <c:axId val="1527700728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,6 +816,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -827,10 +833,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1569705856"/>
+        <c:crossAx val="722399115"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1569705856"/>
+        <c:axId val="722399115"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,11 +885,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -899,7 +905,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1781442228"/>
+        <c:crossAx val="1527700728"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1221,203 +1227,206 @@
     <col customWidth="1" min="29" max="30" width="6.29"/>
     <col customWidth="1" min="31" max="31" width="7.29"/>
     <col customWidth="1" min="32" max="36" width="6.0"/>
-    <col customWidth="1" min="37" max="56" width="5.86"/>
+    <col customWidth="1" min="37" max="57" width="5.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="4">
         <v>43893.0</v>
       </c>
       <c r="C1" s="8">
         <f t="shared" ref="C1:U1" si="1">B1+1</f>
         <v>43894</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <f t="shared" si="1"/>
         <v>43895</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <f t="shared" si="1"/>
         <v>43896</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="4">
         <f t="shared" si="1"/>
         <v>43897</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="4">
         <f t="shared" si="1"/>
         <v>43898</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="4">
         <f t="shared" si="1"/>
         <v>43899</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="4">
         <f t="shared" si="1"/>
         <v>43900</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="4">
         <f t="shared" si="1"/>
         <v>43901</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="4">
         <f t="shared" si="1"/>
         <v>43902</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="4">
         <f t="shared" si="1"/>
         <v>43903</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <f t="shared" si="1"/>
         <v>43904</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="4">
         <f t="shared" si="1"/>
         <v>43905</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <f t="shared" si="1"/>
         <v>43906</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="4">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="4">
         <f t="shared" si="1"/>
         <v>43908</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="4">
         <f t="shared" si="1"/>
         <v>43909</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="4">
         <f t="shared" si="1"/>
         <v>43910</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="4">
         <f t="shared" si="1"/>
         <v>43911</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="4">
         <f t="shared" si="1"/>
         <v>43912</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="4">
         <v>43913.0</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="4">
         <f>V1+1</f>
         <v>43914</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="4">
         <v>43915.0</v>
       </c>
-      <c r="Y1" s="6">
+      <c r="Y1" s="4">
         <v>43916.0</v>
       </c>
-      <c r="Z1" s="6">
+      <c r="Z1" s="4">
         <f t="shared" ref="Z1:AE1" si="2">Y1+1</f>
         <v>43917</v>
       </c>
-      <c r="AA1" s="6">
+      <c r="AA1" s="4">
         <f t="shared" si="2"/>
         <v>43918</v>
       </c>
-      <c r="AB1" s="6">
+      <c r="AB1" s="4">
         <f t="shared" si="2"/>
         <v>43919</v>
       </c>
-      <c r="AC1" s="6">
+      <c r="AC1" s="4">
         <f t="shared" si="2"/>
         <v>43920</v>
       </c>
-      <c r="AD1" s="6">
+      <c r="AD1" s="4">
         <f t="shared" si="2"/>
         <v>43921</v>
       </c>
-      <c r="AE1" s="6">
+      <c r="AE1" s="4">
         <f t="shared" si="2"/>
         <v>43922</v>
       </c>
-      <c r="AF1" s="6">
+      <c r="AF1" s="4">
         <v>43923.0</v>
       </c>
-      <c r="AG1" s="6">
+      <c r="AG1" s="4">
         <v>43924.0</v>
       </c>
-      <c r="AH1" s="6">
+      <c r="AH1" s="4">
         <v>43925.0</v>
       </c>
-      <c r="AI1" s="6">
+      <c r="AI1" s="4">
         <v>43926.0</v>
       </c>
-      <c r="AJ1" s="6">
+      <c r="AJ1" s="4">
         <v>43927.0</v>
       </c>
-      <c r="AK1" s="6">
+      <c r="AK1" s="4">
         <v>43928.0</v>
       </c>
-      <c r="AL1" s="6">
+      <c r="AL1" s="4">
         <v>43929.0</v>
       </c>
-      <c r="AM1" s="6">
+      <c r="AM1" s="4">
         <v>43930.0</v>
       </c>
-      <c r="AN1" s="6">
+      <c r="AN1" s="4">
         <v>43931.0</v>
       </c>
-      <c r="AO1" s="6">
+      <c r="AO1" s="4">
         <v>43932.0</v>
       </c>
-      <c r="AP1" s="6">
+      <c r="AP1" s="4">
         <v>43933.0</v>
       </c>
-      <c r="AQ1" s="6">
+      <c r="AQ1" s="4">
         <v>43934.0</v>
       </c>
-      <c r="AR1" s="6">
+      <c r="AR1" s="4">
         <v>43935.0</v>
       </c>
-      <c r="AS1" s="6">
+      <c r="AS1" s="4">
         <v>43936.0</v>
       </c>
-      <c r="AT1" s="6">
+      <c r="AT1" s="4">
         <v>43937.0</v>
       </c>
-      <c r="AU1" s="6">
+      <c r="AU1" s="4">
         <v>43938.0</v>
       </c>
-      <c r="AV1" s="6">
+      <c r="AV1" s="4">
         <v>43939.0</v>
       </c>
-      <c r="AW1" s="6">
+      <c r="AW1" s="4">
         <v>43940.0</v>
       </c>
-      <c r="AX1" s="6">
+      <c r="AX1" s="4">
         <v>43941.0</v>
       </c>
-      <c r="AY1" s="6">
+      <c r="AY1" s="4">
         <v>43942.0</v>
       </c>
-      <c r="AZ1" s="6">
+      <c r="AZ1" s="4">
         <v>43943.0</v>
       </c>
-      <c r="BA1" s="6">
+      <c r="BA1" s="4">
         <v>43944.0</v>
       </c>
-      <c r="BB1" s="6">
+      <c r="BB1" s="4">
         <v>43945.0</v>
       </c>
-      <c r="BC1" s="6">
+      <c r="BC1" s="4">
         <v>43946.0</v>
       </c>
-      <c r="BD1" s="6">
+      <c r="BD1" s="4">
         <v>43947.0</v>
+      </c>
+      <c r="BE1" s="4">
+        <v>43948.0</v>
       </c>
     </row>
     <row r="2">
@@ -1610,10 +1619,13 @@
       <c r="BD2" s="1">
         <v>1007.0</v>
       </c>
+      <c r="BE2" s="1">
+        <v>1039.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
@@ -1780,10 +1792,13 @@
       <c r="BD3" s="1">
         <v>451.0</v>
       </c>
+      <c r="BE3" s="1">
+        <v>454.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -1950,13 +1965,16 @@
       <c r="BD4" s="1">
         <v>60.0</v>
       </c>
+      <c r="BE4" s="1">
+        <v>62.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" ref="B5:BD5" si="4">B2-B3-B4</f>
+        <f t="shared" ref="B5:BE5" si="4">B2-B3-B4</f>
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -2175,10 +2193,14 @@
         <f t="shared" si="4"/>
         <v>496</v>
       </c>
+      <c r="BE5" s="1">
+        <f t="shared" si="4"/>
+        <v>523</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2360,6 +2382,9 @@
       <c r="BD6" s="1">
         <v>1331.0</v>
       </c>
+      <c r="BE6" s="1">
+        <v>1381.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -2526,6 +2551,9 @@
       <c r="BD7" s="1">
         <v>168.0</v>
       </c>
+      <c r="BE7" s="1">
+        <v>168.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -2692,6 +2720,9 @@
       <c r="BD8" s="1">
         <v>76.0</v>
       </c>
+      <c r="BE8" s="1">
+        <v>77.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -2700,7 +2731,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:BD9" si="6">D6-D7-D8</f>
+        <f t="shared" ref="D9:BE9" si="6">D6-D7-D8</f>
         <v>1</v>
       </c>
       <c r="E9" s="1">
@@ -2910,6 +2941,10 @@
       <c r="BD9" s="1">
         <f t="shared" si="6"/>
         <v>1087</v>
+      </c>
+      <c r="BE9" s="1">
+        <f t="shared" si="6"/>
+        <v>1136</v>
       </c>
     </row>
     <row r="10">
@@ -3090,6 +3125,9 @@
       <c r="BD10" s="1">
         <v>273.0</v>
       </c>
+      <c r="BE10" s="1">
+        <v>273.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
@@ -3254,6 +3292,9 @@
       <c r="BD11" s="20">
         <v>87.0</v>
       </c>
+      <c r="BE11" s="20">
+        <v>87.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -3418,6 +3459,9 @@
       <c r="BD12" s="1">
         <v>12.0</v>
       </c>
+      <c r="BE12" s="1">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -3427,7 +3471,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:BD13" si="7">E10-E11-E12</f>
+        <f t="shared" ref="E13:BE13" si="7">E10-E11-E12</f>
         <v>1</v>
       </c>
       <c r="F13" s="1">
@@ -3633,6 +3677,10 @@
       <c r="BD13" s="1">
         <f t="shared" si="7"/>
         <v>174</v>
+      </c>
+      <c r="BE13" s="1">
+        <f t="shared" si="7"/>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -3794,6 +3842,9 @@
       <c r="BD14" s="1">
         <v>11.0</v>
       </c>
+      <c r="BE14" s="1">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -3952,6 +4003,9 @@
       <c r="BD15" s="1">
         <v>6.0</v>
       </c>
+      <c r="BE15" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -4110,6 +4164,9 @@
       <c r="BD16" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE16" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -4122,7 +4179,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
-        <f t="shared" ref="H17:BD17" si="8">H14-H15-H16</f>
+        <f t="shared" ref="H17:BE17" si="8">H14-H15-H16</f>
         <v>1</v>
       </c>
       <c r="I17" s="1">
@@ -4314,6 +4371,10 @@
         <v>5</v>
       </c>
       <c r="BD17" s="1">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BE17" s="1">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
@@ -4491,6 +4552,9 @@
       <c r="BD18" s="1">
         <v>297.0</v>
       </c>
+      <c r="BE18" s="1">
+        <v>307.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -4649,6 +4713,9 @@
       <c r="BD19" s="1">
         <v>60.0</v>
       </c>
+      <c r="BE19" s="1">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -4807,6 +4874,9 @@
       <c r="BD20" s="1">
         <v>12.0</v>
       </c>
+      <c r="BE20" s="1">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -4819,7 +4889,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
-        <f t="shared" ref="H21:BD21" si="10">H18-H19-H20</f>
+        <f t="shared" ref="H21:BE21" si="10">H18-H19-H20</f>
         <v>2</v>
       </c>
       <c r="I21" s="1">
@@ -5013,6 +5083,10 @@
       <c r="BD21" s="1">
         <f t="shared" si="10"/>
         <v>225</v>
+      </c>
+      <c r="BE21" s="1">
+        <f t="shared" si="10"/>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
@@ -5177,6 +5251,9 @@
       <c r="BD22" s="1">
         <v>185.0</v>
       </c>
+      <c r="BE22" s="1">
+        <v>193.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -5335,6 +5412,9 @@
       <c r="BD23" s="1">
         <v>25.0</v>
       </c>
+      <c r="BE23" s="1">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -5493,6 +5573,9 @@
       <c r="BD24" s="1">
         <v>7.0</v>
       </c>
+      <c r="BE24" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -5505,7 +5588,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
-        <f t="shared" ref="H25:BD25" si="11">H22-H23-H24</f>
+        <f t="shared" ref="H25:BE25" si="11">H22-H23-H24</f>
         <v>1</v>
       </c>
       <c r="I25" s="1">
@@ -5699,6 +5782,10 @@
       <c r="BD25" s="1">
         <f t="shared" si="11"/>
         <v>153</v>
+      </c>
+      <c r="BE25" s="1">
+        <f t="shared" si="11"/>
+        <v>161</v>
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
@@ -5859,6 +5946,9 @@
       <c r="BD26" s="1">
         <v>242.0</v>
       </c>
+      <c r="BE26" s="1">
+        <v>242.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
@@ -6007,6 +6097,9 @@
       <c r="BD27" s="20">
         <v>136.0</v>
       </c>
+      <c r="BE27" s="20">
+        <v>136.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -6155,6 +6248,9 @@
       <c r="BD28" s="1">
         <v>2.0</v>
       </c>
+      <c r="BE28" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -6172,7 +6268,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1">
-        <f t="shared" ref="M29:BD29" si="12">M26-M27-M28</f>
+        <f t="shared" ref="M29:BE29" si="12">M26-M27-M28</f>
         <v>1</v>
       </c>
       <c r="N29" s="1">
@@ -6344,6 +6440,10 @@
         <v>104</v>
       </c>
       <c r="BD29" s="1">
+        <f t="shared" si="12"/>
+        <v>104</v>
+      </c>
+      <c r="BE29" s="1">
         <f t="shared" si="12"/>
         <v>104</v>
       </c>
@@ -6501,6 +6601,9 @@
       <c r="BD30" s="1">
         <v>130.0</v>
       </c>
+      <c r="BE30" s="1">
+        <v>131.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
@@ -6647,6 +6750,9 @@
       <c r="BD31" s="20">
         <v>77.0</v>
       </c>
+      <c r="BE31" s="20">
+        <v>77.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -6793,6 +6899,9 @@
       <c r="BD32" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE32" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
@@ -6811,7 +6920,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1">
-        <f t="shared" ref="N33:BD33" si="13">N30-N31-N32</f>
+        <f t="shared" ref="N33:BE33" si="13">N30-N31-N32</f>
         <v>2</v>
       </c>
       <c r="O33" s="1">
@@ -6981,6 +7090,10 @@
       <c r="BD33" s="1">
         <f t="shared" si="13"/>
         <v>53</v>
+      </c>
+      <c r="BE33" s="1">
+        <f t="shared" si="13"/>
+        <v>54</v>
       </c>
     </row>
     <row r="34">
@@ -7126,6 +7239,9 @@
       <c r="BD34" s="1">
         <v>5.0</v>
       </c>
+      <c r="BE34" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
@@ -7268,6 +7384,9 @@
       <c r="BD35" s="20">
         <v>4.0</v>
       </c>
+      <c r="BE35" s="20">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
@@ -7410,6 +7529,9 @@
       <c r="BD36" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE36" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
@@ -7430,7 +7552,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1">
-        <f t="shared" ref="P37:BD37" si="14">P34-P35-P36</f>
+        <f t="shared" ref="P37:BE37" si="14">P34-P35-P36</f>
         <v>1</v>
       </c>
       <c r="Q37" s="1">
@@ -7590,6 +7712,10 @@
         <v>1</v>
       </c>
       <c r="BD37" s="1">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BE37" s="1">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -7735,6 +7861,9 @@
       <c r="BD38" s="1">
         <v>4.0</v>
       </c>
+      <c r="BE38" s="1">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
@@ -7877,6 +8006,9 @@
       <c r="BD39" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE39" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
@@ -8019,6 +8151,9 @@
       <c r="BD40" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE40" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -8039,7 +8174,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1">
-        <f t="shared" ref="P41:BD41" si="15">P38-P39-P40</f>
+        <f t="shared" ref="P41:BE41" si="15">P38-P39-P40</f>
         <v>1</v>
       </c>
       <c r="Q41" s="1">
@@ -8199,6 +8334,10 @@
         <v>3</v>
       </c>
       <c r="BD41" s="1">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="BE41" s="1">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
@@ -8344,6 +8483,9 @@
       <c r="BD42" s="1">
         <v>23.0</v>
       </c>
+      <c r="BE42" s="1">
+        <v>23.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -8486,6 +8628,9 @@
       <c r="BD43" s="1">
         <v>10.0</v>
       </c>
+      <c r="BE43" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -8628,6 +8773,9 @@
       <c r="BD44" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE44" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -8648,7 +8796,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1">
-        <f t="shared" ref="P45:BD45" si="16">P42-P43-P44</f>
+        <f t="shared" ref="P45:BE45" si="16">P42-P43-P44</f>
         <v>1</v>
       </c>
       <c r="Q45" s="1">
@@ -8808,6 +8956,10 @@
         <v>12</v>
       </c>
       <c r="BD45" s="1">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="BE45" s="1">
         <f t="shared" si="16"/>
         <v>13</v>
       </c>
@@ -8949,6 +9101,9 @@
       <c r="BD46" s="1">
         <v>46.0</v>
       </c>
+      <c r="BE46" s="1">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
@@ -9085,6 +9240,9 @@
       <c r="BD47" s="1">
         <v>5.0</v>
       </c>
+      <c r="BE47" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -9221,6 +9379,9 @@
       <c r="BD48" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE48" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -9244,7 +9405,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1">
-        <f t="shared" ref="S49:BD49" si="17">S46-S47-S48</f>
+        <f t="shared" ref="S49:BE49" si="17">S46-S47-S48</f>
         <v>1</v>
       </c>
       <c r="T49" s="1">
@@ -9392,6 +9553,10 @@
         <v>35</v>
       </c>
       <c r="BD49" s="1">
+        <f t="shared" si="17"/>
+        <v>41</v>
+      </c>
+      <c r="BE49" s="1">
         <f t="shared" si="17"/>
         <v>41</v>
       </c>
@@ -9531,6 +9696,9 @@
       <c r="BD50" s="1">
         <v>15.0</v>
       </c>
+      <c r="BE50" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -9667,6 +9835,9 @@
       <c r="BD51" s="1">
         <v>3.0</v>
       </c>
+      <c r="BE51" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -9803,6 +9974,9 @@
       <c r="BD52" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE52" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -9826,7 +10000,7 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1">
-        <f t="shared" ref="S53:BD53" si="18">S50-S51-S52</f>
+        <f t="shared" ref="S53:BE53" si="18">S50-S51-S52</f>
         <v>1</v>
       </c>
       <c r="T53" s="1">
@@ -9974,6 +10148,10 @@
         <v>10</v>
       </c>
       <c r="BD53" s="1">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="BE53" s="1">
         <f t="shared" si="18"/>
         <v>12</v>
       </c>
@@ -10113,6 +10291,9 @@
       <c r="BD54" s="1">
         <v>105.0</v>
       </c>
+      <c r="BE54" s="1">
+        <v>108.0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -10249,6 +10430,9 @@
       <c r="BD55" s="1">
         <v>15.0</v>
       </c>
+      <c r="BE55" s="1">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -10385,6 +10569,9 @@
       <c r="BD56" s="1">
         <v>3.0</v>
       </c>
+      <c r="BE56" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
@@ -10408,7 +10595,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1">
-        <f t="shared" ref="S57:BD57" si="19">S54-S55-S56</f>
+        <f t="shared" ref="S57:BE57" si="19">S54-S55-S56</f>
         <v>2</v>
       </c>
       <c r="T57" s="1">
@@ -10558,6 +10745,10 @@
       <c r="BD57" s="1">
         <f t="shared" si="19"/>
         <v>87</v>
+      </c>
+      <c r="BE57" s="1">
+        <f t="shared" si="19"/>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
@@ -10694,6 +10885,9 @@
       <c r="BD58" s="1">
         <v>75.0</v>
       </c>
+      <c r="BE58" s="1">
+        <v>75.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="20" t="s">
@@ -10828,6 +11022,9 @@
       <c r="BD59" s="20">
         <v>27.0</v>
       </c>
+      <c r="BE59" s="20">
+        <v>28.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
@@ -10962,6 +11159,9 @@
       <c r="BD60" s="1">
         <v>10.0</v>
       </c>
+      <c r="BE60" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
@@ -10986,7 +11186,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1">
-        <f t="shared" ref="T61:BD61" si="20">T58-T59-T60</f>
+        <f t="shared" ref="T61:BE61" si="20">T58-T59-T60</f>
         <v>5</v>
       </c>
       <c r="U61" s="1">
@@ -11132,6 +11332,10 @@
       <c r="BD61" s="1">
         <f t="shared" si="20"/>
         <v>38</v>
+      </c>
+      <c r="BE61" s="1">
+        <f t="shared" si="20"/>
+        <v>37</v>
       </c>
     </row>
     <row r="62">
@@ -11271,6 +11475,9 @@
       <c r="BD62" s="1">
         <v>35.0</v>
       </c>
+      <c r="BE62" s="1">
+        <v>35.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="20" t="s">
@@ -11409,6 +11616,9 @@
       <c r="BD63" s="20">
         <v>8.0</v>
       </c>
+      <c r="BE63" s="20">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -11547,6 +11757,9 @@
       <c r="BD64" s="1">
         <v>3.0</v>
       </c>
+      <c r="BE64" s="1">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -11569,7 +11782,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1">
-        <f t="shared" ref="R65:BD65" si="21">R62-R63-R64</f>
+        <f t="shared" ref="R65:BE65" si="21">R62-R63-R64</f>
         <v>1</v>
       </c>
       <c r="S65" s="1">
@@ -11721,6 +11934,10 @@
         <v>23</v>
       </c>
       <c r="BD65" s="1">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="BE65" s="1">
         <f t="shared" si="21"/>
         <v>24</v>
       </c>
@@ -11867,6 +12084,9 @@
       <c r="BD66" s="1">
         <v>43.0</v>
       </c>
+      <c r="BE66" s="1">
+        <v>48.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -12009,6 +12229,9 @@
       <c r="BD67" s="1">
         <v>17.0</v>
       </c>
+      <c r="BE67" s="1">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -12151,6 +12374,9 @@
       <c r="BD68" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE68" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
@@ -12174,7 +12400,7 @@
         <v>1.0</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" ref="Q69:BD69" si="22">Q66-Q67-Q68</f>
+        <f t="shared" ref="Q69:BE69" si="22">Q66-Q67-Q68</f>
         <v>1</v>
       </c>
       <c r="R69" s="1">
@@ -12332,6 +12558,10 @@
       <c r="BD69" s="1">
         <f t="shared" si="22"/>
         <v>26</v>
+      </c>
+      <c r="BE69" s="1">
+        <f t="shared" si="22"/>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -12401,6 +12631,9 @@
       <c r="BD70" s="1">
         <v>2.0</v>
       </c>
+      <c r="BE70" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
@@ -12469,6 +12702,9 @@
       <c r="BD71" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE71" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
@@ -12537,6 +12773,9 @@
       <c r="BD72" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE72" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
@@ -12570,7 +12809,7 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AS73" s="1">
-        <f t="shared" ref="AS73:BD73" si="23">AS70-AS71-AS72</f>
+        <f t="shared" ref="AS73:BE73" si="23">AS70-AS71-AS72</f>
         <v>1</v>
       </c>
       <c r="AT73" s="1">
@@ -12614,6 +12853,10 @@
         <v>2</v>
       </c>
       <c r="BD73" s="1">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="BE73" s="1">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
@@ -12749,6 +12992,9 @@
       <c r="BD74" s="1">
         <v>6.0</v>
       </c>
+      <c r="BE74" s="1">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
@@ -12881,6 +13127,9 @@
       <c r="BD75" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE75" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
@@ -13013,6 +13262,9 @@
       <c r="BD76" s="1">
         <v>1.0</v>
       </c>
+      <c r="BE76" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
@@ -13038,7 +13290,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1">
-        <f t="shared" ref="U77:BD77" si="24">U74-U75-U76</f>
+        <f t="shared" ref="U77:BE77" si="24">U74-U75-U76</f>
         <v>1</v>
       </c>
       <c r="V77" s="1">
@@ -13180,6 +13432,10 @@
       <c r="BD77" s="1">
         <f t="shared" si="24"/>
         <v>5</v>
+      </c>
+      <c r="BE77" s="1">
+        <f t="shared" si="24"/>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -13555,6 +13811,9 @@
       <c r="BD86" s="1">
         <v>50.0</v>
       </c>
+      <c r="BE86" s="1">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
@@ -13673,6 +13932,9 @@
       <c r="BD87" s="1">
         <v>2.0</v>
       </c>
+      <c r="BE87" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
@@ -13791,6 +14053,9 @@
       <c r="BD88" s="1">
         <v>6.0</v>
       </c>
+      <c r="BE88" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
@@ -13823,7 +14088,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1">
-        <f t="shared" ref="AB89:BD89" si="25">AB86-AB87-AB88</f>
+        <f t="shared" ref="AB89:BE89" si="25">AB86-AB87-AB88</f>
         <v>1</v>
       </c>
       <c r="AC89" s="1">
@@ -13935,6 +14200,10 @@
         <v>42</v>
       </c>
       <c r="BD89" s="1">
+        <f t="shared" si="25"/>
+        <v>42</v>
+      </c>
+      <c r="BE89" s="1">
         <f t="shared" si="25"/>
         <v>42</v>
       </c>
@@ -14056,6 +14325,9 @@
       <c r="BD90" s="1">
         <v>2.0</v>
       </c>
+      <c r="BE90" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
@@ -14174,6 +14446,9 @@
       <c r="BD91" s="1">
         <v>2.0</v>
       </c>
+      <c r="BE91" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
@@ -14292,6 +14567,9 @@
       <c r="BD92" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE92" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
@@ -14324,7 +14602,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1">
-        <f t="shared" ref="AB93:BD93" si="26">AB90-AB91-AB92</f>
+        <f t="shared" ref="AB93:BE93" si="26">AB90-AB91-AB92</f>
         <v>1</v>
       </c>
       <c r="AC93" s="1">
@@ -14436,6 +14714,10 @@
         <v>0</v>
       </c>
       <c r="BD93" s="1">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BE93" s="1">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -14567,6 +14849,9 @@
       <c r="BD94" s="1">
         <v>5.0</v>
       </c>
+      <c r="BE94" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
@@ -14695,6 +14980,9 @@
       <c r="BD95" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE95" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
@@ -14823,6 +15111,9 @@
       <c r="BD96" s="1">
         <v>0.0</v>
       </c>
+      <c r="BE96" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
@@ -14850,7 +15141,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="1"/>
       <c r="W97" s="1">
-        <f t="shared" ref="W97:BD97" si="27">W94-W95-W96</f>
+        <f t="shared" ref="W97:BE97" si="27">W94-W95-W96</f>
         <v>1</v>
       </c>
       <c r="X97" s="1">
@@ -14985,13 +15276,17 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="BE97" s="1">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" ref="B98:BD98" si="28">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
+        <f t="shared" ref="B98:BE98" si="28">B2+B6+B10+B14+B18+B22+B26+B30+B34+B38+B42+B46+B50+B54+B58+B62+B66+B70+B74+B78+B82+B86+B90+B94</f>
         <v>1</v>
       </c>
       <c r="C98" s="2">
@@ -15210,6 +15505,10 @@
         <f t="shared" si="28"/>
         <v>3892</v>
       </c>
+      <c r="BE98" s="2">
+        <f t="shared" si="28"/>
+        <v>4003</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
@@ -15382,6 +15681,9 @@
       <c r="BD99" s="2">
         <v>3892.0</v>
       </c>
+      <c r="BE99" s="2">
+        <v>4003.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
@@ -15389,7 +15691,7 @@
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1">
-        <f t="shared" ref="C100:BD100" si="29">C99/B99-1</f>
+        <f t="shared" ref="C100:BE100" si="29">C99/B99-1</f>
         <v>0</v>
       </c>
       <c r="D100" s="1">
@@ -15603,6 +15905,10 @@
       <c r="BD100" s="1">
         <f t="shared" si="29"/>
         <v>0.02962962963</v>
+      </c>
+      <c r="BE100" s="1">
+        <f t="shared" si="29"/>
+        <v>0.02852004111</v>
       </c>
     </row>
     <row r="101">
@@ -15691,6 +15997,7 @@
       <c r="BB101" s="25"/>
       <c r="BC101" s="25"/>
       <c r="BD101" s="25"/>
+      <c r="BE101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
@@ -15867,6 +16174,9 @@
       <c r="BD104" s="28">
         <v>1107.0</v>
       </c>
+      <c r="BE104" s="28">
+        <v>1140.0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
@@ -15875,7 +16185,7 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="K105" s="1">
-        <f t="shared" ref="K105:BD105" si="30">K104-K95-K91-K87-K83-K79-K75-K67-K63-K59-K51-K55-K47-K43-K39-K71-K3-K7-K11-K15-K19-K23-K27-K31-K35</f>
+        <f t="shared" ref="K105:BE105" si="30">K104-K95-K91-K87-K83-K79-K75-K67-K63-K59-K51-K55-K47-K43-K39-K71-K3-K7-K11-K15-K19-K23-K27-K31-K35</f>
         <v>0</v>
       </c>
       <c r="L105" s="1">
@@ -16057,6 +16367,10 @@
       <c r="BD105" s="1">
         <f t="shared" si="30"/>
         <v>4</v>
+      </c>
+      <c r="BE105" s="1">
+        <f t="shared" si="30"/>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
@@ -16464,6 +16778,9 @@
       <c r="AB162" s="27"/>
     </row>
     <row r="163">
+      <c r="A163" s="26" t="s">
+        <v>187</v>
+      </c>
       <c r="Z163" s="27"/>
       <c r="AA163" s="27"/>
       <c r="AB163" s="27"/>
@@ -21068,8 +21385,9 @@
     <hyperlink r:id="rId36" ref="A160"/>
     <hyperlink r:id="rId37" ref="A161"/>
     <hyperlink r:id="rId38" ref="A162"/>
+    <hyperlink r:id="rId39" ref="A163"/>
   </hyperlinks>
-  <drawing r:id="rId39"/>
+  <drawing r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -21090,53 +21408,53 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="P1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="Q1" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2">
@@ -21181,8 +21499,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
-        <v>26</v>
+      <c r="A3" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C3" s="9">
         <v>59.0</v>
@@ -21230,46 +21548,46 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="14">
         <v>470.0</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>529.0</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>574.0</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>659.0</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>833.0</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>1030.0</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>1253.0</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>1537.0</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>1754.0</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>1840.0</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="14">
         <v>2448.0</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <v>2847.0</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="14">
         <v>3507.0</v>
       </c>
       <c r="O4" s="1">
@@ -21324,46 +21642,46 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>28</v>
+      <c r="C9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="14">
         <v>470.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>10</v>
+      <c r="A11" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="9">
         <v>59.0</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <v>529.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="15" t="s">
-        <v>11</v>
+      <c r="A12" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="9">
         <v>45.0</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>574.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>12</v>
+      <c r="A13" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="9">
         <v>0.21176470588235294</v>
@@ -21371,7 +21689,7 @@
       <c r="C13" s="9">
         <v>85.0</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>659.0</v>
       </c>
       <c r="F13" s="9">
@@ -21379,8 +21697,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="s">
-        <v>13</v>
+      <c r="A14" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="9">
         <v>0.1781609195402299</v>
@@ -21388,7 +21706,7 @@
       <c r="C14" s="9">
         <v>174.0</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>833.0</v>
       </c>
       <c r="F14" s="9">
@@ -21396,8 +21714,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
-        <v>14</v>
+      <c r="A15" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="9">
         <v>0.15228426395939088</v>
@@ -21405,7 +21723,7 @@
       <c r="C15" s="9">
         <v>197.0</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>1030.0</v>
       </c>
       <c r="F15" s="9">
@@ -21413,8 +21731,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="s">
-        <v>15</v>
+      <c r="A16" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="9">
         <v>0.3004484304932735</v>
@@ -21422,7 +21740,7 @@
       <c r="C16" s="9">
         <v>223.0</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>1253.0</v>
       </c>
       <c r="F16" s="9">
@@ -21430,8 +21748,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="s">
-        <v>16</v>
+      <c r="A17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="B17" s="9">
         <v>0.1443661971830986</v>
@@ -21439,7 +21757,7 @@
       <c r="C17" s="9">
         <v>284.0</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <v>1537.0</v>
       </c>
       <c r="F17" s="9">
@@ -21447,8 +21765,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="s">
-        <v>18</v>
+      <c r="A18" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B18" s="9">
         <v>0.16129032258064516</v>
@@ -21456,7 +21774,7 @@
       <c r="C18" s="9">
         <v>217.0</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="14">
         <v>1754.0</v>
       </c>
       <c r="F18" s="9">
@@ -21464,8 +21782,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="s">
-        <v>19</v>
+      <c r="A19" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="B19" s="9">
         <v>1.0</v>
@@ -21473,7 +21791,7 @@
       <c r="C19" s="9">
         <v>86.0</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="14">
         <v>1840.0</v>
       </c>
       <c r="F19" s="9">
@@ -21481,8 +21799,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="s">
-        <v>20</v>
+      <c r="A20" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="9">
         <v>0.18914473684210525</v>
@@ -21490,7 +21808,7 @@
       <c r="C20" s="9">
         <v>608.0</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="14">
         <v>2448.0</v>
       </c>
       <c r="F20" s="9">
@@ -21498,8 +21816,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="s">
-        <v>21</v>
+      <c r="A21" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="B21" s="9">
         <v>0.21804511278195488</v>
@@ -21507,7 +21825,7 @@
       <c r="C21" s="9">
         <v>399.0</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>2847.0</v>
       </c>
       <c r="F21" s="9">
@@ -21515,8 +21833,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
-        <v>22</v>
+      <c r="A22" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="9">
         <f t="shared" ref="B22:B24" si="3">F22/C22</f>
@@ -21525,7 +21843,7 @@
       <c r="C22" s="9">
         <v>660.0</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="14">
         <v>3507.0</v>
       </c>
       <c r="F22" s="9">
@@ -21533,8 +21851,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
-        <v>23</v>
+      <c r="A23" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="9">
         <f t="shared" si="3"/>
@@ -21552,8 +21870,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
-        <v>24</v>
+      <c r="A24" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="9">
         <f t="shared" si="3"/>
@@ -21571,8 +21889,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="15" t="s">
-        <v>25</v>
+      <c r="A25" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="1">
         <v>175.0</v>
@@ -21611,10 +21929,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>43903.0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>34.0</v>
       </c>
       <c r="C2" s="7">
@@ -21627,10 +21945,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>43904.0</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>45.0</v>
       </c>
       <c r="C3" s="7">
@@ -21643,10 +21961,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>43905.0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>56.0</v>
       </c>
       <c r="C4" s="7">
@@ -21659,10 +21977,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>43906.0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>65.0</v>
       </c>
       <c r="C5" s="7">
@@ -21675,10 +21993,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>43907.0</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>79.0</v>
       </c>
       <c r="C6" s="7">
@@ -21691,10 +22009,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>43908.0</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>97.0</v>
       </c>
       <c r="C7" s="7">
@@ -21707,7 +22025,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>43909.0</v>
       </c>
       <c r="B8" s="10">
@@ -21724,10 +22042,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>43910.0</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>158.0</v>
       </c>
       <c r="C9" s="7">
@@ -21740,10 +22058,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>43911.0</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>225.0</v>
       </c>
       <c r="C10" s="7">
@@ -21756,10 +22074,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>43912.0</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>266.0</v>
       </c>
       <c r="C11" s="7">
@@ -21772,10 +22090,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>43913.0</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>301.0</v>
       </c>
       <c r="C12" s="7">
@@ -21788,10 +22106,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>43914.0</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>387.0</v>
       </c>
       <c r="C13" s="7">
@@ -21804,10 +22122,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>43915.0</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>502.0</v>
       </c>
       <c r="C14" s="7">
@@ -21820,10 +22138,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>43916.0</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>589.0</v>
       </c>
       <c r="C15" s="7">
@@ -21832,7 +22150,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>43917.0</v>
       </c>
       <c r="B16" s="10">
@@ -21844,19 +22162,19 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>7</v>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="13">
+      <c r="B19" s="15">
         <f>SUM(D2:D14)</f>
         <v>1489.301735</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="16">
         <v>1.236</v>
       </c>
     </row>
@@ -21879,13 +22197,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="17">
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="14">
         <v>1.0</v>
       </c>
     </row>
@@ -21902,13 +22220,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>29</v>
+      <c r="A4" s="17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>30</v>
+      <c r="A6" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
